--- a/Jogos_da_Semana_FlashScore_2025-05-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ56"/>
+  <dimension ref="A1:AJ68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="H2" t="n">
         <v>4.2</v>
@@ -680,10 +680,10 @@
         <v>3.5</v>
       </c>
       <c r="R2" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S2" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T2" t="n">
         <v>17</v>
@@ -769,10 +769,10 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="H3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="I3" t="n">
         <v>15</v>
@@ -784,16 +784,16 @@
         <v>17</v>
       </c>
       <c r="L3" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="M3" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N3" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="O3" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="P3" t="n">
         <v>1.25</v>
@@ -826,7 +826,7 @@
         <v>34</v>
       </c>
       <c r="Z3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA3" t="n">
         <v>13</v>
@@ -844,7 +844,7 @@
         <v>29</v>
       </c>
       <c r="AF3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG3" t="n">
         <v>34</v>
@@ -890,36 +890,96 @@
           <t>Den Bosch</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="inlineStr"/>
-      <c r="AE4" t="inlineStr"/>
-      <c r="AF4" t="inlineStr"/>
-      <c r="AG4" t="inlineStr"/>
-      <c r="AH4" t="inlineStr"/>
-      <c r="AI4" t="inlineStr"/>
-      <c r="AJ4" t="inlineStr"/>
+      <c r="G4" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K4" t="n">
+        <v>9</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="T4" t="n">
+        <v>7</v>
+      </c>
+      <c r="U4" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="V4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W4" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="X4" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>75</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>600</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>75</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>45</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1040,7 +1100,7 @@
         <v>23</v>
       </c>
       <c r="AJ5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6">
@@ -1195,7 +1255,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H7" t="n">
         <v>4.1</v>
@@ -1204,16 +1264,16 @@
         <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L7" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M7" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N7" t="n">
         <v>1.7</v>
@@ -1246,7 +1306,7 @@
         <v>12</v>
       </c>
       <c r="X7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y7" t="n">
         <v>23</v>
@@ -1261,7 +1321,7 @@
         <v>15</v>
       </c>
       <c r="AC7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD7" t="n">
         <v>201</v>
@@ -1270,7 +1330,7 @@
         <v>15</v>
       </c>
       <c r="AF7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG7" t="n">
         <v>15</v>
@@ -1338,10 +1398,10 @@
         <v>3.4</v>
       </c>
       <c r="N8" t="n">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="O8" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="P8" t="n">
         <v>1.4</v>
@@ -1439,19 +1499,19 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="H9" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="I9" t="n">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="J9" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K9" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="L9" t="n">
         <v>1.29</v>
@@ -1460,10 +1520,10 @@
         <v>3.5</v>
       </c>
       <c r="N9" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O9" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="P9" t="n">
         <v>1.4</v>
@@ -1472,31 +1532,31 @@
         <v>2.75</v>
       </c>
       <c r="R9" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S9" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T9" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="U9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W9" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="X9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y9" t="n">
         <v>29</v>
       </c>
       <c r="Z9" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA9" t="n">
         <v>5</v>
@@ -1511,19 +1571,19 @@
         <v>151</v>
       </c>
       <c r="AE9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF9" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH9" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI9" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AJ9" t="n">
         <v>34</v>
@@ -1840,7 +1900,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>GrRCliHr</t>
+          <t>OjDFcHGE</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1850,119 +1910,59 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>CHILE - LIGA DE PRIMERA</t>
+          <t>BOSNIA AND HERZEGOVINA - WWIN LIGA BIH</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Sloboda</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>U. De Chile</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="H14" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="K14" t="n">
-        <v>13</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M14" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="N14" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="O14" t="n">
-        <v>2</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>3</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="T14" t="n">
-        <v>15</v>
-      </c>
-      <c r="U14" t="n">
-        <v>29</v>
-      </c>
-      <c r="V14" t="n">
-        <v>17</v>
-      </c>
-      <c r="W14" t="n">
-        <v>51</v>
-      </c>
-      <c r="X14" t="n">
-        <v>41</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>41</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>251</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>7</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>26</v>
-      </c>
+          <t>GOSK Gabela</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr"/>
+      <c r="AB14" t="inlineStr"/>
+      <c r="AC14" t="inlineStr"/>
+      <c r="AD14" t="inlineStr"/>
+      <c r="AE14" t="inlineStr"/>
+      <c r="AF14" t="inlineStr"/>
+      <c r="AG14" t="inlineStr"/>
+      <c r="AH14" t="inlineStr"/>
+      <c r="AI14" t="inlineStr"/>
+      <c r="AJ14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2uRAyut9</t>
+          <t>GrRCliHr</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1977,112 +1977,114 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>CHILE - LIGA DE ASCENSO</t>
+          <t>CHILE - LIGA DE PRIMERA</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Cobreloa</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>CD Santa Cruz</t>
+          <t>U. De Chile</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.42</v>
+        <v>4.75</v>
       </c>
       <c r="H15" t="n">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="I15" t="n">
-        <v>7.7</v>
+        <v>1.67</v>
       </c>
       <c r="J15" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="K15" t="n">
-        <v>7.4</v>
+        <v>13</v>
       </c>
       <c r="L15" t="n">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="M15" t="n">
-        <v>3.05</v>
+        <v>3.75</v>
       </c>
       <c r="N15" t="n">
-        <v>2.02</v>
+        <v>1.8</v>
       </c>
       <c r="O15" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="P15" t="n">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.62</v>
+        <v>3.25</v>
       </c>
       <c r="R15" t="n">
-        <v>2.35</v>
+        <v>1.8</v>
       </c>
       <c r="S15" t="n">
-        <v>1.53</v>
+        <v>1.91</v>
       </c>
       <c r="T15" t="n">
-        <v>5.2</v>
+        <v>13</v>
       </c>
       <c r="U15" t="n">
-        <v>5.9</v>
+        <v>26</v>
       </c>
       <c r="V15" t="n">
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="W15" t="n">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="X15" t="n">
-        <v>14.5</v>
+        <v>41</v>
       </c>
       <c r="Y15" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Z15" t="n">
-        <v>7.4</v>
+        <v>12</v>
       </c>
       <c r="AA15" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="AC15" t="n">
-        <v>200</v>
-      </c>
-      <c r="AD15" t="inlineStr"/>
+        <v>51</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>251</v>
+      </c>
       <c r="AE15" t="n">
-        <v>14.5</v>
+        <v>7.5</v>
       </c>
       <c r="AF15" t="n">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="AG15" t="n">
-        <v>28</v>
+        <v>8.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>250</v>
+        <v>13</v>
       </c>
       <c r="AI15" t="n">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="AJ15" t="n">
-        <v>120</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>AikpLJeS</t>
+          <t>2uRAyut9</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2092,7 +2094,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -2102,107 +2104,107 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>San Marcos de Arica</t>
+          <t>Cobreloa</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>San Luis</t>
+          <t>CD Santa Cruz</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.15</v>
+        <v>1.42</v>
       </c>
       <c r="H16" t="n">
-        <v>3.25</v>
+        <v>4.3</v>
       </c>
       <c r="I16" t="n">
-        <v>3.35</v>
+        <v>7.7</v>
       </c>
       <c r="J16" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="K16" t="n">
-        <v>6.3</v>
+        <v>7.4</v>
       </c>
       <c r="L16" t="n">
-        <v>1.47</v>
+        <v>1.35</v>
       </c>
       <c r="M16" t="n">
-        <v>2.57</v>
+        <v>3.05</v>
       </c>
       <c r="N16" t="n">
-        <v>2.37</v>
+        <v>2.02</v>
       </c>
       <c r="O16" t="n">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
       <c r="P16" t="n">
-        <v>1.55</v>
+        <v>1.45</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.37</v>
+        <v>2.62</v>
       </c>
       <c r="R16" t="n">
-        <v>2.05</v>
+        <v>2.35</v>
       </c>
       <c r="S16" t="n">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="T16" t="n">
-        <v>6</v>
+        <v>5.2</v>
       </c>
       <c r="U16" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="V16" t="n">
         <v>9.5</v>
       </c>
-      <c r="V16" t="n">
-        <v>10</v>
-      </c>
       <c r="W16" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="X16" t="n">
-        <v>22</v>
+        <v>14.5</v>
       </c>
       <c r="Y16" t="n">
         <v>45</v>
       </c>
       <c r="Z16" t="n">
-        <v>6.3</v>
+        <v>7.4</v>
       </c>
       <c r="AA16" t="n">
-        <v>6.6</v>
+        <v>9</v>
       </c>
       <c r="AB16" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="AC16" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="AD16" t="inlineStr"/>
       <c r="AE16" t="n">
-        <v>7.8</v>
+        <v>14.5</v>
       </c>
       <c r="AF16" t="n">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="AG16" t="n">
-        <v>13.5</v>
+        <v>28</v>
       </c>
       <c r="AH16" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="AI16" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="AJ16" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>UqzENE6b</t>
+          <t>AikpLJeS</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2212,59 +2214,117 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>10:50</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>CROATIA - PRVA NL</t>
+          <t>CHILE - LIGA DE ASCENSO</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Sesvete</t>
+          <t>San Marcos de Arica</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Vukovar 1991</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
-      <c r="Z17" t="inlineStr"/>
-      <c r="AA17" t="inlineStr"/>
-      <c r="AB17" t="inlineStr"/>
-      <c r="AC17" t="inlineStr"/>
+          <t>San Luis</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="N17" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="R17" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="T17" t="n">
+        <v>6</v>
+      </c>
+      <c r="U17" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>10</v>
+      </c>
+      <c r="W17" t="n">
+        <v>21</v>
+      </c>
+      <c r="X17" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>45</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>150</v>
+      </c>
       <c r="AD17" t="inlineStr"/>
-      <c r="AE17" t="inlineStr"/>
-      <c r="AF17" t="inlineStr"/>
-      <c r="AG17" t="inlineStr"/>
-      <c r="AH17" t="inlineStr"/>
-      <c r="AI17" t="inlineStr"/>
-      <c r="AJ17" t="inlineStr"/>
+      <c r="AE17" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>50</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>tKJTRrVF</t>
+          <t>Q7X5TX64</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2274,119 +2334,117 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>DENMARK - 1ST DIVISION</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Fredericia</t>
+          <t>Pereira</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Kolding IF</t>
+          <t>La Equidad</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.2</v>
+        <v>1.65</v>
       </c>
       <c r="H18" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I18" t="n">
-        <v>3</v>
+        <v>5.6</v>
       </c>
       <c r="J18" t="n">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="K18" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="L18" t="n">
-        <v>1.22</v>
+        <v>1.5</v>
       </c>
       <c r="M18" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="N18" t="n">
-        <v>1.75</v>
+        <v>2.45</v>
       </c>
       <c r="O18" t="n">
-        <v>2.05</v>
+        <v>1.52</v>
       </c>
       <c r="P18" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="Q18" t="n">
-        <v>3.25</v>
+        <v>2.3</v>
       </c>
       <c r="R18" t="n">
-        <v>1.62</v>
+        <v>2.35</v>
       </c>
       <c r="S18" t="n">
-        <v>2.2</v>
+        <v>1.53</v>
       </c>
       <c r="T18" t="n">
-        <v>9.5</v>
+        <v>4.85</v>
       </c>
       <c r="U18" t="n">
-        <v>12</v>
+        <v>6.7</v>
       </c>
       <c r="V18" t="n">
-        <v>9</v>
+        <v>9.75</v>
       </c>
       <c r="W18" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="X18" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>50</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>200</v>
+      </c>
+      <c r="AD18" t="inlineStr"/>
+      <c r="AE18" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG18" t="n">
         <v>21</v>
       </c>
-      <c r="X18" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>151</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>11</v>
-      </c>
       <c r="AH18" t="n">
-        <v>34</v>
+        <v>150</v>
       </c>
       <c r="AI18" t="n">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="AJ18" t="n">
-        <v>29</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>xnDxQMaS</t>
+          <t>UqzENE6b</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2396,119 +2454,59 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>10:50</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>DENMARK - 1ST DIVISION</t>
+          <t>CROATIA - PRVA NL</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Hvidovre IF</t>
+          <t>Sesvete</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Horsens</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H19" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I19" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="K19" t="n">
-        <v>13</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="M19" t="n">
-        <v>4</v>
-      </c>
-      <c r="N19" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="O19" t="n">
-        <v>2</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S19" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="T19" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="U19" t="n">
-        <v>13</v>
-      </c>
-      <c r="V19" t="n">
-        <v>10</v>
-      </c>
-      <c r="W19" t="n">
-        <v>26</v>
-      </c>
-      <c r="X19" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>151</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>26</v>
-      </c>
+          <t>Vukovar 1991</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr"/>
+      <c r="Y19" t="inlineStr"/>
+      <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="inlineStr"/>
+      <c r="AB19" t="inlineStr"/>
+      <c r="AC19" t="inlineStr"/>
+      <c r="AD19" t="inlineStr"/>
+      <c r="AE19" t="inlineStr"/>
+      <c r="AF19" t="inlineStr"/>
+      <c r="AG19" t="inlineStr"/>
+      <c r="AH19" t="inlineStr"/>
+      <c r="AI19" t="inlineStr"/>
+      <c r="AJ19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>YHb8K0Nk</t>
+          <t>tKJTRrVF</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2528,46 +2526,46 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Odense</t>
+          <t>Fredericia</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Esbjerg</t>
+          <t>Kolding IF</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.42</v>
+        <v>2.2</v>
       </c>
       <c r="H20" t="n">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="I20" t="n">
-        <v>5.75</v>
+        <v>3</v>
       </c>
       <c r="J20" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="K20" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L20" t="n">
-        <v>1.13</v>
+        <v>1.22</v>
       </c>
       <c r="M20" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N20" t="n">
-        <v>1.44</v>
+        <v>1.73</v>
       </c>
       <c r="O20" t="n">
-        <v>2.7</v>
+        <v>2.08</v>
       </c>
       <c r="P20" t="n">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="Q20" t="n">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="R20" t="n">
         <v>1.62</v>
@@ -2576,61 +2574,61 @@
         <v>2.2</v>
       </c>
       <c r="T20" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U20" t="n">
+        <v>12</v>
+      </c>
+      <c r="V20" t="n">
         <v>9</v>
       </c>
-      <c r="V20" t="n">
-        <v>8.5</v>
-      </c>
       <c r="W20" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="X20" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="Y20" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Z20" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AA20" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AB20" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AC20" t="n">
         <v>41</v>
       </c>
       <c r="AD20" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AE20" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="AF20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH20" t="n">
         <v>34</v>
       </c>
-      <c r="AG20" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>67</v>
-      </c>
       <c r="AI20" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AJ20" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>AJHfA4Dt</t>
+          <t>xnDxQMaS</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2640,32 +2638,32 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>ECUADOR - LIGA PRO</t>
+          <t>DENMARK - 1ST DIVISION</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Ind. del Valle</t>
+          <t>Hvidovre IF</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Mushuc Runa</t>
+          <t>Horsens</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.53</v>
+        <v>2.55</v>
       </c>
       <c r="H21" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="I21" t="n">
-        <v>5.75</v>
+        <v>2.55</v>
       </c>
       <c r="J21" t="n">
         <v>1.04</v>
@@ -2674,85 +2672,85 @@
         <v>13</v>
       </c>
       <c r="L21" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="M21" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="N21" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="O21" t="n">
+        <v>2</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S21" t="n">
         <v>2.1</v>
       </c>
-      <c r="P21" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.91</v>
-      </c>
       <c r="T21" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="U21" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="V21" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="W21" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="X21" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z21" t="n">
         <v>12</v>
       </c>
-      <c r="Y21" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z21" t="n">
+      <c r="AA21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB21" t="n">
         <v>13</v>
       </c>
-      <c r="AA21" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>15</v>
-      </c>
       <c r="AC21" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD21" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE21" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AF21" t="n">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="AG21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI21" t="n">
         <v>19</v>
       </c>
-      <c r="AH21" t="n">
-        <v>67</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>41</v>
-      </c>
       <c r="AJ21" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>EBEB6MC5</t>
+          <t>YHb8K0Nk</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2762,117 +2760,119 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>ECUADOR - LIGA PRO</t>
+          <t>DENMARK - 1ST DIVISION</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Barcelona SC</t>
+          <t>Odense</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Dep. Cuenca</t>
+          <t>Esbjerg</t>
         </is>
       </c>
       <c r="G22" t="n">
         <v>1.44</v>
       </c>
       <c r="H22" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="I22" t="n">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="J22" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="K22" t="n">
+        <v>21</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="M22" t="n">
+        <v>6</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="O22" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S22" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T22" t="n">
+        <v>10</v>
+      </c>
+      <c r="U22" t="n">
+        <v>9</v>
+      </c>
+      <c r="V22" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W22" t="n">
         <v>11</v>
       </c>
-      <c r="L22" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M22" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="N22" t="n">
-        <v>2</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="P22" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="R22" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T22" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="U22" t="n">
-        <v>6</v>
-      </c>
-      <c r="V22" t="n">
-        <v>9</v>
-      </c>
-      <c r="W22" t="n">
-        <v>9</v>
-      </c>
       <c r="X22" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Y22" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Z22" t="n">
-        <v>9.5</v>
+        <v>21</v>
       </c>
       <c r="AA22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB22" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AC22" t="n">
-        <v>101</v>
-      </c>
-      <c r="AD22" t="inlineStr"/>
+        <v>41</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>151</v>
+      </c>
       <c r="AE22" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AF22" t="n">
         <v>34</v>
       </c>
       <c r="AG22" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AH22" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AI22" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ22" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>8CpJh5s4</t>
+          <t>AJHfA4Dt</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2882,119 +2882,119 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>FINLAND - VEIKKAUSLIIGA</t>
+          <t>ECUADOR - LIGA PRO</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>KTP</t>
+          <t>Ind. del Valle</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Haka</t>
+          <t>Mushuc Runa</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.7</v>
+        <v>1.55</v>
       </c>
       <c r="H23" t="n">
         <v>3.9</v>
       </c>
       <c r="I23" t="n">
-        <v>2.35</v>
+        <v>5.75</v>
       </c>
       <c r="J23" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K23" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="L23" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="M23" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="N23" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="O23" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="P23" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="Q23" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="R23" t="n">
-        <v>1.53</v>
+        <v>1.8</v>
       </c>
       <c r="S23" t="n">
-        <v>2.38</v>
+        <v>1.91</v>
       </c>
       <c r="T23" t="n">
+        <v>8</v>
+      </c>
+      <c r="U23" t="n">
+        <v>8</v>
+      </c>
+      <c r="V23" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W23" t="n">
+        <v>11</v>
+      </c>
+      <c r="X23" t="n">
         <v>12</v>
-      </c>
-      <c r="U23" t="n">
-        <v>15</v>
-      </c>
-      <c r="V23" t="n">
-        <v>10</v>
-      </c>
-      <c r="W23" t="n">
-        <v>29</v>
-      </c>
-      <c r="X23" t="n">
-        <v>19</v>
       </c>
       <c r="Y23" t="n">
         <v>23</v>
       </c>
       <c r="Z23" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AA23" t="n">
         <v>7.5</v>
       </c>
       <c r="AB23" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AC23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>201</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI23" t="n">
         <v>41</v>
       </c>
-      <c r="AD23" t="n">
-        <v>126</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>17</v>
-      </c>
       <c r="AJ23" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>xAqhVbnB</t>
+          <t>EBEB6MC5</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3004,119 +3004,117 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>GERMANY - 2. BUNDESLIGA</t>
+          <t>ECUADOR - LIGA PRO</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Saarbrucken</t>
+          <t>Barcelona SC</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>Dep. Cuenca</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.2</v>
+        <v>1.44</v>
       </c>
       <c r="H24" t="n">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="I24" t="n">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="J24" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L24" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="M24" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="N24" t="n">
+        <v>2</v>
+      </c>
+      <c r="O24" t="n">
         <v>1.8</v>
       </c>
-      <c r="O24" t="n">
-        <v>2</v>
-      </c>
       <c r="P24" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="Q24" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="R24" t="n">
-        <v>1.67</v>
+        <v>2.38</v>
       </c>
       <c r="S24" t="n">
-        <v>2.1</v>
+        <v>1.53</v>
       </c>
       <c r="T24" t="n">
-        <v>9</v>
+        <v>5.5</v>
       </c>
       <c r="U24" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="V24" t="n">
         <v>9</v>
       </c>
       <c r="W24" t="n">
+        <v>9</v>
+      </c>
+      <c r="X24" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>101</v>
+      </c>
+      <c r="AD24" t="inlineStr"/>
+      <c r="AE24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG24" t="n">
         <v>21</v>
       </c>
-      <c r="X24" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>151</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>11</v>
-      </c>
       <c r="AH24" t="n">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="AI24" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="AJ24" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ltkScK25</t>
+          <t>8CpJh5s4</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3126,32 +3124,32 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>HUNGARY - OTP BANK LIGA</t>
+          <t>FINLAND - VEIKKAUSLIIGA</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Paks</t>
+          <t>KTP</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Kecskemeti TE</t>
+          <t>Haka</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.57</v>
+        <v>2.7</v>
       </c>
       <c r="H25" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="I25" t="n">
-        <v>4.75</v>
+        <v>2.3</v>
       </c>
       <c r="J25" t="n">
         <v>1.03</v>
@@ -3160,85 +3158,85 @@
         <v>17</v>
       </c>
       <c r="L25" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="M25" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N25" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="O25" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R25" t="n">
         <v>1.53</v>
       </c>
-      <c r="O25" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="P25" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.62</v>
-      </c>
       <c r="S25" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="T25" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="U25" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="V25" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="W25" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="X25" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="Y25" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z25" t="n">
         <v>17</v>
       </c>
       <c r="AA25" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AB25" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AC25" t="n">
         <v>41</v>
       </c>
       <c r="AD25" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI25" t="n">
         <v>17</v>
       </c>
-      <c r="AF25" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>34</v>
-      </c>
       <c r="AJ25" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>bwyEKx2D</t>
+          <t>xAqhVbnB</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3248,115 +3246,119 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>ICELAND - BESTA DEILD KARLA</t>
+          <t>GERMANY - 2. BUNDESLIGA</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>KR Reykjavik</t>
+          <t>Saarbrucken</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Fram</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.9</v>
+        <v>2.25</v>
       </c>
       <c r="H26" t="n">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="I26" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+        <v>3.1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K26" t="n">
+        <v>11</v>
+      </c>
       <c r="L26" t="n">
-        <v>1.1</v>
+        <v>1.25</v>
       </c>
       <c r="M26" t="n">
-        <v>5.9</v>
+        <v>3.75</v>
       </c>
       <c r="N26" t="n">
-        <v>1.32</v>
+        <v>1.83</v>
       </c>
       <c r="O26" t="n">
-        <v>3.1</v>
+        <v>1.98</v>
       </c>
       <c r="P26" t="n">
-        <v>1.21</v>
+        <v>1.36</v>
       </c>
       <c r="Q26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R26" t="n">
-        <v>1.31</v>
+        <v>1.67</v>
       </c>
       <c r="S26" t="n">
-        <v>3.15</v>
+        <v>2.1</v>
       </c>
       <c r="T26" t="n">
+        <v>9</v>
+      </c>
+      <c r="U26" t="n">
+        <v>12</v>
+      </c>
+      <c r="V26" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W26" t="n">
+        <v>21</v>
+      </c>
+      <c r="X26" t="n">
         <v>17</v>
       </c>
-      <c r="U26" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="V26" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="W26" t="n">
+      <c r="Y26" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>151</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI26" t="n">
         <v>23</v>
       </c>
-      <c r="X26" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>28</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>24</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>90</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>27</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>55</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>25</v>
-      </c>
       <c r="AJ26" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ze41CZnI</t>
+          <t>ltkScK25</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -3366,119 +3368,119 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>IRELAND - PREMIER DIVISION</t>
+          <t>HUNGARY - OTP BANK LIGA</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Derry City</t>
+          <t>Paks</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Shamrock Rovers</t>
+          <t>Kecskemeti TE</t>
         </is>
       </c>
       <c r="G27" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H27" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I27" t="n">
+        <v>5</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K27" t="n">
+        <v>21</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="O27" t="n">
         <v>2.6</v>
       </c>
-      <c r="H27" t="n">
-        <v>3</v>
-      </c>
-      <c r="I27" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="K27" t="n">
-        <v>7</v>
-      </c>
-      <c r="L27" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M27" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="N27" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.5</v>
-      </c>
       <c r="P27" t="n">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="R27" t="n">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="S27" t="n">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="T27" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="U27" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W27" t="n">
         <v>12</v>
       </c>
-      <c r="V27" t="n">
+      <c r="X27" t="n">
         <v>11</v>
       </c>
-      <c r="W27" t="n">
-        <v>26</v>
-      </c>
-      <c r="X27" t="n">
-        <v>23</v>
-      </c>
       <c r="Y27" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC27" t="n">
         <v>41</v>
       </c>
-      <c r="Z27" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB27" t="n">
+      <c r="AD27" t="n">
+        <v>126</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG27" t="n">
         <v>17</v>
       </c>
-      <c r="AC27" t="n">
-        <v>67</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>451</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>11</v>
-      </c>
       <c r="AH27" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AI27" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AJ27" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>IT0Fl2KU</t>
+          <t>bwyEKx2D</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -3488,119 +3490,115 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>IRELAND - PREMIER DIVISION</t>
+          <t>ICELAND - BESTA DEILD KARLA</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Drogheda</t>
+          <t>KR Reykjavik</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Bohemians</t>
+          <t>Fram</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.8</v>
+        <v>1.9</v>
       </c>
       <c r="H28" t="n">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="I28" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="K28" t="n">
-        <v>8.5</v>
-      </c>
+        <v>3.4</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
-        <v>1.36</v>
+        <v>1.1</v>
       </c>
       <c r="M28" t="n">
-        <v>3</v>
+        <v>5.9</v>
       </c>
       <c r="N28" t="n">
-        <v>2.15</v>
+        <v>1.32</v>
       </c>
       <c r="O28" t="n">
-        <v>1.67</v>
+        <v>3.1</v>
       </c>
       <c r="P28" t="n">
-        <v>1.44</v>
+        <v>1.21</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.63</v>
+        <v>4</v>
       </c>
       <c r="R28" t="n">
-        <v>1.91</v>
+        <v>1.31</v>
       </c>
       <c r="S28" t="n">
-        <v>1.91</v>
+        <v>3.15</v>
       </c>
       <c r="T28" t="n">
-        <v>8.5</v>
+        <v>17</v>
       </c>
       <c r="U28" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="V28" t="n">
-        <v>11</v>
+        <v>9.25</v>
       </c>
       <c r="W28" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="X28" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Y28" t="n">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="Z28" t="n">
-        <v>8.5</v>
+        <v>28</v>
       </c>
       <c r="AA28" t="n">
-        <v>6.5</v>
+        <v>9.25</v>
       </c>
       <c r="AB28" t="n">
-        <v>15</v>
+        <v>10.25</v>
       </c>
       <c r="AC28" t="n">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="AD28" t="n">
-        <v>301</v>
+        <v>90</v>
       </c>
       <c r="AE28" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="AF28" t="n">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="AG28" t="n">
-        <v>9.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH28" t="n">
+        <v>55</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>25</v>
+      </c>
+      <c r="AJ28" t="n">
         <v>21</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>34</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>bNINhEWo</t>
+          <t>hWzNv5kd</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -3610,119 +3608,111 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>05:30</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>IRELAND - PREMIER DIVISION</t>
+          <t>INDONESIA - LIGA 1</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Galway</t>
+          <t>Persik Kediri</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Cork City</t>
+          <t>Borneo</t>
         </is>
       </c>
       <c r="G29" t="n">
+        <v>3</v>
+      </c>
+      <c r="H29" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="N29" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="n">
         <v>1.6</v>
       </c>
-      <c r="H29" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="I29" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K29" t="n">
-        <v>11</v>
-      </c>
-      <c r="L29" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M29" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="N29" t="n">
-        <v>2</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="P29" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="R29" t="n">
-        <v>2</v>
-      </c>
       <c r="S29" t="n">
-        <v>1.75</v>
+        <v>2.07</v>
       </c>
       <c r="T29" t="n">
-        <v>6</v>
+        <v>10.5</v>
       </c>
       <c r="U29" t="n">
-        <v>7</v>
+        <v>16.5</v>
       </c>
       <c r="V29" t="n">
-        <v>8.5</v>
+        <v>10.75</v>
       </c>
       <c r="W29" t="n">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="X29" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="Y29" t="n">
         <v>29</v>
       </c>
       <c r="Z29" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AA29" t="n">
-        <v>7.5</v>
+        <v>6.8</v>
       </c>
       <c r="AB29" t="n">
-        <v>19</v>
+        <v>12.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="AD29" t="n">
-        <v>401</v>
+        <v>350</v>
       </c>
       <c r="AE29" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AF29" t="n">
-        <v>29</v>
+        <v>11.5</v>
       </c>
       <c r="AG29" t="n">
-        <v>17</v>
+        <v>8.75</v>
       </c>
       <c r="AH29" t="n">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="AI29" t="n">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="AJ29" t="n">
-        <v>51</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>4KLVjh1b</t>
+          <t>69JrFoR8</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -3732,119 +3722,107 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>IRELAND - PREMIER DIVISION</t>
+          <t>INDONESIA - LIGA 1</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Shelbourne</t>
+          <t>Dewa United</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Sligo Rovers</t>
+          <t>PSBS Biak Numfor</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="H30" t="n">
-        <v>3.75</v>
+        <v>4.4</v>
       </c>
       <c r="I30" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K30" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="O30" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S30" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="T30" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="U30" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="W30" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="X30" t="n">
         <v>11</v>
       </c>
-      <c r="L30" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M30" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="N30" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="P30" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>3</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S30" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="T30" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="U30" t="n">
-        <v>7</v>
-      </c>
-      <c r="V30" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="W30" t="n">
-        <v>11</v>
-      </c>
-      <c r="X30" t="n">
-        <v>13</v>
-      </c>
       <c r="Y30" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="Z30" t="n">
-        <v>10</v>
+        <v>16.5</v>
       </c>
       <c r="AA30" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AB30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>55</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>350</v>
+      </c>
+      <c r="AE30" t="n">
         <v>19</v>
       </c>
-      <c r="AC30" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>351</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>15</v>
-      </c>
       <c r="AF30" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="AG30" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AH30" t="n">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="AI30" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AJ30" t="n">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>QZ9vkWVA</t>
+          <t>8vJ928s3</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -3854,119 +3832,111 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>IRELAND - PREMIER DIVISION</t>
+          <t>INDONESIA - LIGA 1</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>St. Patricks</t>
+          <t>Persebaya</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Waterford</t>
+          <t>Bali United</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.44</v>
+        <v>1.65</v>
       </c>
       <c r="H31" t="n">
-        <v>4.33</v>
+        <v>3.7</v>
       </c>
       <c r="I31" t="n">
-        <v>6</v>
-      </c>
-      <c r="J31" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="K31" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="N31" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="T31" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="U31" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>8</v>
+      </c>
+      <c r="W31" t="n">
         <v>13</v>
       </c>
-      <c r="L31" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M31" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="N31" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="P31" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>3</v>
-      </c>
-      <c r="R31" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S31" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="T31" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="U31" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="V31" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="W31" t="n">
-        <v>9.5</v>
-      </c>
       <c r="X31" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y31" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>60</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>400</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF31" t="n">
         <v>29</v>
       </c>
-      <c r="Z31" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>67</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>451</v>
-      </c>
-      <c r="AE31" t="n">
+      <c r="AG31" t="n">
         <v>15</v>
       </c>
-      <c r="AF31" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>19</v>
-      </c>
       <c r="AH31" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="AI31" t="n">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="AJ31" t="n">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>jR2X0aNE</t>
+          <t>thHH0nCF</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -3976,115 +3946,107 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>IRELAND - DIVISION 1</t>
+          <t>INDONESIA - LIGA 1</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Athlone</t>
+          <t>Persija Jakarta</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Cobh Ramblers</t>
+          <t>Malut United</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="H32" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="I32" t="n">
-        <v>2.02</v>
+        <v>2.27</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="M32" t="n">
-        <v>3.15</v>
-      </c>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
       <c r="N32" t="n">
-        <v>1.78</v>
+        <v>1.55</v>
       </c>
       <c r="O32" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="P32" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>2.57</v>
-      </c>
+        <v>2.15</v>
+      </c>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
       <c r="R32" t="n">
-        <v>1.65</v>
+        <v>1.47</v>
       </c>
       <c r="S32" t="n">
-        <v>1.98</v>
+        <v>2.32</v>
       </c>
       <c r="T32" t="n">
-        <v>10.75</v>
+        <v>11.75</v>
       </c>
       <c r="U32" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="V32" t="n">
+        <v>10</v>
+      </c>
+      <c r="W32" t="n">
+        <v>32</v>
+      </c>
+      <c r="X32" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AB32" t="n">
         <v>11.75</v>
       </c>
-      <c r="W32" t="n">
-        <v>50</v>
-      </c>
-      <c r="X32" t="n">
-        <v>30</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>35</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB32" t="n">
+      <c r="AC32" t="n">
+        <v>40</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>250</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF32" t="n">
         <v>13.5</v>
       </c>
-      <c r="AC32" t="n">
-        <v>55</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>400</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>10.25</v>
-      </c>
       <c r="AG32" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH32" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AI32" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AJ32" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>plvTkZED</t>
+          <t>v3RdirZ1</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4094,115 +4056,111 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>IRELAND - DIVISION 1</t>
+          <t>INDONESIA - LIGA 1</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Bray</t>
+          <t>PSM Makassar</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Wexford</t>
+          <t>Persita</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.22</v>
+        <v>1.47</v>
       </c>
       <c r="H33" t="n">
-        <v>3.45</v>
+        <v>4</v>
       </c>
       <c r="I33" t="n">
-        <v>2.85</v>
+        <v>6.1</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="M33" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="N33" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="S33" t="n">
         <v>1.78</v>
       </c>
-      <c r="O33" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="P33" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="R33" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S33" t="n">
-        <v>1.98</v>
-      </c>
       <c r="T33" t="n">
-        <v>8.25</v>
+        <v>6.9</v>
       </c>
       <c r="U33" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="V33" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W33" t="n">
-        <v>21</v>
+        <v>10.25</v>
       </c>
       <c r="X33" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AB33" t="n">
         <v>17.5</v>
       </c>
-      <c r="Y33" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AC33" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AD33" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="AE33" t="n">
-        <v>9.75</v>
+        <v>16</v>
       </c>
       <c r="AF33" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="AG33" t="n">
-        <v>10.5</v>
+        <v>19.5</v>
       </c>
       <c r="AH33" t="n">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="AI33" t="n">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="AJ33" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>dO5uawhR</t>
+          <t>ze41CZnI</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4217,104 +4175,114 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>IRELAND - DIVISION 1</t>
+          <t>IRELAND - PREMIER DIVISION</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Dundalk</t>
+          <t>Derry City</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Kerry</t>
+          <t>Shamrock Rovers</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.31</v>
+        <v>2.6</v>
       </c>
       <c r="H34" t="n">
-        <v>4.8</v>
+        <v>3</v>
       </c>
       <c r="I34" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+        <v>2.9</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K34" t="n">
+        <v>7</v>
+      </c>
       <c r="L34" t="n">
-        <v>1.23</v>
+        <v>1.44</v>
       </c>
       <c r="M34" t="n">
-        <v>3.4</v>
+        <v>2.63</v>
       </c>
       <c r="N34" t="n">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="O34" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
+        <v>1.5</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>2.5</v>
+      </c>
       <c r="R34" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S34" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="T34" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U34" t="n">
-        <v>5.8</v>
+        <v>12</v>
       </c>
       <c r="V34" t="n">
-        <v>8.75</v>
+        <v>11</v>
       </c>
       <c r="W34" t="n">
-        <v>7.7</v>
+        <v>26</v>
       </c>
       <c r="X34" t="n">
-        <v>11.75</v>
+        <v>23</v>
       </c>
       <c r="Y34" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="Z34" t="n">
-        <v>11.75</v>
+        <v>7</v>
       </c>
       <c r="AA34" t="n">
-        <v>9.75</v>
+        <v>6</v>
       </c>
       <c r="AB34" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="AC34" t="n">
-        <v>150</v>
-      </c>
-      <c r="AD34" t="inlineStr"/>
+        <v>67</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>451</v>
+      </c>
       <c r="AE34" t="n">
-        <v>20</v>
+        <v>7.5</v>
       </c>
       <c r="AF34" t="n">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="AG34" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="AH34" t="n">
-        <v>250</v>
+        <v>29</v>
       </c>
       <c r="AI34" t="n">
-        <v>110</v>
+        <v>26</v>
       </c>
       <c r="AJ34" t="n">
-        <v>100</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>tdsCgHFl</t>
+          <t>IT0Fl2KU</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -4329,110 +4297,114 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>IRELAND - DIVISION 1</t>
+          <t>IRELAND - PREMIER DIVISION</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Finn Harps</t>
+          <t>Drogheda</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>UC Dublin</t>
+          <t>Bohemians</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.95</v>
+        <v>2.8</v>
       </c>
       <c r="H35" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I35" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+        <v>2.38</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K35" t="n">
+        <v>8.5</v>
+      </c>
       <c r="L35" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="M35" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="N35" t="n">
-        <v>1.87</v>
+        <v>2.15</v>
       </c>
       <c r="O35" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="P35" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.47</v>
+        <v>2.63</v>
       </c>
       <c r="R35" t="n">
-        <v>1.65</v>
+        <v>1.91</v>
       </c>
       <c r="S35" t="n">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="T35" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="U35" t="n">
+        <v>15</v>
+      </c>
+      <c r="V35" t="n">
+        <v>11</v>
+      </c>
+      <c r="W35" t="n">
+        <v>34</v>
+      </c>
+      <c r="X35" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>301</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG35" t="n">
         <v>9.5</v>
       </c>
-      <c r="U35" t="n">
-        <v>16</v>
-      </c>
-      <c r="V35" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="W35" t="n">
-        <v>37</v>
-      </c>
-      <c r="X35" t="n">
-        <v>25</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>60</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>450</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>9</v>
-      </c>
       <c r="AH35" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AI35" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ35" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>lMpKiep1</t>
+          <t>bNINhEWo</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -4447,106 +4419,114 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>IRELAND - DIVISION 1</t>
+          <t>IRELAND - PREMIER DIVISION</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Treaty United</t>
+          <t>Galway</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Longford</t>
+          <t>Cork City</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="H36" t="n">
         <v>3.75</v>
       </c>
       <c r="I36" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+        <v>5.5</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K36" t="n">
+        <v>11</v>
+      </c>
       <c r="L36" t="n">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="M36" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="N36" t="n">
-        <v>1.72</v>
+        <v>2</v>
       </c>
       <c r="O36" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
+        <v>1.8</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>2.75</v>
+      </c>
       <c r="R36" t="n">
-        <v>1.72</v>
+        <v>2</v>
       </c>
       <c r="S36" t="n">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="T36" t="n">
-        <v>7.3</v>
+        <v>6</v>
       </c>
       <c r="U36" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V36" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="W36" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="X36" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="Y36" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="Z36" t="n">
-        <v>11.25</v>
+        <v>9.5</v>
       </c>
       <c r="AA36" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="AB36" t="n">
-        <v>15.5</v>
+        <v>19</v>
       </c>
       <c r="AC36" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="AD36" t="n">
-        <v>500</v>
+        <v>401</v>
       </c>
       <c r="AE36" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AF36" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG36" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AH36" t="n">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="AI36" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AJ36" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>vkd8ZZ7c</t>
+          <t>4KLVjh1b</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -4556,59 +4536,119 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>LITHUANIA - A LYGA</t>
+          <t>IRELAND - PREMIER DIVISION</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Banga</t>
+          <t>Shelbourne</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>FK Panevezys</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="inlineStr"/>
-      <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
-      <c r="W37" t="inlineStr"/>
-      <c r="X37" t="inlineStr"/>
-      <c r="Y37" t="inlineStr"/>
-      <c r="Z37" t="inlineStr"/>
-      <c r="AA37" t="inlineStr"/>
-      <c r="AB37" t="inlineStr"/>
-      <c r="AC37" t="inlineStr"/>
-      <c r="AD37" t="inlineStr"/>
-      <c r="AE37" t="inlineStr"/>
-      <c r="AF37" t="inlineStr"/>
-      <c r="AG37" t="inlineStr"/>
-      <c r="AH37" t="inlineStr"/>
-      <c r="AI37" t="inlineStr"/>
-      <c r="AJ37" t="inlineStr"/>
+          <t>Sligo Rovers</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="H37" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I37" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K37" t="n">
+        <v>11</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="N37" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>3</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T37" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="U37" t="n">
+        <v>7</v>
+      </c>
+      <c r="V37" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W37" t="n">
+        <v>11</v>
+      </c>
+      <c r="X37" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>351</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>67</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>C2fGXDxA</t>
+          <t>QZ9vkWVA</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -4618,59 +4658,119 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>LITHUANIA - A LYGA</t>
+          <t>IRELAND - PREMIER DIVISION</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Kauno Zalgiris</t>
+          <t>St. Patricks</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Siauliai FA</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="inlineStr"/>
-      <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr"/>
-      <c r="W38" t="inlineStr"/>
-      <c r="X38" t="inlineStr"/>
-      <c r="Y38" t="inlineStr"/>
-      <c r="Z38" t="inlineStr"/>
-      <c r="AA38" t="inlineStr"/>
-      <c r="AB38" t="inlineStr"/>
-      <c r="AC38" t="inlineStr"/>
-      <c r="AD38" t="inlineStr"/>
-      <c r="AE38" t="inlineStr"/>
-      <c r="AF38" t="inlineStr"/>
-      <c r="AG38" t="inlineStr"/>
-      <c r="AH38" t="inlineStr"/>
-      <c r="AI38" t="inlineStr"/>
-      <c r="AJ38" t="inlineStr"/>
+          <t>Waterford</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+      <c r="I38" t="n">
+        <v>7</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K38" t="n">
+        <v>11</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="N38" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>3</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S38" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T38" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="U38" t="n">
+        <v>7</v>
+      </c>
+      <c r="V38" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W38" t="n">
+        <v>11</v>
+      </c>
+      <c r="X38" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>351</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>67</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>bHTII3op</t>
+          <t>jR2X0aNE</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -4680,59 +4780,115 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>PARAGUAY - DIVISION INTERMEDIA</t>
+          <t>IRELAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>12 de Junio</t>
+          <t>Athlone</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Dep. Capiata</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
+          <t>Cobh Ramblers</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H39" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I39" t="n">
+        <v>2.02</v>
+      </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="inlineStr"/>
-      <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr"/>
-      <c r="W39" t="inlineStr"/>
-      <c r="X39" t="inlineStr"/>
-      <c r="Y39" t="inlineStr"/>
-      <c r="Z39" t="inlineStr"/>
-      <c r="AA39" t="inlineStr"/>
-      <c r="AB39" t="inlineStr"/>
-      <c r="AC39" t="inlineStr"/>
-      <c r="AD39" t="inlineStr"/>
-      <c r="AE39" t="inlineStr"/>
-      <c r="AF39" t="inlineStr"/>
-      <c r="AG39" t="inlineStr"/>
-      <c r="AH39" t="inlineStr"/>
-      <c r="AI39" t="inlineStr"/>
-      <c r="AJ39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="N39" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="T39" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="U39" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="W39" t="n">
+        <v>50</v>
+      </c>
+      <c r="X39" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>55</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>400</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>16</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>pxCutblg</t>
+          <t>plvTkZED</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -4742,119 +4898,115 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>IRELAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Alianza Huanuco</t>
+          <t>Bray</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>FBC Melgar</t>
+          <t>Wexford</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>4.5</v>
+        <v>2.22</v>
       </c>
       <c r="H40" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I40" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="J40" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="K40" t="n">
-        <v>12</v>
-      </c>
+        <v>2.87</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="M40" t="n">
-        <v>4</v>
+        <v>3.15</v>
       </c>
       <c r="N40" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="O40" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="P40" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.25</v>
+        <v>2.57</v>
       </c>
       <c r="R40" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="S40" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="T40" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="U40" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="V40" t="n">
+        <v>9</v>
+      </c>
+      <c r="W40" t="n">
+        <v>22</v>
+      </c>
+      <c r="X40" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>60</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>450</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AF40" t="n">
         <v>15</v>
       </c>
-      <c r="U40" t="n">
-        <v>23</v>
-      </c>
-      <c r="V40" t="n">
-        <v>15</v>
-      </c>
-      <c r="W40" t="n">
-        <v>51</v>
-      </c>
-      <c r="X40" t="n">
-        <v>34</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>41</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>201</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>8</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>9</v>
-      </c>
       <c r="AG40" t="n">
-        <v>8.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH40" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="AI40" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="AJ40" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>jkstvxJ5</t>
+          <t>dO5uawhR</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -4864,119 +5016,109 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>IRELAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Sport Boys</t>
+          <t>Dundalk</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Alianza Lima</t>
+          <t>Kerry</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>4.75</v>
+        <v>1.32</v>
       </c>
       <c r="H41" t="n">
-        <v>3.7</v>
+        <v>4.8</v>
       </c>
       <c r="I41" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="K41" t="n">
-        <v>12</v>
-      </c>
+        <v>8.25</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="M41" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="N41" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="O41" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="P41" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>3.25</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
       <c r="R41" t="n">
-        <v>1.69</v>
+        <v>2.02</v>
       </c>
       <c r="S41" t="n">
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="T41" t="n">
-        <v>15</v>
+        <v>6.8</v>
       </c>
       <c r="U41" t="n">
-        <v>26</v>
+        <v>6.1</v>
       </c>
       <c r="V41" t="n">
-        <v>15</v>
+        <v>8.75</v>
       </c>
       <c r="W41" t="n">
-        <v>51</v>
+        <v>7.9</v>
       </c>
       <c r="X41" t="n">
-        <v>34</v>
+        <v>11.25</v>
       </c>
       <c r="Y41" t="n">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="Z41" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AA41" t="n">
-        <v>7</v>
+        <v>9.75</v>
       </c>
       <c r="AB41" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="AC41" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>201</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="AD41" t="inlineStr"/>
       <c r="AE41" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="AF41" t="n">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="AG41" t="n">
-        <v>8.5</v>
+        <v>27</v>
       </c>
       <c r="AH41" t="n">
-        <v>13</v>
+        <v>250</v>
       </c>
       <c r="AI41" t="n">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="AJ41" t="n">
-        <v>23</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>p6JUOo1B</t>
+          <t>tdsCgHFl</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -4986,59 +5128,115 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - DIVISION 1</t>
+          <t>IRELAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Al Adalah</t>
+          <t>Finn Harps</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Al Bukiryah</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
+          <t>UC Dublin</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="H42" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I42" t="n">
+        <v>2.32</v>
+      </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr"/>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="inlineStr"/>
-      <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr"/>
-      <c r="W42" t="inlineStr"/>
-      <c r="X42" t="inlineStr"/>
-      <c r="Y42" t="inlineStr"/>
-      <c r="Z42" t="inlineStr"/>
-      <c r="AA42" t="inlineStr"/>
-      <c r="AB42" t="inlineStr"/>
-      <c r="AC42" t="inlineStr"/>
-      <c r="AD42" t="inlineStr"/>
-      <c r="AE42" t="inlineStr"/>
-      <c r="AF42" t="inlineStr"/>
-      <c r="AG42" t="inlineStr"/>
-      <c r="AH42" t="inlineStr"/>
-      <c r="AI42" t="inlineStr"/>
-      <c r="AJ42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M42" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="N42" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="T42" t="n">
+        <v>9</v>
+      </c>
+      <c r="U42" t="n">
+        <v>15</v>
+      </c>
+      <c r="V42" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="W42" t="n">
+        <v>37</v>
+      </c>
+      <c r="X42" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>35</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>60</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>450</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>QFRxNPVN</t>
+          <t>lMpKiep1</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -5048,59 +5246,111 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - DIVISION 1</t>
+          <t>IRELAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Al Hazem</t>
+          <t>Treaty United</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Al Taee</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
+          <t>Longford</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H43" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I43" t="n">
+        <v>4.7</v>
+      </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr"/>
-      <c r="O43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="N43" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1.9</v>
+      </c>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="inlineStr"/>
-      <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr"/>
-      <c r="V43" t="inlineStr"/>
-      <c r="W43" t="inlineStr"/>
-      <c r="X43" t="inlineStr"/>
-      <c r="Y43" t="inlineStr"/>
-      <c r="Z43" t="inlineStr"/>
-      <c r="AA43" t="inlineStr"/>
-      <c r="AB43" t="inlineStr"/>
-      <c r="AC43" t="inlineStr"/>
-      <c r="AD43" t="inlineStr"/>
-      <c r="AE43" t="inlineStr"/>
-      <c r="AF43" t="inlineStr"/>
-      <c r="AG43" t="inlineStr"/>
-      <c r="AH43" t="inlineStr"/>
-      <c r="AI43" t="inlineStr"/>
-      <c r="AJ43" t="inlineStr"/>
+      <c r="R43" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="S43" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="T43" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="U43" t="n">
+        <v>8</v>
+      </c>
+      <c r="V43" t="n">
+        <v>8</v>
+      </c>
+      <c r="W43" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="X43" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>70</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>500</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>28</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>80</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>45</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>6RGGVQqh</t>
+          <t>vkd8ZZ7c</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -5110,59 +5360,107 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>LITHUANIA - A LYGA</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Cukaricki</t>
+          <t>Banga</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Zeleznicar Pancevo</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
+          <t>FK Panevezys</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H44" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I44" t="n">
+        <v>2.65</v>
+      </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr"/>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
+      <c r="N44" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P44" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>2.35</v>
+      </c>
       <c r="R44" t="inlineStr"/>
       <c r="S44" t="inlineStr"/>
-      <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr"/>
-      <c r="V44" t="inlineStr"/>
-      <c r="W44" t="inlineStr"/>
-      <c r="X44" t="inlineStr"/>
-      <c r="Y44" t="inlineStr"/>
-      <c r="Z44" t="inlineStr"/>
-      <c r="AA44" t="inlineStr"/>
-      <c r="AB44" t="inlineStr"/>
-      <c r="AC44" t="inlineStr"/>
-      <c r="AD44" t="inlineStr"/>
-      <c r="AE44" t="inlineStr"/>
-      <c r="AF44" t="inlineStr"/>
-      <c r="AG44" t="inlineStr"/>
-      <c r="AH44" t="inlineStr"/>
-      <c r="AI44" t="inlineStr"/>
-      <c r="AJ44" t="inlineStr"/>
+      <c r="T44" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="U44" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>8</v>
+      </c>
+      <c r="W44" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="X44" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>55</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>400</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>jeGIi8Vq</t>
+          <t>C2fGXDxA</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -5172,119 +5470,107 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>SLOVENIA - PRVA LIGA</t>
+          <t>LITHUANIA - A LYGA</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Radomlje</t>
+          <t>Kauno Zalgiris</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Primorje</t>
+          <t>Siauliai FA</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.2</v>
+        <v>1.57</v>
       </c>
       <c r="H45" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I45" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K45" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="L45" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="M45" t="n">
-        <v>3.45</v>
-      </c>
+        <v>5.3</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
       <c r="N45" t="n">
-        <v>1.78</v>
+        <v>1.87</v>
       </c>
       <c r="O45" t="n">
-        <v>1.93</v>
+        <v>1.75</v>
       </c>
       <c r="P45" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="R45" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S45" t="n">
-        <v>2.1</v>
-      </c>
+        <v>2.42</v>
+      </c>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr"/>
       <c r="T45" t="n">
-        <v>8.75</v>
+        <v>5.5</v>
       </c>
       <c r="U45" t="n">
-        <v>11.5</v>
+        <v>6.1</v>
       </c>
       <c r="V45" t="n">
-        <v>8.75</v>
+        <v>6.8</v>
       </c>
       <c r="W45" t="n">
-        <v>22</v>
+        <v>9.5</v>
       </c>
       <c r="X45" t="n">
-        <v>16.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y45" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>65</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>500</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AF45" t="n">
         <v>25</v>
       </c>
-      <c r="Z45" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AA45" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AB45" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC45" t="n">
-        <v>55</v>
-      </c>
-      <c r="AD45" t="n">
-        <v>400</v>
-      </c>
-      <c r="AE45" t="n">
-        <v>10</v>
-      </c>
-      <c r="AF45" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AG45" t="n">
-        <v>10.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH45" t="n">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="AI45" t="n">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="AJ45" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Qaw1C0fA</t>
+          <t>bHTII3op</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -5294,59 +5580,51 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>SOUTH KOREA - K LEAGUE 1</t>
+          <t>PARAGUAY - DIVISION INTERMEDIA</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Anyang</t>
+          <t>12 de Junio</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Pohang</t>
+          <t>Dep. Capiata</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="H46" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I46" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M46" t="n">
         <v>3.2</v>
       </c>
-      <c r="I46" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="K46" t="n">
-        <v>10</v>
-      </c>
-      <c r="L46" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M46" t="n">
-        <v>3.5</v>
-      </c>
       <c r="N46" t="n">
-        <v>1.98</v>
+        <v>1.75</v>
       </c>
       <c r="O46" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="P46" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>2.75</v>
-      </c>
+        <v>1.85</v>
+      </c>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
       <c r="R46" t="n">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="S46" t="n">
         <v>2</v>
@@ -5358,55 +5636,55 @@
         <v>13</v>
       </c>
       <c r="V46" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="W46" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="X46" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y46" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z46" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA46" t="n">
-        <v>6</v>
+        <v>6.7</v>
       </c>
       <c r="AB46" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC46" t="n">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="AD46" t="n">
-        <v>201</v>
+        <v>400</v>
       </c>
       <c r="AE46" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AF46" t="n">
         <v>13</v>
       </c>
       <c r="AG46" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH46" t="n">
         <v>26</v>
       </c>
       <c r="AI46" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AJ46" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>UXqhEMPc</t>
+          <t>WURQGsGd</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -5416,119 +5694,59 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>SOUTH KOREA - K LEAGUE 1</t>
+          <t>PARAGUAY - DIVISION INTERMEDIA</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Jeju SK</t>
+          <t>Encarnacion FC</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Jeonbuk</t>
-        </is>
-      </c>
-      <c r="G47" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="H47" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I47" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="K47" t="n">
-        <v>9</v>
-      </c>
-      <c r="L47" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M47" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="N47" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="O47" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="P47" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R47" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S47" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="T47" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="U47" t="n">
-        <v>17</v>
-      </c>
-      <c r="V47" t="n">
-        <v>12</v>
-      </c>
-      <c r="W47" t="n">
-        <v>41</v>
-      </c>
-      <c r="X47" t="n">
-        <v>29</v>
-      </c>
-      <c r="Y47" t="n">
-        <v>41</v>
-      </c>
-      <c r="Z47" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA47" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB47" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC47" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD47" t="n">
-        <v>301</v>
-      </c>
-      <c r="AE47" t="n">
-        <v>7</v>
-      </c>
-      <c r="AF47" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AG47" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH47" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI47" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ47" t="n">
-        <v>29</v>
-      </c>
+          <t>Guarani de Fram</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr"/>
+      <c r="T47" t="inlineStr"/>
+      <c r="U47" t="inlineStr"/>
+      <c r="V47" t="inlineStr"/>
+      <c r="W47" t="inlineStr"/>
+      <c r="X47" t="inlineStr"/>
+      <c r="Y47" t="inlineStr"/>
+      <c r="Z47" t="inlineStr"/>
+      <c r="AA47" t="inlineStr"/>
+      <c r="AB47" t="inlineStr"/>
+      <c r="AC47" t="inlineStr"/>
+      <c r="AD47" t="inlineStr"/>
+      <c r="AE47" t="inlineStr"/>
+      <c r="AF47" t="inlineStr"/>
+      <c r="AG47" t="inlineStr"/>
+      <c r="AH47" t="inlineStr"/>
+      <c r="AI47" t="inlineStr"/>
+      <c r="AJ47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>td3iRyV0</t>
+          <t>pxCutblg</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -5538,119 +5756,119 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Aarau</t>
+          <t>Alianza Huanuco</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Stade Nyonnais</t>
+          <t>FBC Melgar</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.45</v>
+        <v>5</v>
       </c>
       <c r="H48" t="n">
-        <v>4.6</v>
+        <v>3.6</v>
       </c>
       <c r="I48" t="n">
-        <v>5.7</v>
+        <v>1.67</v>
       </c>
       <c r="J48" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="K48" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L48" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="M48" t="n">
-        <v>5.2</v>
+        <v>3.75</v>
       </c>
       <c r="N48" t="n">
-        <v>1.4</v>
+        <v>1.83</v>
       </c>
       <c r="O48" t="n">
-        <v>2.72</v>
+        <v>1.98</v>
       </c>
       <c r="P48" t="n">
-        <v>1.24</v>
+        <v>1.36</v>
       </c>
       <c r="Q48" t="n">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="R48" t="n">
-        <v>1.53</v>
+        <v>1.8</v>
       </c>
       <c r="S48" t="n">
-        <v>2.32</v>
+        <v>1.91</v>
       </c>
       <c r="T48" t="n">
-        <v>11.25</v>
+        <v>15</v>
       </c>
       <c r="U48" t="n">
-        <v>9.5</v>
+        <v>26</v>
       </c>
       <c r="V48" t="n">
+        <v>17</v>
+      </c>
+      <c r="W48" t="n">
+        <v>51</v>
+      </c>
+      <c r="X48" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>201</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG48" t="n">
         <v>8.5</v>
       </c>
-      <c r="W48" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="X48" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Y48" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="Z48" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA48" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AB48" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC48" t="n">
-        <v>45</v>
-      </c>
-      <c r="AD48" t="n">
-        <v>250</v>
-      </c>
-      <c r="AE48" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF48" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG48" t="n">
-        <v>18</v>
-      </c>
       <c r="AH48" t="n">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="AI48" t="n">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="AJ48" t="n">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>UuAZ8ZDt</t>
+          <t>jkstvxJ5</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -5660,119 +5878,119 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Lausanne Ouchy</t>
+          <t>Sport Boys</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Vaduz</t>
+          <t>Alianza Lima</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.7</v>
+        <v>4.75</v>
       </c>
       <c r="H49" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="I49" t="n">
-        <v>4.05</v>
+        <v>1.75</v>
       </c>
       <c r="J49" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="K49" t="n">
-        <v>9.75</v>
+        <v>12</v>
       </c>
       <c r="L49" t="n">
-        <v>1.13</v>
+        <v>1.22</v>
       </c>
       <c r="M49" t="n">
-        <v>5.1</v>
+        <v>4</v>
       </c>
       <c r="N49" t="n">
-        <v>1.42</v>
+        <v>1.75</v>
       </c>
       <c r="O49" t="n">
-        <v>2.67</v>
+        <v>2.05</v>
       </c>
       <c r="P49" t="n">
-        <v>1.23</v>
+        <v>1.33</v>
       </c>
       <c r="Q49" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="R49" t="n">
-        <v>1.44</v>
+        <v>1.73</v>
       </c>
       <c r="S49" t="n">
-        <v>2.57</v>
+        <v>2</v>
       </c>
       <c r="T49" t="n">
+        <v>15</v>
+      </c>
+      <c r="U49" t="n">
+        <v>26</v>
+      </c>
+      <c r="V49" t="n">
+        <v>15</v>
+      </c>
+      <c r="W49" t="n">
+        <v>51</v>
+      </c>
+      <c r="X49" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z49" t="n">
         <v>12</v>
       </c>
-      <c r="U49" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="V49" t="n">
+      <c r="AA49" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>201</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG49" t="n">
         <v>8.5</v>
       </c>
-      <c r="W49" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="X49" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="Y49" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Z49" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AA49" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB49" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC49" t="n">
-        <v>35</v>
-      </c>
-      <c r="AD49" t="n">
-        <v>150</v>
-      </c>
-      <c r="AE49" t="n">
-        <v>20</v>
-      </c>
-      <c r="AF49" t="n">
-        <v>30</v>
-      </c>
-      <c r="AG49" t="n">
-        <v>14</v>
-      </c>
       <c r="AH49" t="n">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="AI49" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="AJ49" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>4UlnmJiK</t>
+          <t>p6JUOo1B</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -5782,119 +6000,59 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
+          <t>SAUDI ARABIA - DIVISION 1</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Schaffhausen</t>
+          <t>Al Adalah</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Bellinzona</t>
-        </is>
-      </c>
-      <c r="G50" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="H50" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="I50" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K50" t="n">
-        <v>8</v>
-      </c>
-      <c r="L50" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="M50" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="N50" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="O50" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="P50" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="R50" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S50" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="T50" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="U50" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="V50" t="n">
-        <v>11</v>
-      </c>
-      <c r="W50" t="n">
-        <v>45</v>
-      </c>
-      <c r="X50" t="n">
-        <v>25</v>
-      </c>
-      <c r="Y50" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z50" t="n">
-        <v>8</v>
-      </c>
-      <c r="AA50" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AB50" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC50" t="n">
-        <v>45</v>
-      </c>
-      <c r="AD50" t="n">
-        <v>300</v>
-      </c>
-      <c r="AE50" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AF50" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG50" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AH50" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI50" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AJ50" t="n">
-        <v>22</v>
-      </c>
+          <t>Al Bukiryah</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr"/>
+      <c r="T50" t="inlineStr"/>
+      <c r="U50" t="inlineStr"/>
+      <c r="V50" t="inlineStr"/>
+      <c r="W50" t="inlineStr"/>
+      <c r="X50" t="inlineStr"/>
+      <c r="Y50" t="inlineStr"/>
+      <c r="Z50" t="inlineStr"/>
+      <c r="AA50" t="inlineStr"/>
+      <c r="AB50" t="inlineStr"/>
+      <c r="AC50" t="inlineStr"/>
+      <c r="AD50" t="inlineStr"/>
+      <c r="AE50" t="inlineStr"/>
+      <c r="AF50" t="inlineStr"/>
+      <c r="AG50" t="inlineStr"/>
+      <c r="AH50" t="inlineStr"/>
+      <c r="AI50" t="inlineStr"/>
+      <c r="AJ50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>l2QIscFs</t>
+          <t>QFRxNPVN</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -5904,119 +6062,59 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
+          <t>SAUDI ARABIA - DIVISION 1</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Thun</t>
+          <t>Al Hazem</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Etoile-Carouge</t>
-        </is>
-      </c>
-      <c r="G51" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="H51" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="I51" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J51" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K51" t="n">
-        <v>9</v>
-      </c>
-      <c r="L51" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="M51" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="N51" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="O51" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="P51" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R51" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S51" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="T51" t="n">
-        <v>10</v>
-      </c>
-      <c r="U51" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="V51" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="W51" t="n">
-        <v>16</v>
-      </c>
-      <c r="X51" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Y51" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="Z51" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA51" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AB51" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC51" t="n">
-        <v>40</v>
-      </c>
-      <c r="AD51" t="n">
-        <v>250</v>
-      </c>
-      <c r="AE51" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AF51" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG51" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH51" t="n">
-        <v>60</v>
-      </c>
-      <c r="AI51" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ51" t="n">
-        <v>30</v>
-      </c>
+          <t>Al Taee</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
+      <c r="T51" t="inlineStr"/>
+      <c r="U51" t="inlineStr"/>
+      <c r="V51" t="inlineStr"/>
+      <c r="W51" t="inlineStr"/>
+      <c r="X51" t="inlineStr"/>
+      <c r="Y51" t="inlineStr"/>
+      <c r="Z51" t="inlineStr"/>
+      <c r="AA51" t="inlineStr"/>
+      <c r="AB51" t="inlineStr"/>
+      <c r="AC51" t="inlineStr"/>
+      <c r="AD51" t="inlineStr"/>
+      <c r="AE51" t="inlineStr"/>
+      <c r="AF51" t="inlineStr"/>
+      <c r="AG51" t="inlineStr"/>
+      <c r="AH51" t="inlineStr"/>
+      <c r="AI51" t="inlineStr"/>
+      <c r="AJ51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>xOd0PFaD</t>
+          <t>6RGGVQqh</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -6026,119 +6124,59 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Xamax</t>
+          <t>Cukaricki</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Wil</t>
-        </is>
-      </c>
-      <c r="G52" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H52" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="I52" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K52" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="L52" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="M52" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="N52" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="O52" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="P52" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="R52" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S52" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="T52" t="n">
-        <v>14</v>
-      </c>
-      <c r="U52" t="n">
-        <v>17</v>
-      </c>
-      <c r="V52" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="W52" t="n">
-        <v>29</v>
-      </c>
-      <c r="X52" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Y52" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z52" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AA52" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AB52" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC52" t="n">
-        <v>30</v>
-      </c>
-      <c r="AD52" t="n">
-        <v>150</v>
-      </c>
-      <c r="AE52" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AF52" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG52" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH52" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI52" t="n">
-        <v>18</v>
-      </c>
-      <c r="AJ52" t="n">
-        <v>19.5</v>
-      </c>
+          <t>Zeleznicar Pancevo</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
+      <c r="S52" t="inlineStr"/>
+      <c r="T52" t="inlineStr"/>
+      <c r="U52" t="inlineStr"/>
+      <c r="V52" t="inlineStr"/>
+      <c r="W52" t="inlineStr"/>
+      <c r="X52" t="inlineStr"/>
+      <c r="Y52" t="inlineStr"/>
+      <c r="Z52" t="inlineStr"/>
+      <c r="AA52" t="inlineStr"/>
+      <c r="AB52" t="inlineStr"/>
+      <c r="AC52" t="inlineStr"/>
+      <c r="AD52" t="inlineStr"/>
+      <c r="AE52" t="inlineStr"/>
+      <c r="AF52" t="inlineStr"/>
+      <c r="AG52" t="inlineStr"/>
+      <c r="AH52" t="inlineStr"/>
+      <c r="AI52" t="inlineStr"/>
+      <c r="AJ52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>OKANI8cB</t>
+          <t>Eaz4aSAd</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -6148,119 +6186,59 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>SLOVAKIA - NIKE LIGA</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Bandirmaspor</t>
+          <t>Dun. Streda</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Boluspor</t>
-        </is>
-      </c>
-      <c r="G53" t="n">
-        <v>2</v>
-      </c>
-      <c r="H53" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I53" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K53" t="n">
-        <v>11</v>
-      </c>
-      <c r="L53" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M53" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="N53" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="O53" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="P53" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>3</v>
-      </c>
-      <c r="R53" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S53" t="n">
-        <v>2</v>
-      </c>
-      <c r="T53" t="n">
-        <v>8</v>
-      </c>
-      <c r="U53" t="n">
-        <v>10</v>
-      </c>
-      <c r="V53" t="n">
-        <v>9</v>
-      </c>
-      <c r="W53" t="n">
-        <v>19</v>
-      </c>
-      <c r="X53" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y53" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z53" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA53" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB53" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC53" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD53" t="n">
-        <v>201</v>
-      </c>
-      <c r="AE53" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF53" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG53" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH53" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI53" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ53" t="n">
-        <v>34</v>
-      </c>
+          <t>Podbrezova</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr"/>
+      <c r="T53" t="inlineStr"/>
+      <c r="U53" t="inlineStr"/>
+      <c r="V53" t="inlineStr"/>
+      <c r="W53" t="inlineStr"/>
+      <c r="X53" t="inlineStr"/>
+      <c r="Y53" t="inlineStr"/>
+      <c r="Z53" t="inlineStr"/>
+      <c r="AA53" t="inlineStr"/>
+      <c r="AB53" t="inlineStr"/>
+      <c r="AC53" t="inlineStr"/>
+      <c r="AD53" t="inlineStr"/>
+      <c r="AE53" t="inlineStr"/>
+      <c r="AF53" t="inlineStr"/>
+      <c r="AG53" t="inlineStr"/>
+      <c r="AH53" t="inlineStr"/>
+      <c r="AI53" t="inlineStr"/>
+      <c r="AJ53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>tCHMB4Hs</t>
+          <t>jeGIi8Vq</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -6270,59 +6248,119 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
+          <t>SLOVENIA - PRVA LIGA</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Inhulets</t>
+          <t>Radomlje</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Vorskla Poltava</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="inlineStr"/>
-      <c r="T54" t="inlineStr"/>
-      <c r="U54" t="inlineStr"/>
-      <c r="V54" t="inlineStr"/>
-      <c r="W54" t="inlineStr"/>
-      <c r="X54" t="inlineStr"/>
-      <c r="Y54" t="inlineStr"/>
-      <c r="Z54" t="inlineStr"/>
-      <c r="AA54" t="inlineStr"/>
-      <c r="AB54" t="inlineStr"/>
-      <c r="AC54" t="inlineStr"/>
-      <c r="AD54" t="inlineStr"/>
-      <c r="AE54" t="inlineStr"/>
-      <c r="AF54" t="inlineStr"/>
-      <c r="AG54" t="inlineStr"/>
-      <c r="AH54" t="inlineStr"/>
-      <c r="AI54" t="inlineStr"/>
-      <c r="AJ54" t="inlineStr"/>
+          <t>Primorje</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="H54" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I54" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K54" t="n">
+        <v>8</v>
+      </c>
+      <c r="L54" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="M54" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="N54" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="O54" t="n">
+        <v>2</v>
+      </c>
+      <c r="P54" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="R54" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S54" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="T54" t="n">
+        <v>9</v>
+      </c>
+      <c r="U54" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>9</v>
+      </c>
+      <c r="W54" t="n">
+        <v>22</v>
+      </c>
+      <c r="X54" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>350</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>35</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>22</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>C0eMPLgm</t>
+          <t>Qaw1C0fA</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -6332,116 +6370,1460 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
+          <t>SOUTH KOREA - K LEAGUE 1</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Obolon</t>
+          <t>Anyang</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Livyi Bereg</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr"/>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="inlineStr"/>
-      <c r="T55" t="inlineStr"/>
-      <c r="U55" t="inlineStr"/>
-      <c r="V55" t="inlineStr"/>
-      <c r="W55" t="inlineStr"/>
-      <c r="X55" t="inlineStr"/>
-      <c r="Y55" t="inlineStr"/>
-      <c r="Z55" t="inlineStr"/>
-      <c r="AA55" t="inlineStr"/>
-      <c r="AB55" t="inlineStr"/>
-      <c r="AC55" t="inlineStr"/>
-      <c r="AD55" t="inlineStr"/>
-      <c r="AE55" t="inlineStr"/>
-      <c r="AF55" t="inlineStr"/>
-      <c r="AG55" t="inlineStr"/>
-      <c r="AH55" t="inlineStr"/>
-      <c r="AI55" t="inlineStr"/>
-      <c r="AJ55" t="inlineStr"/>
+          <t>Pohang</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H55" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I55" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K55" t="n">
+        <v>10</v>
+      </c>
+      <c r="L55" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M55" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="N55" t="n">
+        <v>2</v>
+      </c>
+      <c r="O55" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="P55" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R55" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S55" t="n">
+        <v>2</v>
+      </c>
+      <c r="T55" t="n">
+        <v>9</v>
+      </c>
+      <c r="U55" t="n">
+        <v>13</v>
+      </c>
+      <c r="V55" t="n">
+        <v>10</v>
+      </c>
+      <c r="W55" t="n">
+        <v>26</v>
+      </c>
+      <c r="X55" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>201</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
+          <t>UXqhEMPc</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>SOUTH KOREA - K LEAGUE 1</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Jeju SK</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Jeonbuk</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H56" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I56" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="J56" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K56" t="n">
+        <v>9</v>
+      </c>
+      <c r="L56" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M56" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="N56" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="O56" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="P56" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R56" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S56" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T56" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="U56" t="n">
+        <v>17</v>
+      </c>
+      <c r="V56" t="n">
+        <v>12</v>
+      </c>
+      <c r="W56" t="n">
+        <v>41</v>
+      </c>
+      <c r="X56" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>301</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>td3iRyV0</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>15:15</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Aarau</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Stade Nyonnais</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="H57" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="I57" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K57" t="n">
+        <v>10</v>
+      </c>
+      <c r="L57" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="N57" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="O57" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="P57" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="R57" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S57" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="T57" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="U57" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W57" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="X57" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>45</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>250</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>110</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>45</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>UuAZ8ZDt</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>15:15</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Lausanne Ouchy</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Vaduz</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H58" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="J58" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K58" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="L58" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="N58" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="O58" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="P58" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R58" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S58" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="T58" t="n">
+        <v>12</v>
+      </c>
+      <c r="U58" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="V58" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W58" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="X58" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>35</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>150</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>65</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>4UlnmJiK</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>15:15</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Schaffhausen</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Bellinzona</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H59" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I59" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K59" t="n">
+        <v>8</v>
+      </c>
+      <c r="L59" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="N59" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="O59" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="P59" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="R59" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S59" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="T59" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="U59" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>11</v>
+      </c>
+      <c r="W59" t="n">
+        <v>45</v>
+      </c>
+      <c r="X59" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>45</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>300</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>l2QIscFs</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>15:15</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Thun</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Etoile-Carouge</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="H60" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I60" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K60" t="n">
+        <v>9</v>
+      </c>
+      <c r="L60" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="N60" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="O60" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P60" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R60" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S60" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="T60" t="n">
+        <v>10</v>
+      </c>
+      <c r="U60" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="W60" t="n">
+        <v>16</v>
+      </c>
+      <c r="X60" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>40</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>250</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>xOd0PFaD</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>15:15</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Xamax</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Wil</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H61" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I61" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K61" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="L61" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="N61" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="O61" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="P61" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="R61" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="T61" t="n">
+        <v>14</v>
+      </c>
+      <c r="U61" t="n">
+        <v>17</v>
+      </c>
+      <c r="V61" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="W61" t="n">
+        <v>29</v>
+      </c>
+      <c r="X61" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>30</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>150</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>18</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>OKANI8cB</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>TURKEY - 1. LIG</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Bandirmaspor</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Boluspor</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>2</v>
+      </c>
+      <c r="H62" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I62" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K62" t="n">
+        <v>11</v>
+      </c>
+      <c r="L62" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M62" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="N62" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="O62" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="P62" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>3</v>
+      </c>
+      <c r="R62" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S62" t="n">
+        <v>2</v>
+      </c>
+      <c r="T62" t="n">
+        <v>8</v>
+      </c>
+      <c r="U62" t="n">
+        <v>10</v>
+      </c>
+      <c r="V62" t="n">
+        <v>9</v>
+      </c>
+      <c r="W62" t="n">
+        <v>19</v>
+      </c>
+      <c r="X62" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>201</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI62" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ62" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>tCHMB4Hs</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>09:30</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>UKRAINE - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Inhulets</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Vorskla Poltava</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="inlineStr"/>
+      <c r="S63" t="inlineStr"/>
+      <c r="T63" t="inlineStr"/>
+      <c r="U63" t="inlineStr"/>
+      <c r="V63" t="inlineStr"/>
+      <c r="W63" t="inlineStr"/>
+      <c r="X63" t="inlineStr"/>
+      <c r="Y63" t="inlineStr"/>
+      <c r="Z63" t="inlineStr"/>
+      <c r="AA63" t="inlineStr"/>
+      <c r="AB63" t="inlineStr"/>
+      <c r="AC63" t="inlineStr"/>
+      <c r="AD63" t="inlineStr"/>
+      <c r="AE63" t="inlineStr"/>
+      <c r="AF63" t="inlineStr"/>
+      <c r="AG63" t="inlineStr"/>
+      <c r="AH63" t="inlineStr"/>
+      <c r="AI63" t="inlineStr"/>
+      <c r="AJ63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>C0eMPLgm</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>09:30</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>UKRAINE - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Obolon</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Livyi Bereg</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr"/>
+      <c r="T64" t="inlineStr"/>
+      <c r="U64" t="inlineStr"/>
+      <c r="V64" t="inlineStr"/>
+      <c r="W64" t="inlineStr"/>
+      <c r="X64" t="inlineStr"/>
+      <c r="Y64" t="inlineStr"/>
+      <c r="Z64" t="inlineStr"/>
+      <c r="AA64" t="inlineStr"/>
+      <c r="AB64" t="inlineStr"/>
+      <c r="AC64" t="inlineStr"/>
+      <c r="AD64" t="inlineStr"/>
+      <c r="AE64" t="inlineStr"/>
+      <c r="AF64" t="inlineStr"/>
+      <c r="AG64" t="inlineStr"/>
+      <c r="AH64" t="inlineStr"/>
+      <c r="AI64" t="inlineStr"/>
+      <c r="AJ64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
           <t>QNBjuaaD</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B65" t="inlineStr">
         <is>
           <t>23/05/2025</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C65" t="inlineStr">
         <is>
           <t>12:45</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="D65" t="inlineStr">
         <is>
           <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>Al Nasr</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>Al Ain</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr"/>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="inlineStr"/>
-      <c r="T56" t="inlineStr"/>
-      <c r="U56" t="inlineStr"/>
-      <c r="V56" t="inlineStr"/>
-      <c r="W56" t="inlineStr"/>
-      <c r="X56" t="inlineStr"/>
-      <c r="Y56" t="inlineStr"/>
-      <c r="Z56" t="inlineStr"/>
-      <c r="AA56" t="inlineStr"/>
-      <c r="AB56" t="inlineStr"/>
-      <c r="AC56" t="inlineStr"/>
-      <c r="AD56" t="inlineStr"/>
-      <c r="AE56" t="inlineStr"/>
-      <c r="AF56" t="inlineStr"/>
-      <c r="AG56" t="inlineStr"/>
-      <c r="AH56" t="inlineStr"/>
-      <c r="AI56" t="inlineStr"/>
-      <c r="AJ56" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr"/>
+      <c r="S65" t="inlineStr"/>
+      <c r="T65" t="inlineStr"/>
+      <c r="U65" t="inlineStr"/>
+      <c r="V65" t="inlineStr"/>
+      <c r="W65" t="inlineStr"/>
+      <c r="X65" t="inlineStr"/>
+      <c r="Y65" t="inlineStr"/>
+      <c r="Z65" t="inlineStr"/>
+      <c r="AA65" t="inlineStr"/>
+      <c r="AB65" t="inlineStr"/>
+      <c r="AC65" t="inlineStr"/>
+      <c r="AD65" t="inlineStr"/>
+      <c r="AE65" t="inlineStr"/>
+      <c r="AF65" t="inlineStr"/>
+      <c r="AG65" t="inlineStr"/>
+      <c r="AH65" t="inlineStr"/>
+      <c r="AI65" t="inlineStr"/>
+      <c r="AJ65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>tMlMhgI7</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>URUGUAY - LIGA AUF URUGUAYA</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Racing Montevideo</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Boston River</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H66" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I66" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K66" t="n">
+        <v>7</v>
+      </c>
+      <c r="L66" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M66" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N66" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O66" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P66" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R66" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S66" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T66" t="n">
+        <v>6</v>
+      </c>
+      <c r="U66" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>10</v>
+      </c>
+      <c r="W66" t="n">
+        <v>21</v>
+      </c>
+      <c r="X66" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>81</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>351</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI66" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>MHR8GdAE</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>URUGUAY - LIGA AUF URUGUAYA</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Nacional</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Progreso</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H67" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="I67" t="n">
+        <v>15</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K67" t="n">
+        <v>19</v>
+      </c>
+      <c r="L67" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="N67" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="O67" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="P67" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>4</v>
+      </c>
+      <c r="R67" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S67" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T67" t="n">
+        <v>9</v>
+      </c>
+      <c r="U67" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>10</v>
+      </c>
+      <c r="W67" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X67" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>67</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>351</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>34</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>151</v>
+      </c>
+      <c r="AI67" t="n">
+        <v>81</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>OnwPqg2k</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>17:15</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>URUGUAY - SEGUNDA DIVISION</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Central Esp.</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Oriental</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
+      <c r="R68" t="inlineStr"/>
+      <c r="S68" t="inlineStr"/>
+      <c r="T68" t="inlineStr"/>
+      <c r="U68" t="inlineStr"/>
+      <c r="V68" t="inlineStr"/>
+      <c r="W68" t="inlineStr"/>
+      <c r="X68" t="inlineStr"/>
+      <c r="Y68" t="inlineStr"/>
+      <c r="Z68" t="inlineStr"/>
+      <c r="AA68" t="inlineStr"/>
+      <c r="AB68" t="inlineStr"/>
+      <c r="AC68" t="inlineStr"/>
+      <c r="AD68" t="inlineStr"/>
+      <c r="AE68" t="inlineStr"/>
+      <c r="AF68" t="inlineStr"/>
+      <c r="AG68" t="inlineStr"/>
+      <c r="AH68" t="inlineStr"/>
+      <c r="AI68" t="inlineStr"/>
+      <c r="AJ68" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2025-05-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ68"/>
+  <dimension ref="A1:AJ69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,13 +647,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="H2" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I2" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="J2" t="n">
         <v>1.03</v>
@@ -680,16 +680,16 @@
         <v>3.5</v>
       </c>
       <c r="R2" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S2" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T2" t="n">
         <v>17</v>
       </c>
       <c r="U2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="V2" t="n">
         <v>15</v>
@@ -772,16 +772,16 @@
         <v>1.17</v>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I3" t="n">
         <v>15</v>
       </c>
       <c r="J3" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L3" t="n">
         <v>1.14</v>
@@ -796,16 +796,16 @@
         <v>2.63</v>
       </c>
       <c r="P3" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="R3" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S3" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T3" t="n">
         <v>8</v>
@@ -817,7 +817,7 @@
         <v>10</v>
       </c>
       <c r="W3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X3" t="n">
         <v>11</v>
@@ -829,10 +829,10 @@
         <v>17</v>
       </c>
       <c r="AA3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC3" t="n">
         <v>81</v>
@@ -1016,7 +1016,7 @@
         <v>2.05</v>
       </c>
       <c r="H5" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I5" t="n">
         <v>3.4</v>
@@ -1079,7 +1079,7 @@
         <v>12</v>
       </c>
       <c r="AC5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD5" t="n">
         <v>126</v>
@@ -1100,7 +1100,7 @@
         <v>23</v>
       </c>
       <c r="AJ5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1135,13 +1135,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="I6" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="J6" t="n">
         <v>1.14</v>
@@ -1162,10 +1162,10 @@
         <v>1.33</v>
       </c>
       <c r="P6" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="R6" t="n">
         <v>2.63</v>
@@ -1174,7 +1174,7 @@
         <v>1.44</v>
       </c>
       <c r="T6" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="U6" t="n">
         <v>13</v>
@@ -1186,7 +1186,7 @@
         <v>34</v>
       </c>
       <c r="X6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Y6" t="n">
         <v>51</v>
@@ -1205,10 +1205,10 @@
       </c>
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AF6" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AG6" t="n">
         <v>12</v>
@@ -1258,7 +1258,7 @@
         <v>1.6</v>
       </c>
       <c r="H7" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I7" t="n">
         <v>5</v>
@@ -1276,10 +1276,10 @@
         <v>4.33</v>
       </c>
       <c r="N7" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O7" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P7" t="n">
         <v>1.3</v>
@@ -1312,7 +1312,7 @@
         <v>23</v>
       </c>
       <c r="Z7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA7" t="n">
         <v>8</v>
@@ -1321,7 +1321,7 @@
         <v>15</v>
       </c>
       <c r="AC7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD7" t="n">
         <v>201</v>
@@ -1330,7 +1330,7 @@
         <v>15</v>
       </c>
       <c r="AF7" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG7" t="n">
         <v>15</v>
@@ -1377,13 +1377,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.63</v>
+        <v>2.9</v>
       </c>
       <c r="H8" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="I8" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="J8" t="n">
         <v>1.05</v>
@@ -1392,43 +1392,43 @@
         <v>11</v>
       </c>
       <c r="L8" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M8" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N8" t="n">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="O8" t="n">
-        <v>1.79</v>
+        <v>1.88</v>
       </c>
       <c r="P8" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R8" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S8" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V8" t="n">
         <v>10</v>
       </c>
       <c r="W8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y8" t="n">
         <v>29</v>
@@ -1452,19 +1452,19 @@
         <v>8</v>
       </c>
       <c r="AF8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG8" t="n">
         <v>9.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9">
@@ -1499,25 +1499,25 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H9" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="I9" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="J9" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L9" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M9" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N9" t="n">
         <v>2.05</v>
@@ -1532,10 +1532,10 @@
         <v>2.75</v>
       </c>
       <c r="R9" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S9" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T9" t="n">
         <v>8.5</v>
@@ -1547,7 +1547,7 @@
         <v>10</v>
       </c>
       <c r="W9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X9" t="n">
         <v>19</v>
@@ -1559,31 +1559,31 @@
         <v>8</v>
       </c>
       <c r="AA9" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC9" t="n">
         <v>41</v>
       </c>
       <c r="AD9" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG9" t="n">
         <v>12</v>
       </c>
-      <c r="AF9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>13</v>
-      </c>
       <c r="AH9" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ9" t="n">
         <v>34</v>
@@ -1991,13 +1991,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="H15" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I15" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="J15" t="n">
         <v>1.04</v>
@@ -2012,16 +2012,16 @@
         <v>3.75</v>
       </c>
       <c r="N15" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="O15" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="P15" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q15" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="R15" t="n">
         <v>1.8</v>
@@ -2033,7 +2033,7 @@
         <v>13</v>
       </c>
       <c r="U15" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="V15" t="n">
         <v>15</v>
@@ -2042,16 +2042,16 @@
         <v>51</v>
       </c>
       <c r="X15" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Y15" t="n">
         <v>41</v>
       </c>
       <c r="Z15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA15" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB15" t="n">
         <v>15</v>
@@ -2060,19 +2060,19 @@
         <v>51</v>
       </c>
       <c r="AD15" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE15" t="n">
         <v>7.5</v>
       </c>
       <c r="AF15" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AG15" t="n">
         <v>8.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI15" t="n">
         <v>13</v>
@@ -2113,92 +2113,94 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.42</v>
+        <v>1.53</v>
       </c>
       <c r="H16" t="n">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="I16" t="n">
-        <v>7.7</v>
+        <v>6.4</v>
       </c>
       <c r="J16" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K16" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="L16" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="M16" t="n">
-        <v>3.05</v>
+        <v>2.92</v>
       </c>
       <c r="N16" t="n">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="O16" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="P16" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="R16" t="n">
-        <v>2.35</v>
+        <v>2.18</v>
       </c>
       <c r="S16" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="T16" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="U16" t="n">
-        <v>5.9</v>
+        <v>6.5</v>
       </c>
       <c r="V16" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W16" t="n">
-        <v>9</v>
+        <v>10.75</v>
       </c>
       <c r="X16" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Z16" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AA16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AB16" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AC16" t="n">
-        <v>200</v>
-      </c>
-      <c r="AD16" t="inlineStr"/>
+        <v>150</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>1250</v>
+      </c>
       <c r="AE16" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AF16" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AG16" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="AH16" t="n">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="AI16" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="AJ16" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17">
@@ -2233,92 +2235,94 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="H17" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="I17" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="J17" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="K17" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="L17" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="N17" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P17" t="n">
         <v>1.47</v>
       </c>
-      <c r="M17" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="N17" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1.55</v>
-      </c>
       <c r="Q17" t="n">
-        <v>2.37</v>
+        <v>2.55</v>
       </c>
       <c r="R17" t="n">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="S17" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="T17" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="U17" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="V17" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="W17" t="n">
         <v>21</v>
       </c>
       <c r="X17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y17" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Z17" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AA17" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AB17" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>150</v>
-      </c>
-      <c r="AD17" t="inlineStr"/>
+        <v>100</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>1000</v>
+      </c>
       <c r="AE17" t="n">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="AF17" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH17" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AI17" t="n">
         <v>40</v>
       </c>
       <c r="AJ17" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18">
@@ -2356,89 +2360,91 @@
         <v>1.65</v>
       </c>
       <c r="H18" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I18" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="J18" t="n">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="K18" t="n">
-        <v>6</v>
+        <v>7.8</v>
       </c>
       <c r="L18" t="n">
-        <v>1.5</v>
+        <v>1.28</v>
       </c>
       <c r="M18" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="N18" t="n">
-        <v>2.45</v>
+        <v>1.82</v>
       </c>
       <c r="O18" t="n">
-        <v>1.52</v>
+        <v>1.91</v>
       </c>
       <c r="P18" t="n">
-        <v>1.57</v>
+        <v>1.42</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.3</v>
+        <v>2.72</v>
       </c>
       <c r="R18" t="n">
-        <v>2.35</v>
+        <v>1.75</v>
       </c>
       <c r="S18" t="n">
-        <v>1.53</v>
+        <v>1.98</v>
       </c>
       <c r="T18" t="n">
-        <v>4.85</v>
+        <v>6.8</v>
       </c>
       <c r="U18" t="n">
-        <v>6.7</v>
+        <v>8.75</v>
       </c>
       <c r="V18" t="n">
-        <v>9.75</v>
+        <v>8.25</v>
       </c>
       <c r="W18" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="X18" t="n">
-        <v>18.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="Z18" t="n">
-        <v>6</v>
+        <v>7.8</v>
       </c>
       <c r="AA18" t="n">
-        <v>7.4</v>
+        <v>7.1</v>
       </c>
       <c r="AB18" t="n">
-        <v>27</v>
+        <v>15.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>200</v>
-      </c>
-      <c r="AD18" t="inlineStr"/>
+        <v>75</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>600</v>
+      </c>
       <c r="AE18" t="n">
-        <v>10.5</v>
+        <v>13.5</v>
       </c>
       <c r="AF18" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AG18" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AH18" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AI18" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="AJ18" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19">
@@ -2535,13 +2541,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H20" t="n">
         <v>3.5</v>
       </c>
       <c r="I20" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J20" t="n">
         <v>1.04</v>
@@ -2574,10 +2580,10 @@
         <v>2.2</v>
       </c>
       <c r="T20" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V20" t="n">
         <v>9</v>
@@ -2598,7 +2604,7 @@
         <v>7</v>
       </c>
       <c r="AB20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC20" t="n">
         <v>41</v>
@@ -2613,7 +2619,7 @@
         <v>17</v>
       </c>
       <c r="AG20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH20" t="n">
         <v>34</v>
@@ -3387,13 +3393,13 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="H27" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I27" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="J27" t="n">
         <v>1.02</v>
@@ -3402,22 +3408,22 @@
         <v>21</v>
       </c>
       <c r="L27" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="M27" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N27" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="O27" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="P27" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Q27" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="R27" t="n">
         <v>1.57</v>
@@ -3429,7 +3435,7 @@
         <v>10</v>
       </c>
       <c r="U27" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V27" t="n">
         <v>8.5</v>
@@ -3447,7 +3453,7 @@
         <v>21</v>
       </c>
       <c r="AA27" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB27" t="n">
         <v>15</v>
@@ -3459,10 +3465,10 @@
         <v>126</v>
       </c>
       <c r="AE27" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF27" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG27" t="n">
         <v>17</v>
@@ -3471,7 +3477,7 @@
         <v>51</v>
       </c>
       <c r="AI27" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ27" t="n">
         <v>34</v>
@@ -3627,13 +3633,13 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="H29" t="n">
         <v>3.45</v>
       </c>
       <c r="I29" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -3658,25 +3664,25 @@
         <v>2.07</v>
       </c>
       <c r="T29" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="U29" t="n">
         <v>16.5</v>
       </c>
       <c r="V29" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="W29" t="n">
         <v>37</v>
       </c>
       <c r="X29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y29" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z29" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AA29" t="n">
         <v>6.8</v>
@@ -3691,10 +3697,10 @@
         <v>350</v>
       </c>
       <c r="AE29" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AF29" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AG29" t="n">
         <v>8.75</v>
@@ -3703,10 +3709,10 @@
         <v>21</v>
       </c>
       <c r="AI29" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AJ29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30">
@@ -3754,15 +3760,15 @@
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="O30" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S30" t="n">
         <v>2.05</v>
@@ -3792,7 +3798,7 @@
         <v>9</v>
       </c>
       <c r="AB30" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC30" t="n">
         <v>55</v>
@@ -3807,7 +3813,7 @@
         <v>35</v>
       </c>
       <c r="AG30" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AH30" t="n">
         <v>90</v>
@@ -3851,13 +3857,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H31" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I31" t="n">
-        <v>4.65</v>
+        <v>4.85</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -3885,22 +3891,22 @@
         <v>7.8</v>
       </c>
       <c r="U31" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="V31" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="W31" t="n">
         <v>13</v>
       </c>
       <c r="X31" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y31" t="n">
         <v>22</v>
       </c>
       <c r="Z31" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AA31" t="n">
         <v>7.4</v>
@@ -3912,25 +3918,25 @@
         <v>60</v>
       </c>
       <c r="AD31" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AE31" t="n">
         <v>14.5</v>
       </c>
       <c r="AF31" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG31" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI31" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ31" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32">
@@ -3965,13 +3971,13 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="H32" t="n">
         <v>3.6</v>
       </c>
       <c r="I32" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -3992,7 +3998,7 @@
         <v>2.32</v>
       </c>
       <c r="T32" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="U32" t="n">
         <v>16</v>
@@ -4004,10 +4010,10 @@
         <v>32</v>
       </c>
       <c r="X32" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Y32" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Z32" t="n">
         <v>14.5</v>
@@ -4031,13 +4037,13 @@
         <v>13.5</v>
       </c>
       <c r="AG32" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AH32" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI32" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AJ32" t="n">
         <v>21</v>
@@ -4198,10 +4204,10 @@
         <v>2.9</v>
       </c>
       <c r="J34" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K34" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L34" t="n">
         <v>1.44</v>
@@ -4216,16 +4222,16 @@
         <v>1.5</v>
       </c>
       <c r="P34" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R34" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S34" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="T34" t="n">
         <v>7</v>
@@ -4240,13 +4246,13 @@
         <v>26</v>
       </c>
       <c r="X34" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y34" t="n">
         <v>41</v>
       </c>
       <c r="Z34" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA34" t="n">
         <v>6</v>
@@ -4258,10 +4264,10 @@
         <v>67</v>
       </c>
       <c r="AD34" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AE34" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF34" t="n">
         <v>13</v>
@@ -4311,13 +4317,13 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="H35" t="n">
         <v>3.2</v>
       </c>
       <c r="I35" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="J35" t="n">
         <v>1.07</v>
@@ -4350,22 +4356,22 @@
         <v>1.91</v>
       </c>
       <c r="T35" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U35" t="n">
         <v>15</v>
       </c>
       <c r="V35" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W35" t="n">
         <v>34</v>
       </c>
       <c r="X35" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y35" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z35" t="n">
         <v>8.5</v>
@@ -4386,7 +4392,7 @@
         <v>7</v>
       </c>
       <c r="AF35" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG35" t="n">
         <v>9.5</v>
@@ -4395,7 +4401,7 @@
         <v>21</v>
       </c>
       <c r="AI35" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ35" t="n">
         <v>34</v>
@@ -4454,10 +4460,10 @@
         <v>3.4</v>
       </c>
       <c r="N36" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="O36" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="P36" t="n">
         <v>1.4</v>
@@ -4466,16 +4472,16 @@
         <v>2.75</v>
       </c>
       <c r="R36" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S36" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T36" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U36" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="V36" t="n">
         <v>8.5</v>
@@ -4484,25 +4490,25 @@
         <v>12</v>
       </c>
       <c r="X36" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y36" t="n">
         <v>29</v>
       </c>
       <c r="Z36" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA36" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB36" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC36" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD36" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AE36" t="n">
         <v>13</v>
@@ -4520,7 +4526,7 @@
         <v>41</v>
       </c>
       <c r="AJ36" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37">
@@ -4588,10 +4594,10 @@
         <v>3</v>
       </c>
       <c r="R37" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S37" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T37" t="n">
         <v>6.5</v>
@@ -4603,7 +4609,7 @@
         <v>8.5</v>
       </c>
       <c r="W37" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X37" t="n">
         <v>13</v>
@@ -4630,7 +4636,7 @@
         <v>15</v>
       </c>
       <c r="AF37" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG37" t="n">
         <v>19</v>
@@ -4639,7 +4645,7 @@
         <v>67</v>
       </c>
       <c r="AI37" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ37" t="n">
         <v>51</v>
@@ -4799,7 +4805,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="H39" t="n">
         <v>3.3</v>
@@ -4917,13 +4923,13 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.22</v>
+        <v>2.15</v>
       </c>
       <c r="H40" t="n">
         <v>3.45</v>
       </c>
       <c r="I40" t="n">
-        <v>2.87</v>
+        <v>3</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
@@ -4952,16 +4958,16 @@
         <v>1.98</v>
       </c>
       <c r="T40" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="U40" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="V40" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="W40" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="X40" t="n">
         <v>17</v>
@@ -4985,19 +4991,19 @@
         <v>450</v>
       </c>
       <c r="AE40" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AF40" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG40" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AH40" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AI40" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ40" t="n">
         <v>32</v>
@@ -5049,7 +5055,7 @@
         <v>1.21</v>
       </c>
       <c r="M41" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="N41" t="n">
         <v>1.65</v>
@@ -5103,13 +5109,13 @@
         <v>55</v>
       </c>
       <c r="AG41" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AH41" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AI41" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AJ41" t="n">
         <v>90</v>
@@ -5147,7 +5153,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="H42" t="n">
         <v>3.15</v>
@@ -5197,7 +5203,7 @@
         <v>26</v>
       </c>
       <c r="Y42" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Z42" t="n">
         <v>9.5</v>
@@ -5218,7 +5224,7 @@
         <v>8.25</v>
       </c>
       <c r="AF42" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AG42" t="n">
         <v>9</v>
@@ -5379,82 +5385,82 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.4</v>
+        <v>3.05</v>
       </c>
       <c r="H44" t="n">
-        <v>3.2</v>
+        <v>2.95</v>
       </c>
       <c r="I44" t="n">
-        <v>2.65</v>
+        <v>2.25</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="n">
-        <v>1.98</v>
+        <v>2.32</v>
       </c>
       <c r="O44" t="n">
-        <v>1.65</v>
+        <v>1.47</v>
       </c>
       <c r="P44" t="n">
-        <v>1.42</v>
+        <v>1.52</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.35</v>
+        <v>2.12</v>
       </c>
       <c r="R44" t="inlineStr"/>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="U44" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="V44" t="n">
         <v>9.5</v>
       </c>
-      <c r="V44" t="n">
+      <c r="W44" t="n">
+        <v>30</v>
+      </c>
+      <c r="X44" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>37</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>75</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>500</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AF44" t="n">
         <v>8</v>
       </c>
-      <c r="W44" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="X44" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z44" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA44" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="AB44" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>55</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>400</v>
-      </c>
-      <c r="AE44" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AF44" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AG44" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AH44" t="n">
-        <v>23</v>
+        <v>17.5</v>
       </c>
       <c r="AI44" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AJ44" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45">
@@ -5489,13 +5495,13 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="H45" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I45" t="n">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
@@ -5508,7 +5514,7 @@
         <v>1.75</v>
       </c>
       <c r="P45" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="Q45" t="n">
         <v>2.42</v>
@@ -5516,49 +5522,49 @@
       <c r="R45" t="inlineStr"/>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="U45" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="V45" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="W45" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X45" t="n">
         <v>10.5</v>
       </c>
       <c r="Y45" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z45" t="n">
         <v>9</v>
       </c>
       <c r="AA45" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="AB45" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AC45" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AD45" t="n">
         <v>500</v>
       </c>
       <c r="AE45" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AF45" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG45" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AH45" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI45" t="n">
         <v>50</v>
@@ -5599,86 +5605,90 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="H46" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I46" t="n">
-        <v>2.47</v>
+        <v>2.67</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="M46" t="n">
-        <v>3.2</v>
+        <v>2.92</v>
       </c>
       <c r="N46" t="n">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="O46" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
+        <v>1.72</v>
+      </c>
+      <c r="P46" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>2.47</v>
+      </c>
       <c r="R46" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="S46" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T46" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="U46" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="V46" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="W46" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="X46" t="n">
         <v>20</v>
       </c>
       <c r="Y46" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Z46" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AA46" t="n">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="AB46" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC46" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AD46" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AE46" t="n">
-        <v>9.25</v>
+        <v>8.25</v>
       </c>
       <c r="AF46" t="n">
         <v>13</v>
       </c>
       <c r="AG46" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH46" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AI46" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="AJ46" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47">
@@ -5775,13 +5785,13 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>5</v>
+        <v>4.1</v>
       </c>
       <c r="H48" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I48" t="n">
-        <v>1.67</v>
+        <v>1.85</v>
       </c>
       <c r="J48" t="n">
         <v>1.05</v>
@@ -5796,10 +5806,10 @@
         <v>3.75</v>
       </c>
       <c r="N48" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="O48" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="P48" t="n">
         <v>1.36</v>
@@ -5808,25 +5818,25 @@
         <v>3</v>
       </c>
       <c r="R48" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S48" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T48" t="n">
+        <v>13</v>
+      </c>
+      <c r="U48" t="n">
+        <v>21</v>
+      </c>
+      <c r="V48" t="n">
         <v>15</v>
       </c>
-      <c r="U48" t="n">
-        <v>26</v>
-      </c>
-      <c r="V48" t="n">
-        <v>17</v>
-      </c>
       <c r="W48" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="X48" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Y48" t="n">
         <v>41</v>
@@ -5835,34 +5845,34 @@
         <v>11</v>
       </c>
       <c r="AA48" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB48" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC48" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD48" t="n">
         <v>201</v>
       </c>
       <c r="AE48" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF48" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG48" t="n">
         <v>8.5</v>
       </c>
       <c r="AH48" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI48" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ48" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49">
@@ -5897,13 +5907,13 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="H49" t="n">
         <v>3.7</v>
       </c>
       <c r="I49" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="J49" t="n">
         <v>1.04</v>
@@ -5939,7 +5949,7 @@
         <v>15</v>
       </c>
       <c r="U49" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="V49" t="n">
         <v>15</v>
@@ -5960,7 +5970,7 @@
         <v>7</v>
       </c>
       <c r="AB49" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC49" t="n">
         <v>41</v>
@@ -5990,7 +6000,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>p6JUOo1B</t>
+          <t>OCGNTV2L</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -6000,59 +6010,119 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - DIVISION 1</t>
+          <t>ROMANIA - SUPERLIGA</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Al Adalah</t>
+          <t>CFR Cluj</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Al Bukiryah</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="inlineStr"/>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="inlineStr"/>
-      <c r="T50" t="inlineStr"/>
-      <c r="U50" t="inlineStr"/>
-      <c r="V50" t="inlineStr"/>
-      <c r="W50" t="inlineStr"/>
-      <c r="X50" t="inlineStr"/>
-      <c r="Y50" t="inlineStr"/>
-      <c r="Z50" t="inlineStr"/>
-      <c r="AA50" t="inlineStr"/>
-      <c r="AB50" t="inlineStr"/>
-      <c r="AC50" t="inlineStr"/>
-      <c r="AD50" t="inlineStr"/>
-      <c r="AE50" t="inlineStr"/>
-      <c r="AF50" t="inlineStr"/>
-      <c r="AG50" t="inlineStr"/>
-      <c r="AH50" t="inlineStr"/>
-      <c r="AI50" t="inlineStr"/>
-      <c r="AJ50" t="inlineStr"/>
+          <t>FCSB</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H50" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I50" t="n">
+        <v>4</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K50" t="n">
+        <v>9</v>
+      </c>
+      <c r="L50" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="N50" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="O50" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="P50" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R50" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S50" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T50" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="U50" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>9</v>
+      </c>
+      <c r="W50" t="n">
+        <v>15</v>
+      </c>
+      <c r="X50" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>301</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>QFRxNPVN</t>
+          <t>p6JUOo1B</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -6062,7 +6132,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -6072,12 +6142,12 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Al Hazem</t>
+          <t>Al Adalah</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Al Taee</t>
+          <t>Al Bukiryah</t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
@@ -6114,7 +6184,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>6RGGVQqh</t>
+          <t>QFRxNPVN</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -6124,22 +6194,22 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>SAUDI ARABIA - DIVISION 1</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Cukaricki</t>
+          <t>Al Hazem</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Zeleznicar Pancevo</t>
+          <t>Al Taee</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
@@ -6176,7 +6246,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Eaz4aSAd</t>
+          <t>6RGGVQqh</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -6186,22 +6256,22 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>SLOVAKIA - NIKE LIGA</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Dun. Streda</t>
+          <t>Cukaricki</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Podbrezova</t>
+          <t>Zeleznicar Pancevo</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
@@ -6238,7 +6308,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>jeGIi8Vq</t>
+          <t>Eaz4aSAd</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -6248,119 +6318,59 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>SLOVENIA - PRVA LIGA</t>
+          <t>SLOVAKIA - NIKE LIGA</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Radomlje</t>
+          <t>Dun. Streda</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Primorje</t>
-        </is>
-      </c>
-      <c r="G54" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="H54" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="I54" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K54" t="n">
-        <v>8</v>
-      </c>
-      <c r="L54" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="M54" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="N54" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="O54" t="n">
-        <v>2</v>
-      </c>
-      <c r="P54" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="R54" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S54" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="T54" t="n">
-        <v>9</v>
-      </c>
-      <c r="U54" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="V54" t="n">
-        <v>9</v>
-      </c>
-      <c r="W54" t="n">
-        <v>22</v>
-      </c>
-      <c r="X54" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Y54" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z54" t="n">
-        <v>8</v>
-      </c>
-      <c r="AA54" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AB54" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC54" t="n">
-        <v>50</v>
-      </c>
-      <c r="AD54" t="n">
-        <v>350</v>
-      </c>
-      <c r="AE54" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AF54" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG54" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH54" t="n">
-        <v>35</v>
-      </c>
-      <c r="AI54" t="n">
-        <v>22</v>
-      </c>
-      <c r="AJ54" t="n">
-        <v>28</v>
-      </c>
+          <t>Podbrezova</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr"/>
+      <c r="T54" t="inlineStr"/>
+      <c r="U54" t="inlineStr"/>
+      <c r="V54" t="inlineStr"/>
+      <c r="W54" t="inlineStr"/>
+      <c r="X54" t="inlineStr"/>
+      <c r="Y54" t="inlineStr"/>
+      <c r="Z54" t="inlineStr"/>
+      <c r="AA54" t="inlineStr"/>
+      <c r="AB54" t="inlineStr"/>
+      <c r="AC54" t="inlineStr"/>
+      <c r="AD54" t="inlineStr"/>
+      <c r="AE54" t="inlineStr"/>
+      <c r="AF54" t="inlineStr"/>
+      <c r="AG54" t="inlineStr"/>
+      <c r="AH54" t="inlineStr"/>
+      <c r="AI54" t="inlineStr"/>
+      <c r="AJ54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Qaw1C0fA</t>
+          <t>jeGIi8Vq</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -6370,119 +6380,119 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>SOUTH KOREA - K LEAGUE 1</t>
+          <t>SLOVENIA - PRVA LIGA</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Anyang</t>
+          <t>Radomlje</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Pohang</t>
+          <t>Primorje</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.8</v>
+        <v>2.22</v>
       </c>
       <c r="H55" t="n">
-        <v>3.2</v>
+        <v>3.55</v>
       </c>
       <c r="I55" t="n">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="J55" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K55" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L55" t="n">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="M55" t="n">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="N55" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="O55" t="n">
         <v>2</v>
       </c>
-      <c r="O55" t="n">
-        <v>1.8</v>
-      </c>
       <c r="P55" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="R55" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="S55" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="T55" t="n">
         <v>9</v>
       </c>
       <c r="U55" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="V55" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W55" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="X55" t="n">
-        <v>21</v>
+        <v>16.5</v>
       </c>
       <c r="Y55" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="Z55" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AA55" t="n">
-        <v>6</v>
+        <v>6.9</v>
       </c>
       <c r="AB55" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC55" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AD55" t="n">
-        <v>201</v>
+        <v>350</v>
       </c>
       <c r="AE55" t="n">
-        <v>9</v>
+        <v>10.75</v>
       </c>
       <c r="AF55" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AG55" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH55" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="AI55" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ55" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>UXqhEMPc</t>
+          <t>Qaw1C0fA</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -6502,100 +6512,100 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Jeju SK</t>
+          <t>Anyang</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Jeonbuk</t>
+          <t>Pohang</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="H56" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I56" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J56" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K56" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="L56" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M56" t="n">
         <v>3.4</v>
       </c>
-      <c r="I56" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="J56" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="K56" t="n">
+      <c r="N56" t="n">
+        <v>2</v>
+      </c>
+      <c r="O56" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="P56" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R56" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S56" t="n">
+        <v>2</v>
+      </c>
+      <c r="T56" t="n">
         <v>9</v>
       </c>
-      <c r="L56" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M56" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="N56" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="O56" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="P56" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R56" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S56" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="T56" t="n">
+      <c r="U56" t="n">
+        <v>13</v>
+      </c>
+      <c r="V56" t="n">
+        <v>10</v>
+      </c>
+      <c r="W56" t="n">
+        <v>26</v>
+      </c>
+      <c r="X56" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z56" t="n">
         <v>9.5</v>
       </c>
-      <c r="U56" t="n">
-        <v>17</v>
-      </c>
-      <c r="V56" t="n">
-        <v>12</v>
-      </c>
-      <c r="W56" t="n">
+      <c r="AA56" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC56" t="n">
         <v>41</v>
       </c>
-      <c r="X56" t="n">
-        <v>29</v>
-      </c>
-      <c r="Y56" t="n">
-        <v>41</v>
-      </c>
-      <c r="Z56" t="n">
+      <c r="AD56" t="n">
+        <v>201</v>
+      </c>
+      <c r="AE56" t="n">
         <v>9</v>
       </c>
-      <c r="AA56" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB56" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC56" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD56" t="n">
-        <v>301</v>
-      </c>
-      <c r="AE56" t="n">
-        <v>7</v>
-      </c>
       <c r="AF56" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="AG56" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH56" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AI56" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ56" t="n">
         <v>29</v>
@@ -6604,7 +6614,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>td3iRyV0</t>
+          <t>UXqhEMPc</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -6614,119 +6624,119 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
+          <t>SOUTH KOREA - K LEAGUE 1</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Aarau</t>
+          <t>Jeju SK</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Stade Nyonnais</t>
+          <t>Jeonbuk</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.45</v>
+        <v>3.4</v>
       </c>
       <c r="H57" t="n">
-        <v>4.6</v>
+        <v>3.4</v>
       </c>
       <c r="I57" t="n">
-        <v>5.7</v>
+        <v>2.1</v>
       </c>
       <c r="J57" t="n">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="K57" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L57" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="M57" t="n">
-        <v>5.2</v>
+        <v>3.25</v>
       </c>
       <c r="N57" t="n">
-        <v>1.4</v>
+        <v>2.08</v>
       </c>
       <c r="O57" t="n">
-        <v>2.72</v>
+        <v>1.73</v>
       </c>
       <c r="P57" t="n">
-        <v>1.24</v>
+        <v>1.44</v>
       </c>
       <c r="Q57" t="n">
-        <v>3.7</v>
+        <v>2.63</v>
       </c>
       <c r="R57" t="n">
-        <v>1.53</v>
+        <v>1.83</v>
       </c>
       <c r="S57" t="n">
-        <v>2.32</v>
+        <v>1.83</v>
       </c>
       <c r="T57" t="n">
-        <v>11.25</v>
+        <v>9.5</v>
       </c>
       <c r="U57" t="n">
+        <v>17</v>
+      </c>
+      <c r="V57" t="n">
+        <v>12</v>
+      </c>
+      <c r="W57" t="n">
+        <v>41</v>
+      </c>
+      <c r="X57" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>301</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF57" t="n">
         <v>9.5</v>
       </c>
-      <c r="V57" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="W57" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="X57" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Y57" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="Z57" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA57" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AB57" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC57" t="n">
-        <v>45</v>
-      </c>
-      <c r="AD57" t="n">
-        <v>250</v>
-      </c>
-      <c r="AE57" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF57" t="n">
-        <v>40</v>
-      </c>
       <c r="AG57" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="AH57" t="n">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="AI57" t="n">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="AJ57" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>UuAZ8ZDt</t>
+          <t>td3iRyV0</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -6746,109 +6756,109 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Lausanne Ouchy</t>
+          <t>Aarau</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Vaduz</t>
+          <t>Stade Nyonnais</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.7</v>
+        <v>1.45</v>
       </c>
       <c r="H58" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="I58" t="n">
-        <v>4.05</v>
+        <v>5.7</v>
       </c>
       <c r="J58" t="n">
         <v>1.02</v>
       </c>
       <c r="K58" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="L58" t="n">
         <v>1.13</v>
       </c>
       <c r="M58" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="N58" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="O58" t="n">
-        <v>2.67</v>
+        <v>2.72</v>
       </c>
       <c r="P58" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="Q58" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="R58" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="S58" t="n">
-        <v>2.57</v>
+        <v>2.32</v>
       </c>
       <c r="T58" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="U58" t="n">
-        <v>11.25</v>
+        <v>9.5</v>
       </c>
       <c r="V58" t="n">
         <v>8.5</v>
       </c>
       <c r="W58" t="n">
-        <v>15.5</v>
+        <v>11.75</v>
       </c>
       <c r="X58" t="n">
-        <v>11.75</v>
+        <v>10.5</v>
       </c>
       <c r="Y58" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="Z58" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA58" t="n">
         <v>9.75</v>
       </c>
-      <c r="AA58" t="n">
-        <v>9</v>
-      </c>
       <c r="AB58" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AC58" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="AD58" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="AE58" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AF58" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AG58" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AH58" t="n">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="AI58" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="AJ58" t="n">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>4UlnmJiK</t>
+          <t>UuAZ8ZDt</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -6868,109 +6878,109 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Schaffhausen</t>
+          <t>Lausanne Ouchy</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Bellinzona</t>
+          <t>Vaduz</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3.25</v>
+        <v>1.65</v>
       </c>
       <c r="H59" t="n">
-        <v>3.45</v>
+        <v>4.15</v>
       </c>
       <c r="I59" t="n">
-        <v>2.07</v>
+        <v>4.25</v>
       </c>
       <c r="J59" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K59" t="n">
-        <v>8</v>
+        <v>9.75</v>
       </c>
       <c r="L59" t="n">
-        <v>1.23</v>
+        <v>1.13</v>
       </c>
       <c r="M59" t="n">
-        <v>3.75</v>
+        <v>5.1</v>
       </c>
       <c r="N59" t="n">
-        <v>1.7</v>
+        <v>1.42</v>
       </c>
       <c r="O59" t="n">
-        <v>2.05</v>
+        <v>2.67</v>
       </c>
       <c r="P59" t="n">
-        <v>1.35</v>
+        <v>1.24</v>
       </c>
       <c r="Q59" t="n">
-        <v>2.95</v>
+        <v>3.65</v>
       </c>
       <c r="R59" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="S59" t="n">
-        <v>2.22</v>
+        <v>2.55</v>
       </c>
       <c r="T59" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="U59" t="n">
-        <v>19.5</v>
+        <v>11.25</v>
       </c>
       <c r="V59" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="W59" t="n">
-        <v>45</v>
+        <v>15.5</v>
       </c>
       <c r="X59" t="n">
-        <v>25</v>
+        <v>11.5</v>
       </c>
       <c r="Y59" t="n">
-        <v>28</v>
+        <v>16.5</v>
       </c>
       <c r="Z59" t="n">
-        <v>8</v>
+        <v>9.75</v>
       </c>
       <c r="AA59" t="n">
-        <v>6.8</v>
+        <v>8.75</v>
       </c>
       <c r="AB59" t="n">
         <v>12</v>
       </c>
       <c r="AC59" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="AD59" t="n">
-        <v>300</v>
+        <v>175</v>
       </c>
       <c r="AE59" t="n">
-        <v>8.75</v>
+        <v>19</v>
       </c>
       <c r="AF59" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="AG59" t="n">
-        <v>8.5</v>
+        <v>14</v>
       </c>
       <c r="AH59" t="n">
-        <v>19.5</v>
+        <v>70</v>
       </c>
       <c r="AI59" t="n">
-        <v>15.5</v>
+        <v>32</v>
       </c>
       <c r="AJ59" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>l2QIscFs</t>
+          <t>4UlnmJiK</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -6990,109 +7000,109 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Thun</t>
+          <t>Schaffhausen</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Etoile-Carouge</t>
+          <t>Bellinzona</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.78</v>
+        <v>3.25</v>
       </c>
       <c r="H60" t="n">
-        <v>3.8</v>
+        <v>3.45</v>
       </c>
       <c r="I60" t="n">
-        <v>3.9</v>
+        <v>2.07</v>
       </c>
       <c r="J60" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K60" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L60" t="n">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="M60" t="n">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="N60" t="n">
-        <v>1.55</v>
+        <v>1.7</v>
       </c>
       <c r="O60" t="n">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="P60" t="n">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="Q60" t="n">
-        <v>3.25</v>
+        <v>2.95</v>
       </c>
       <c r="R60" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="S60" t="n">
-        <v>2.32</v>
+        <v>2.22</v>
       </c>
       <c r="T60" t="n">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="U60" t="n">
-        <v>10.5</v>
+        <v>19.5</v>
       </c>
       <c r="V60" t="n">
-        <v>8.25</v>
+        <v>11</v>
       </c>
       <c r="W60" t="n">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="X60" t="n">
-        <v>12.5</v>
+        <v>25</v>
       </c>
       <c r="Y60" t="n">
-        <v>18.5</v>
+        <v>28</v>
       </c>
       <c r="Z60" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AA60" t="n">
-        <v>7.7</v>
+        <v>6.8</v>
       </c>
       <c r="AB60" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC60" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AD60" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AE60" t="n">
-        <v>14.5</v>
+        <v>8.75</v>
       </c>
       <c r="AF60" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="AG60" t="n">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="AH60" t="n">
-        <v>60</v>
+        <v>19.5</v>
       </c>
       <c r="AI60" t="n">
-        <v>32</v>
+        <v>15.5</v>
       </c>
       <c r="AJ60" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>xOd0PFaD</t>
+          <t>l2QIscFs</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -7112,109 +7122,109 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Xamax</t>
+          <t>Thun</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Wil</t>
+          <t>Etoile-Carouge</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.4</v>
+        <v>1.78</v>
       </c>
       <c r="H61" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="I61" t="n">
-        <v>2.57</v>
+        <v>3.9</v>
       </c>
       <c r="J61" t="n">
         <v>1.03</v>
       </c>
       <c r="K61" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="L61" t="n">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="M61" t="n">
-        <v>4.85</v>
+        <v>4.25</v>
       </c>
       <c r="N61" t="n">
-        <v>1.45</v>
+        <v>1.55</v>
       </c>
       <c r="O61" t="n">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="P61" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="Q61" t="n">
-        <v>3.55</v>
+        <v>3.25</v>
       </c>
       <c r="R61" t="n">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="S61" t="n">
-        <v>2.72</v>
+        <v>2.32</v>
       </c>
       <c r="T61" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="U61" t="n">
-        <v>17</v>
+        <v>10.5</v>
       </c>
       <c r="V61" t="n">
-        <v>9.75</v>
+        <v>8.25</v>
       </c>
       <c r="W61" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="X61" t="n">
-        <v>16.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y61" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Z61" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA61" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="AB61" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC61" t="n">
+        <v>40</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>250</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ61" t="n">
         <v>30</v>
-      </c>
-      <c r="AD61" t="n">
-        <v>150</v>
-      </c>
-      <c r="AE61" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AF61" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG61" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH61" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI61" t="n">
-        <v>18</v>
-      </c>
-      <c r="AJ61" t="n">
-        <v>19.5</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>OKANI8cB</t>
+          <t>xOd0PFaD</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -7224,119 +7234,119 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Bandirmaspor</t>
+          <t>Xamax</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Boluspor</t>
+          <t>Wil</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2</v>
+        <v>2.47</v>
       </c>
       <c r="H62" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="I62" t="n">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="J62" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K62" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="L62" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="N62" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="O62" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="P62" t="n">
         <v>1.25</v>
       </c>
-      <c r="M62" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="N62" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="O62" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="P62" t="n">
-        <v>1.36</v>
-      </c>
       <c r="Q62" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="R62" t="n">
-        <v>1.73</v>
+        <v>1.4</v>
       </c>
       <c r="S62" t="n">
-        <v>2</v>
+        <v>2.72</v>
       </c>
       <c r="T62" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="U62" t="n">
-        <v>10</v>
+        <v>16.5</v>
       </c>
       <c r="V62" t="n">
-        <v>9</v>
+        <v>9.75</v>
       </c>
       <c r="W62" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="X62" t="n">
         <v>17</v>
       </c>
       <c r="Y62" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="Z62" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AA62" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB62" t="n">
-        <v>15</v>
+        <v>10.75</v>
       </c>
       <c r="AC62" t="n">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="AD62" t="n">
-        <v>201</v>
+        <v>150</v>
       </c>
       <c r="AE62" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AF62" t="n">
         <v>17</v>
       </c>
       <c r="AG62" t="n">
-        <v>12</v>
+        <v>9.75</v>
       </c>
       <c r="AH62" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI62" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AJ62" t="n">
-        <v>34</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>tCHMB4Hs</t>
+          <t>OKANI8cB</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -7346,59 +7356,119 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
+          <t>TURKEY - 1. LIG</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Inhulets</t>
+          <t>Bandirmaspor</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Vorskla Poltava</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr"/>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="inlineStr"/>
-      <c r="T63" t="inlineStr"/>
-      <c r="U63" t="inlineStr"/>
-      <c r="V63" t="inlineStr"/>
-      <c r="W63" t="inlineStr"/>
-      <c r="X63" t="inlineStr"/>
-      <c r="Y63" t="inlineStr"/>
-      <c r="Z63" t="inlineStr"/>
-      <c r="AA63" t="inlineStr"/>
-      <c r="AB63" t="inlineStr"/>
-      <c r="AC63" t="inlineStr"/>
-      <c r="AD63" t="inlineStr"/>
-      <c r="AE63" t="inlineStr"/>
-      <c r="AF63" t="inlineStr"/>
-      <c r="AG63" t="inlineStr"/>
-      <c r="AH63" t="inlineStr"/>
-      <c r="AI63" t="inlineStr"/>
-      <c r="AJ63" t="inlineStr"/>
+          <t>Boluspor</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>2</v>
+      </c>
+      <c r="H63" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I63" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K63" t="n">
+        <v>11</v>
+      </c>
+      <c r="L63" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M63" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="N63" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="O63" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="P63" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>3</v>
+      </c>
+      <c r="R63" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S63" t="n">
+        <v>2</v>
+      </c>
+      <c r="T63" t="n">
+        <v>8</v>
+      </c>
+      <c r="U63" t="n">
+        <v>10</v>
+      </c>
+      <c r="V63" t="n">
+        <v>9</v>
+      </c>
+      <c r="W63" t="n">
+        <v>19</v>
+      </c>
+      <c r="X63" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>201</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>C0eMPLgm</t>
+          <t>tCHMB4Hs</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -7418,49 +7488,107 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Obolon</t>
+          <t>Inhulets</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Livyi Bereg</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="inlineStr"/>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="inlineStr"/>
-      <c r="T64" t="inlineStr"/>
-      <c r="U64" t="inlineStr"/>
-      <c r="V64" t="inlineStr"/>
-      <c r="W64" t="inlineStr"/>
-      <c r="X64" t="inlineStr"/>
-      <c r="Y64" t="inlineStr"/>
-      <c r="Z64" t="inlineStr"/>
-      <c r="AA64" t="inlineStr"/>
-      <c r="AB64" t="inlineStr"/>
-      <c r="AC64" t="inlineStr"/>
+          <t>Vorskla Poltava</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H64" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I64" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="K64" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="L64" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="M64" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="N64" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="O64" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P64" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R64" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="S64" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T64" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="U64" t="n">
+        <v>23</v>
+      </c>
+      <c r="V64" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="W64" t="n">
+        <v>90</v>
+      </c>
+      <c r="X64" t="n">
+        <v>75</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>110</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>250</v>
+      </c>
       <c r="AD64" t="inlineStr"/>
-      <c r="AE64" t="inlineStr"/>
-      <c r="AF64" t="inlineStr"/>
-      <c r="AG64" t="inlineStr"/>
-      <c r="AH64" t="inlineStr"/>
-      <c r="AI64" t="inlineStr"/>
-      <c r="AJ64" t="inlineStr"/>
+      <c r="AE64" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI64" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ64" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>QNBjuaaD</t>
+          <t>C0eMPLgm</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -7470,22 +7598,22 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
+          <t>UKRAINE - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Al Nasr</t>
+          <t>Obolon</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Al Ain</t>
+          <t>Livyi Bereg</t>
         </is>
       </c>
       <c r="G65" t="inlineStr"/>
@@ -7522,7 +7650,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>tMlMhgI7</t>
+          <t>QNBjuaaD</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -7532,119 +7660,59 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>URUGUAY - LIGA AUF URUGUAYA</t>
+          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Racing Montevideo</t>
+          <t>Al Nasr</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Boston River</t>
-        </is>
-      </c>
-      <c r="G66" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H66" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I66" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="K66" t="n">
-        <v>7</v>
-      </c>
-      <c r="L66" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M66" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="N66" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="O66" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P66" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Q66" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="R66" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S66" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T66" t="n">
-        <v>6</v>
-      </c>
-      <c r="U66" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="V66" t="n">
-        <v>10</v>
-      </c>
-      <c r="W66" t="n">
-        <v>21</v>
-      </c>
-      <c r="X66" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y66" t="n">
-        <v>41</v>
-      </c>
-      <c r="Z66" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA66" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB66" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC66" t="n">
-        <v>81</v>
-      </c>
-      <c r="AD66" t="n">
-        <v>351</v>
-      </c>
-      <c r="AE66" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AF66" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG66" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH66" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI66" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ66" t="n">
-        <v>41</v>
-      </c>
+          <t>Al Ain</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="inlineStr"/>
+      <c r="S66" t="inlineStr"/>
+      <c r="T66" t="inlineStr"/>
+      <c r="U66" t="inlineStr"/>
+      <c r="V66" t="inlineStr"/>
+      <c r="W66" t="inlineStr"/>
+      <c r="X66" t="inlineStr"/>
+      <c r="Y66" t="inlineStr"/>
+      <c r="Z66" t="inlineStr"/>
+      <c r="AA66" t="inlineStr"/>
+      <c r="AB66" t="inlineStr"/>
+      <c r="AC66" t="inlineStr"/>
+      <c r="AD66" t="inlineStr"/>
+      <c r="AE66" t="inlineStr"/>
+      <c r="AF66" t="inlineStr"/>
+      <c r="AG66" t="inlineStr"/>
+      <c r="AH66" t="inlineStr"/>
+      <c r="AI66" t="inlineStr"/>
+      <c r="AJ66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>MHR8GdAE</t>
+          <t>tMlMhgI7</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -7654,7 +7722,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -7664,166 +7732,344 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Nacional</t>
+          <t>Racing Montevideo</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Progreso</t>
+          <t>Boston River</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="H67" t="n">
-        <v>6.25</v>
+        <v>3.25</v>
       </c>
       <c r="I67" t="n">
-        <v>15</v>
+        <v>3.2</v>
       </c>
       <c r="J67" t="n">
-        <v>1.02</v>
+        <v>1.1</v>
       </c>
       <c r="K67" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="L67" t="n">
-        <v>1.14</v>
+        <v>1.5</v>
       </c>
       <c r="M67" t="n">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="N67" t="n">
-        <v>1.48</v>
+        <v>2.5</v>
       </c>
       <c r="O67" t="n">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="P67" t="n">
-        <v>1.22</v>
+        <v>1.53</v>
       </c>
       <c r="Q67" t="n">
-        <v>4</v>
+        <v>2.38</v>
       </c>
       <c r="R67" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S67" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T67" t="n">
+        <v>6</v>
+      </c>
+      <c r="U67" t="n">
         <v>9</v>
-      </c>
-      <c r="U67" t="n">
-        <v>6.5</v>
       </c>
       <c r="V67" t="n">
         <v>10</v>
       </c>
       <c r="W67" t="n">
-        <v>7.5</v>
+        <v>21</v>
       </c>
       <c r="X67" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="Y67" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="Z67" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="AA67" t="n">
-        <v>12</v>
+        <v>6.5</v>
       </c>
       <c r="AB67" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC67" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AD67" t="n">
         <v>351</v>
       </c>
       <c r="AE67" t="n">
-        <v>29</v>
+        <v>7.5</v>
       </c>
       <c r="AF67" t="n">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="AG67" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI67" t="n">
         <v>34</v>
       </c>
-      <c r="AH67" t="n">
-        <v>151</v>
-      </c>
-      <c r="AI67" t="n">
-        <v>81</v>
-      </c>
       <c r="AJ67" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
+          <t>MHR8GdAE</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>23/05/2025</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>URUGUAY - LIGA AUF URUGUAYA</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Nacional</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Progreso</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="H68" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="I68" t="n">
+        <v>15</v>
+      </c>
+      <c r="J68" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K68" t="n">
+        <v>17</v>
+      </c>
+      <c r="L68" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="M68" t="n">
+        <v>6</v>
+      </c>
+      <c r="N68" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="O68" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="P68" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>4</v>
+      </c>
+      <c r="R68" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S68" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T68" t="n">
+        <v>9</v>
+      </c>
+      <c r="U68" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>10</v>
+      </c>
+      <c r="W68" t="n">
+        <v>7</v>
+      </c>
+      <c r="X68" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB68" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC68" t="n">
+        <v>67</v>
+      </c>
+      <c r="AD68" t="n">
+        <v>351</v>
+      </c>
+      <c r="AE68" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF68" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG68" t="n">
+        <v>41</v>
+      </c>
+      <c r="AH68" t="n">
+        <v>201</v>
+      </c>
+      <c r="AI68" t="n">
+        <v>101</v>
+      </c>
+      <c r="AJ68" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
           <t>OnwPqg2k</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B69" t="inlineStr">
         <is>
           <t>23/05/2025</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="C69" t="inlineStr">
         <is>
           <t>17:15</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="D69" t="inlineStr">
         <is>
           <t>URUGUAY - SEGUNDA DIVISION</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>Central Esp.</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>Oriental</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr"/>
-      <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="inlineStr"/>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="inlineStr"/>
-      <c r="T68" t="inlineStr"/>
-      <c r="U68" t="inlineStr"/>
-      <c r="V68" t="inlineStr"/>
-      <c r="W68" t="inlineStr"/>
-      <c r="X68" t="inlineStr"/>
-      <c r="Y68" t="inlineStr"/>
-      <c r="Z68" t="inlineStr"/>
-      <c r="AA68" t="inlineStr"/>
-      <c r="AB68" t="inlineStr"/>
-      <c r="AC68" t="inlineStr"/>
-      <c r="AD68" t="inlineStr"/>
-      <c r="AE68" t="inlineStr"/>
-      <c r="AF68" t="inlineStr"/>
-      <c r="AG68" t="inlineStr"/>
-      <c r="AH68" t="inlineStr"/>
-      <c r="AI68" t="inlineStr"/>
-      <c r="AJ68" t="inlineStr"/>
+      <c r="G69" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="H69" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I69" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M69" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="N69" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O69" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P69" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R69" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S69" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="T69" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="U69" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="V69" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="W69" t="n">
+        <v>26</v>
+      </c>
+      <c r="X69" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>37</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>90</v>
+      </c>
+      <c r="AD69" t="n">
+        <v>800</v>
+      </c>
+      <c r="AE69" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AF69" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG69" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH69" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI69" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ69" t="n">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2025-05-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-23.xlsx
@@ -1499,13 +1499,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H9" t="n">
         <v>2.75</v>
       </c>
       <c r="I9" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J9" t="n">
         <v>1.07</v>
@@ -1556,7 +1556,7 @@
         <v>29</v>
       </c>
       <c r="Z9" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA9" t="n">
         <v>5.5</v>
@@ -1571,7 +1571,7 @@
         <v>201</v>
       </c>
       <c r="AE9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF9" t="n">
         <v>17</v>
@@ -2006,16 +2006,16 @@
         <v>13</v>
       </c>
       <c r="L15" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M15" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N15" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="O15" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="P15" t="n">
         <v>1.36</v>
@@ -2113,91 +2113,91 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="H16" t="n">
-        <v>3.8</v>
+        <v>3.55</v>
       </c>
       <c r="I16" t="n">
-        <v>6.4</v>
+        <v>5.7</v>
       </c>
       <c r="J16" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="K16" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L16" t="n">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="M16" t="n">
-        <v>2.92</v>
+        <v>2.7</v>
       </c>
       <c r="N16" t="n">
-        <v>2.07</v>
+        <v>2.25</v>
       </c>
       <c r="O16" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="P16" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.65</v>
+        <v>2.55</v>
       </c>
       <c r="R16" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="S16" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="T16" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="U16" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="V16" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="W16" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="X16" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>45</v>
+      </c>
+      <c r="Z16" t="n">
         <v>6.5</v>
       </c>
-      <c r="V16" t="n">
-        <v>9</v>
-      </c>
-      <c r="W16" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="X16" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>40</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>7</v>
-      </c>
       <c r="AA16" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB16" t="n">
         <v>24</v>
       </c>
       <c r="AC16" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AD16" t="n">
         <v>1250</v>
       </c>
       <c r="AE16" t="n">
-        <v>12.5</v>
+        <v>11.25</v>
       </c>
       <c r="AF16" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AG16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH16" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AI16" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AJ16" t="n">
         <v>100</v>
@@ -2235,37 +2235,37 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.12</v>
+        <v>1.82</v>
       </c>
       <c r="H17" t="n">
-        <v>3.15</v>
+        <v>3.6</v>
       </c>
       <c r="I17" t="n">
-        <v>3.55</v>
+        <v>4.15</v>
       </c>
       <c r="J17" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="K17" t="n">
-        <v>6.4</v>
+        <v>7.4</v>
       </c>
       <c r="L17" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="N17" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="P17" t="n">
         <v>1.42</v>
       </c>
-      <c r="M17" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="N17" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1.47</v>
-      </c>
       <c r="Q17" t="n">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="R17" t="n">
         <v>1.93</v>
@@ -2274,31 +2274,31 @@
         <v>1.78</v>
       </c>
       <c r="T17" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="U17" t="n">
-        <v>9.75</v>
+        <v>8.5</v>
       </c>
       <c r="V17" t="n">
-        <v>9.75</v>
+        <v>9</v>
       </c>
       <c r="W17" t="n">
-        <v>21</v>
+        <v>15.5</v>
       </c>
       <c r="X17" t="n">
-        <v>21</v>
+        <v>16.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Z17" t="n">
-        <v>6.4</v>
+        <v>7.4</v>
       </c>
       <c r="AA17" t="n">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="AB17" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AC17" t="n">
         <v>100</v>
@@ -2307,22 +2307,22 @@
         <v>1000</v>
       </c>
       <c r="AE17" t="n">
-        <v>9</v>
+        <v>10.25</v>
       </c>
       <c r="AF17" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="AG17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH17" t="n">
+        <v>70</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>45</v>
+      </c>
+      <c r="AJ17" t="n">
         <v>55</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>50</v>
       </c>
     </row>
     <row r="18">
@@ -2562,10 +2562,10 @@
         <v>4</v>
       </c>
       <c r="N20" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="O20" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="P20" t="n">
         <v>1.33</v>
@@ -5388,7 +5388,7 @@
         <v>3.05</v>
       </c>
       <c r="H44" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="I44" t="n">
         <v>2.25</v>
@@ -5415,10 +5415,10 @@
         <v>6.3</v>
       </c>
       <c r="U44" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="V44" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="W44" t="n">
         <v>30</v>
@@ -5436,10 +5436,10 @@
         <v>5.2</v>
       </c>
       <c r="AB44" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC44" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AD44" t="n">
         <v>500</v>
@@ -5454,7 +5454,7 @@
         <v>8</v>
       </c>
       <c r="AH44" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI44" t="n">
         <v>17.5</v>
@@ -6274,36 +6274,96 @@
           <t>Zeleznicar Pancevo</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="inlineStr"/>
-      <c r="T53" t="inlineStr"/>
-      <c r="U53" t="inlineStr"/>
-      <c r="V53" t="inlineStr"/>
-      <c r="W53" t="inlineStr"/>
-      <c r="X53" t="inlineStr"/>
-      <c r="Y53" t="inlineStr"/>
-      <c r="Z53" t="inlineStr"/>
-      <c r="AA53" t="inlineStr"/>
-      <c r="AB53" t="inlineStr"/>
-      <c r="AC53" t="inlineStr"/>
-      <c r="AD53" t="inlineStr"/>
-      <c r="AE53" t="inlineStr"/>
-      <c r="AF53" t="inlineStr"/>
-      <c r="AG53" t="inlineStr"/>
-      <c r="AH53" t="inlineStr"/>
-      <c r="AI53" t="inlineStr"/>
-      <c r="AJ53" t="inlineStr"/>
+      <c r="G53" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H53" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I53" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K53" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L53" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="N53" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="O53" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="P53" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R53" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S53" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="T53" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="U53" t="n">
+        <v>9</v>
+      </c>
+      <c r="V53" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W53" t="n">
+        <v>16</v>
+      </c>
+      <c r="X53" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>70</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>500</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>50</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6887,13 +6947,13 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="H59" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="I59" t="n">
         <v>4.15</v>
-      </c>
-      <c r="I59" t="n">
-        <v>4.25</v>
       </c>
       <c r="J59" t="n">
         <v>1.03</v>
@@ -6917,16 +6977,16 @@
         <v>1.24</v>
       </c>
       <c r="Q59" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="R59" t="n">
         <v>1.45</v>
       </c>
       <c r="S59" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="T59" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="U59" t="n">
         <v>11.25</v>
@@ -6959,7 +7019,7 @@
         <v>175</v>
       </c>
       <c r="AE59" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AF59" t="n">
         <v>30</v>
@@ -6974,7 +7034,7 @@
         <v>32</v>
       </c>
       <c r="AJ59" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60">

--- a/Jogos_da_Semana_FlashScore_2025-05-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-23.xlsx
@@ -894,67 +894,67 @@
         <v>1.85</v>
       </c>
       <c r="H4" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I4" t="n">
-        <v>4.35</v>
+        <v>4.2</v>
       </c>
       <c r="J4" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K4" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="L4" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="M4" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="N4" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="O4" t="n">
         <v>1.91</v>
       </c>
-      <c r="O4" t="n">
-        <v>1.9</v>
-      </c>
       <c r="P4" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.77</v>
+        <v>2.85</v>
       </c>
       <c r="R4" t="n">
         <v>1.78</v>
       </c>
       <c r="S4" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="T4" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="U4" t="n">
+        <v>9</v>
+      </c>
+      <c r="V4" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="W4" t="n">
+        <v>16</v>
+      </c>
+      <c r="X4" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z4" t="n">
         <v>9.25</v>
       </c>
-      <c r="V4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="W4" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="X4" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>9</v>
-      </c>
       <c r="AA4" t="n">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="AB4" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AC4" t="n">
         <v>75</v>
@@ -963,22 +963,22 @@
         <v>600</v>
       </c>
       <c r="AE4" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG4" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH4" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AI4" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ4" t="n">
         <v>45</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>50</v>
       </c>
     </row>
     <row r="5">
@@ -1156,10 +1156,10 @@
         <v>2</v>
       </c>
       <c r="N6" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P6" t="n">
         <v>1.75</v>
@@ -1255,37 +1255,37 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="H7" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I7" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J7" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L7" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M7" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N7" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="O7" t="n">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="P7" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="R7" t="n">
         <v>1.75</v>
@@ -1297,22 +1297,22 @@
         <v>8</v>
       </c>
       <c r="U7" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V7" t="n">
         <v>8.5</v>
       </c>
       <c r="W7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y7" t="n">
         <v>23</v>
       </c>
       <c r="Z7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA7" t="n">
         <v>8</v>
@@ -1499,13 +1499,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H9" t="n">
         <v>2.75</v>
       </c>
       <c r="I9" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J9" t="n">
         <v>1.07</v>
@@ -1520,10 +1520,10 @@
         <v>3.4</v>
       </c>
       <c r="N9" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="O9" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="P9" t="n">
         <v>1.4</v>
@@ -1538,16 +1538,16 @@
         <v>2</v>
       </c>
       <c r="T9" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V9" t="n">
         <v>10</v>
       </c>
       <c r="W9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X9" t="n">
         <v>19</v>
@@ -1556,7 +1556,7 @@
         <v>29</v>
       </c>
       <c r="Z9" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA9" t="n">
         <v>5.5</v>
@@ -1577,13 +1577,13 @@
         <v>17</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH9" t="n">
         <v>34</v>
       </c>
       <c r="AI9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ9" t="n">
         <v>34</v>
@@ -2012,7 +2012,7 @@
         <v>4</v>
       </c>
       <c r="N15" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="O15" t="n">
         <v>2</v>
@@ -2113,94 +2113,94 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="H16" t="n">
-        <v>3.55</v>
+        <v>3.85</v>
       </c>
       <c r="I16" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="J16" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="K16" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="L16" t="n">
-        <v>1.42</v>
+        <v>1.33</v>
       </c>
       <c r="M16" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="N16" t="n">
-        <v>2.25</v>
+        <v>1.98</v>
       </c>
       <c r="O16" t="n">
-        <v>1.6</v>
+        <v>1.78</v>
       </c>
       <c r="P16" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.55</v>
+        <v>2.85</v>
       </c>
       <c r="R16" t="n">
-        <v>2.22</v>
+        <v>2.02</v>
       </c>
       <c r="S16" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="T16" t="n">
-        <v>5.2</v>
+        <v>5.8</v>
       </c>
       <c r="U16" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="V16" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="W16" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="X16" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="Z16" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AA16" t="n">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="AB16" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AC16" t="n">
-        <v>175</v>
+        <v>120</v>
       </c>
       <c r="AD16" t="n">
         <v>1250</v>
       </c>
       <c r="AE16" t="n">
-        <v>11.25</v>
+        <v>13</v>
       </c>
       <c r="AF16" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH16" t="n">
         <v>150</v>
       </c>
       <c r="AI16" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ16" t="n">
         <v>80</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>100</v>
       </c>
     </row>
     <row r="17">
@@ -2235,10 +2235,10 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="H17" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I17" t="n">
         <v>4.15</v>
@@ -2247,7 +2247,7 @@
         <v>1.07</v>
       </c>
       <c r="K17" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="L17" t="n">
         <v>1.35</v>
@@ -2268,43 +2268,43 @@
         <v>2.75</v>
       </c>
       <c r="R17" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S17" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="T17" t="n">
         <v>6.3</v>
       </c>
       <c r="U17" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="V17" t="n">
         <v>9</v>
       </c>
       <c r="W17" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="X17" t="n">
         <v>16.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Z17" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AA17" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AB17" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AC17" t="n">
         <v>100</v>
       </c>
       <c r="AD17" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AE17" t="n">
         <v>10.25</v>
@@ -2478,36 +2478,78 @@
           <t>Vukovar 1991</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
+      <c r="G19" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H19" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1.5</v>
+      </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
+      <c r="N19" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.72</v>
+      </c>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
-      <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr"/>
-      <c r="Z19" t="inlineStr"/>
-      <c r="AA19" t="inlineStr"/>
-      <c r="AB19" t="inlineStr"/>
-      <c r="AC19" t="inlineStr"/>
+      <c r="T19" t="n">
+        <v>11</v>
+      </c>
+      <c r="U19" t="n">
+        <v>29</v>
+      </c>
+      <c r="V19" t="n">
+        <v>17</v>
+      </c>
+      <c r="W19" t="n">
+        <v>67</v>
+      </c>
+      <c r="X19" t="n">
+        <v>51</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>51</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>101</v>
+      </c>
       <c r="AD19" t="inlineStr"/>
-      <c r="AE19" t="inlineStr"/>
-      <c r="AF19" t="inlineStr"/>
-      <c r="AG19" t="inlineStr"/>
-      <c r="AH19" t="inlineStr"/>
-      <c r="AI19" t="inlineStr"/>
-      <c r="AJ19" t="inlineStr"/>
+      <c r="AE19" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2541,7 +2583,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H20" t="n">
         <v>3.5</v>
@@ -2583,7 +2625,7 @@
         <v>9</v>
       </c>
       <c r="U20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V20" t="n">
         <v>9</v>
@@ -2613,13 +2655,13 @@
         <v>151</v>
       </c>
       <c r="AE20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF20" t="n">
         <v>17</v>
       </c>
       <c r="AG20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH20" t="n">
         <v>34</v>
@@ -3155,7 +3197,7 @@
         <v>3.9</v>
       </c>
       <c r="I25" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="J25" t="n">
         <v>1.03</v>
@@ -3747,73 +3789,77 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="H30" t="n">
-        <v>4.4</v>
+        <v>4.15</v>
       </c>
       <c r="I30" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3.6</v>
+      </c>
       <c r="N30" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="O30" t="n">
-        <v>2.27</v>
+        <v>2.05</v>
       </c>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="n">
-        <v>1.62</v>
+        <v>1.72</v>
       </c>
       <c r="S30" t="n">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T30" t="n">
-        <v>9.25</v>
+        <v>7.9</v>
       </c>
       <c r="U30" t="n">
-        <v>8.5</v>
+        <v>7.8</v>
       </c>
       <c r="V30" t="n">
         <v>8.25</v>
       </c>
       <c r="W30" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="X30" t="n">
-        <v>11</v>
+        <v>11.75</v>
       </c>
       <c r="Y30" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Z30" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>65</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>450</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG30" t="n">
         <v>16.5</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>55</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>350</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>35</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>17</v>
       </c>
       <c r="AH30" t="n">
         <v>90</v>
@@ -3822,7 +3868,7 @@
         <v>45</v>
       </c>
       <c r="AJ30" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31">
@@ -3857,13 +3903,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H31" t="n">
         <v>3.75</v>
       </c>
       <c r="I31" t="n">
-        <v>4.85</v>
+        <v>4.7</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -3888,13 +3934,13 @@
         <v>1.98</v>
       </c>
       <c r="T31" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="U31" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="V31" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="W31" t="n">
         <v>13</v>
@@ -3906,7 +3952,7 @@
         <v>22</v>
       </c>
       <c r="Z31" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AA31" t="n">
         <v>7.4</v>
@@ -3918,19 +3964,19 @@
         <v>60</v>
       </c>
       <c r="AD31" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AE31" t="n">
         <v>14.5</v>
       </c>
       <c r="AF31" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG31" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AH31" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI31" t="n">
         <v>45</v>
@@ -4808,10 +4854,10 @@
         <v>3.45</v>
       </c>
       <c r="H39" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I39" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
@@ -4840,40 +4886,40 @@
         <v>1.98</v>
       </c>
       <c r="T39" t="n">
-        <v>11.25</v>
+        <v>10.5</v>
       </c>
       <c r="U39" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="V39" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="W39" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="X39" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Y39" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="Z39" t="n">
         <v>10.5</v>
       </c>
       <c r="AA39" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="AB39" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AC39" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AD39" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AE39" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AF39" t="n">
         <v>9.75</v>
@@ -4882,10 +4928,10 @@
         <v>8.5</v>
       </c>
       <c r="AH39" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AI39" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ39" t="n">
         <v>25</v>
@@ -4923,13 +4969,13 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="H40" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I40" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
@@ -4952,37 +4998,37 @@
         <v>2.57</v>
       </c>
       <c r="R40" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="S40" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="T40" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="U40" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="V40" t="n">
         <v>8.75</v>
       </c>
       <c r="W40" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="X40" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Y40" t="n">
         <v>26</v>
       </c>
       <c r="Z40" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AA40" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AB40" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC40" t="n">
         <v>60</v>
@@ -4991,19 +5037,19 @@
         <v>450</v>
       </c>
       <c r="AE40" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AF40" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AG40" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AH40" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AI40" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ40" t="n">
         <v>32</v>
@@ -5385,13 +5431,13 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3.05</v>
+        <v>2.87</v>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="I44" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
@@ -5412,22 +5458,22 @@
       <c r="R44" t="inlineStr"/>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="U44" t="n">
-        <v>11.5</v>
+        <v>10.75</v>
       </c>
       <c r="V44" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="W44" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="X44" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Y44" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Z44" t="n">
         <v>6.7</v>
@@ -5436,28 +5482,28 @@
         <v>5.2</v>
       </c>
       <c r="AB44" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC44" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AD44" t="n">
         <v>500</v>
       </c>
       <c r="AE44" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="AF44" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AG44" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AH44" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI44" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AJ44" t="n">
         <v>32</v>
@@ -5919,7 +5965,7 @@
         <v>1.04</v>
       </c>
       <c r="K49" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L49" t="n">
         <v>1.22</v>
@@ -6038,10 +6084,10 @@
         <v>4</v>
       </c>
       <c r="J50" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K50" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L50" t="n">
         <v>1.33</v>
@@ -6050,10 +6096,10 @@
         <v>3.25</v>
       </c>
       <c r="N50" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="O50" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="P50" t="n">
         <v>1.4</v>
@@ -6950,10 +6996,10 @@
         <v>1.7</v>
       </c>
       <c r="H59" t="n">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="I59" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="J59" t="n">
         <v>1.03</v>
@@ -6962,37 +7008,37 @@
         <v>9.75</v>
       </c>
       <c r="L59" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="M59" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="N59" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="O59" t="n">
-        <v>2.67</v>
+        <v>2.62</v>
       </c>
       <c r="P59" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="Q59" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="R59" t="n">
         <v>1.45</v>
       </c>
       <c r="S59" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="T59" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="U59" t="n">
         <v>11.25</v>
       </c>
       <c r="V59" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="W59" t="n">
         <v>15.5</v>
@@ -7007,10 +7053,10 @@
         <v>9.75</v>
       </c>
       <c r="AA59" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AB59" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AC59" t="n">
         <v>35</v>
@@ -7019,7 +7065,7 @@
         <v>175</v>
       </c>
       <c r="AE59" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AF59" t="n">
         <v>30</v>
@@ -7034,7 +7080,7 @@
         <v>32</v>
       </c>
       <c r="AJ59" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60">
@@ -7676,36 +7722,90 @@
           <t>Livyi Bereg</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr"/>
+      <c r="G65" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H65" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="I65" t="n">
+        <v>3.85</v>
+      </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="inlineStr"/>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="inlineStr"/>
-      <c r="T65" t="inlineStr"/>
-      <c r="U65" t="inlineStr"/>
-      <c r="V65" t="inlineStr"/>
-      <c r="W65" t="inlineStr"/>
-      <c r="X65" t="inlineStr"/>
-      <c r="Y65" t="inlineStr"/>
-      <c r="Z65" t="inlineStr"/>
-      <c r="AA65" t="inlineStr"/>
-      <c r="AB65" t="inlineStr"/>
-      <c r="AC65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="M65" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="N65" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="O65" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P65" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R65" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S65" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T65" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="U65" t="n">
+        <v>9</v>
+      </c>
+      <c r="V65" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W65" t="n">
+        <v>21</v>
+      </c>
+      <c r="X65" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>45</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>120</v>
+      </c>
       <c r="AD65" t="inlineStr"/>
-      <c r="AE65" t="inlineStr"/>
-      <c r="AF65" t="inlineStr"/>
-      <c r="AG65" t="inlineStr"/>
-      <c r="AH65" t="inlineStr"/>
-      <c r="AI65" t="inlineStr"/>
-      <c r="AJ65" t="inlineStr"/>
+      <c r="AE65" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>65</v>
+      </c>
+      <c r="AI65" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ65" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -7923,31 +8023,31 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="H68" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="I68" t="n">
         <v>15</v>
       </c>
       <c r="J68" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K68" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L68" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="M68" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="N68" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="O68" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="P68" t="n">
         <v>1.22</v>
@@ -7983,10 +8083,10 @@
         <v>17</v>
       </c>
       <c r="AA68" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB68" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC68" t="n">
         <v>67</v>
@@ -7998,19 +8098,19 @@
         <v>34</v>
       </c>
       <c r="AF68" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG68" t="n">
+        <v>34</v>
+      </c>
+      <c r="AH68" t="n">
+        <v>151</v>
+      </c>
+      <c r="AI68" t="n">
+        <v>81</v>
+      </c>
+      <c r="AJ68" t="n">
         <v>67</v>
-      </c>
-      <c r="AG68" t="n">
-        <v>41</v>
-      </c>
-      <c r="AH68" t="n">
-        <v>201</v>
-      </c>
-      <c r="AI68" t="n">
-        <v>101</v>
-      </c>
-      <c r="AJ68" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="69">
@@ -8045,13 +8145,13 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.45</v>
+        <v>2.65</v>
       </c>
       <c r="H69" t="n">
         <v>3.15</v>
       </c>
       <c r="I69" t="n">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
@@ -8080,22 +8180,22 @@
         <v>1.75</v>
       </c>
       <c r="T69" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="U69" t="n">
-        <v>11.25</v>
+        <v>12.5</v>
       </c>
       <c r="V69" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="W69" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="X69" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="Y69" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Z69" t="n">
         <v>7.9</v>
@@ -8113,22 +8213,22 @@
         <v>800</v>
       </c>
       <c r="AE69" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AF69" t="n">
-        <v>13</v>
+        <v>11.75</v>
       </c>
       <c r="AG69" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH69" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AI69" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ69" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-05-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-23.xlsx
@@ -647,13 +647,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="H2" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="J2" t="n">
         <v>1.03</v>
@@ -704,10 +704,10 @@
         <v>34</v>
       </c>
       <c r="Z2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB2" t="n">
         <v>15</v>
@@ -722,13 +722,13 @@
         <v>9</v>
       </c>
       <c r="AF2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AG2" t="n">
         <v>8.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI2" t="n">
         <v>12</v>
@@ -891,94 +891,94 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H4" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I4" t="n">
         <v>4.2</v>
       </c>
       <c r="J4" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K4" t="n">
-        <v>9.25</v>
+        <v>11</v>
       </c>
       <c r="L4" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M4" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="N4" t="n">
         <v>1.9</v>
       </c>
       <c r="O4" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="P4" t="n">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.85</v>
+        <v>3</v>
       </c>
       <c r="R4" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="S4" t="n">
         <v>1.95</v>
       </c>
       <c r="T4" t="n">
-        <v>6.9</v>
+        <v>7.5</v>
       </c>
       <c r="U4" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V4" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="W4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="X4" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z4" t="n">
-        <v>9.25</v>
+        <v>11</v>
       </c>
       <c r="AA4" t="n">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="AB4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AC4" t="n">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="AD4" t="n">
-        <v>600</v>
+        <v>251</v>
       </c>
       <c r="AE4" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AF4" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH4" t="n">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="AI4" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AJ4" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5">
@@ -1013,13 +1013,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H5" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I5" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="J5" t="n">
         <v>1.03</v>
@@ -1061,7 +1061,7 @@
         <v>9</v>
       </c>
       <c r="W5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X5" t="n">
         <v>15</v>
@@ -1079,7 +1079,7 @@
         <v>12</v>
       </c>
       <c r="AC5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AD5" t="n">
         <v>126</v>
@@ -1100,7 +1100,7 @@
         <v>23</v>
       </c>
       <c r="AJ5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6">
@@ -1156,16 +1156,16 @@
         <v>2</v>
       </c>
       <c r="N6" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O6" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P6" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R6" t="n">
         <v>2.63</v>
@@ -1499,31 +1499,31 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="H9" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="I9" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="J9" t="n">
         <v>1.07</v>
       </c>
       <c r="K9" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L9" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="M9" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="N9" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="O9" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="P9" t="n">
         <v>1.4</v>
@@ -1532,16 +1532,16 @@
         <v>2.75</v>
       </c>
       <c r="R9" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="S9" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V9" t="n">
         <v>10</v>
@@ -1556,31 +1556,31 @@
         <v>29</v>
       </c>
       <c r="Z9" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AB9" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AC9" t="n">
         <v>41</v>
       </c>
       <c r="AD9" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG9" t="n">
         <v>13</v>
       </c>
       <c r="AH9" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI9" t="n">
         <v>29</v>
@@ -1807,94 +1807,94 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="H13" t="n">
         <v>3.75</v>
       </c>
       <c r="I13" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="J13" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K13" t="n">
-        <v>11.25</v>
+        <v>15</v>
       </c>
       <c r="L13" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M13" t="n">
-        <v>4.65</v>
+        <v>4.5</v>
       </c>
       <c r="N13" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="O13" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="P13" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="R13" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="S13" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="T13" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="U13" t="n">
-        <v>10.75</v>
+        <v>9.5</v>
       </c>
       <c r="V13" t="n">
         <v>8.5</v>
       </c>
       <c r="W13" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X13" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Z13" t="n">
-        <v>11.25</v>
+        <v>15</v>
       </c>
       <c r="AA13" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AB13" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC13" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AD13" t="n">
-        <v>250</v>
+        <v>151</v>
       </c>
       <c r="AE13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF13" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="AG13" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AH13" t="n">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AI13" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="AJ13" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14">
@@ -1991,13 +1991,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="H15" t="n">
         <v>3.7</v>
       </c>
       <c r="I15" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="J15" t="n">
         <v>1.04</v>
@@ -2012,43 +2012,43 @@
         <v>4</v>
       </c>
       <c r="N15" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="O15" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="P15" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q15" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R15" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="S15" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="T15" t="n">
         <v>13</v>
       </c>
       <c r="U15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="V15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="W15" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="X15" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y15" t="n">
         <v>34</v>
       </c>
-      <c r="Y15" t="n">
-        <v>41</v>
-      </c>
       <c r="Z15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA15" t="n">
         <v>7</v>
@@ -2057,16 +2057,16 @@
         <v>15</v>
       </c>
       <c r="AC15" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD15" t="n">
         <v>201</v>
       </c>
       <c r="AE15" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF15" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AG15" t="n">
         <v>8.5</v>
@@ -2075,7 +2075,7 @@
         <v>15</v>
       </c>
       <c r="AI15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ15" t="n">
         <v>23</v>
@@ -2113,94 +2113,94 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="H16" t="n">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="I16" t="n">
-        <v>5.8</v>
+        <v>5.3</v>
       </c>
       <c r="J16" t="n">
         <v>1.07</v>
       </c>
       <c r="K16" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="L16" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M16" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="N16" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="R16" t="n">
         <v>1.98</v>
       </c>
-      <c r="O16" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="R16" t="n">
-        <v>2.02</v>
-      </c>
       <c r="S16" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="T16" t="n">
         <v>5.8</v>
       </c>
       <c r="U16" t="n">
-        <v>7.1</v>
+        <v>7.4</v>
       </c>
       <c r="V16" t="n">
         <v>8.75</v>
       </c>
       <c r="W16" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="X16" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y16" t="n">
         <v>35</v>
       </c>
       <c r="Z16" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="AA16" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AB16" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AD16" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="AE16" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AF16" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AG16" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AH16" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="AI16" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AJ16" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17">
@@ -2495,7 +2495,7 @@
         <v>2.05</v>
       </c>
       <c r="O19" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
@@ -2583,13 +2583,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H20" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I20" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J20" t="n">
         <v>1.04</v>
@@ -2604,10 +2604,10 @@
         <v>4</v>
       </c>
       <c r="N20" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="O20" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="P20" t="n">
         <v>1.33</v>
@@ -2622,19 +2622,19 @@
         <v>2.2</v>
       </c>
       <c r="T20" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V20" t="n">
         <v>9</v>
       </c>
       <c r="W20" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X20" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y20" t="n">
         <v>23</v>
@@ -2655,13 +2655,13 @@
         <v>151</v>
       </c>
       <c r="AE20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF20" t="n">
         <v>17</v>
       </c>
       <c r="AG20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH20" t="n">
         <v>34</v>
@@ -2717,13 +2717,13 @@
         <v>1.04</v>
       </c>
       <c r="K21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L21" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M21" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N21" t="n">
         <v>1.8</v>
@@ -2738,10 +2738,10 @@
         <v>3.25</v>
       </c>
       <c r="R21" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S21" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T21" t="n">
         <v>10</v>
@@ -2827,13 +2827,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="H22" t="n">
         <v>5</v>
       </c>
       <c r="I22" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J22" t="n">
         <v>1.02</v>
@@ -2961,13 +2961,13 @@
         <v>1.04</v>
       </c>
       <c r="K23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L23" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M23" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N23" t="n">
         <v>1.7</v>
@@ -3203,7 +3203,7 @@
         <v>1.03</v>
       </c>
       <c r="K25" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L25" t="n">
         <v>1.18</v>
@@ -3212,10 +3212,10 @@
         <v>4.5</v>
       </c>
       <c r="N25" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="O25" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="P25" t="n">
         <v>1.29</v>
@@ -3334,10 +3334,10 @@
         <v>3.75</v>
       </c>
       <c r="N26" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="O26" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="P26" t="n">
         <v>1.36</v>
@@ -4485,10 +4485,10 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H36" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I36" t="n">
         <v>5.5</v>
@@ -4500,22 +4500,22 @@
         <v>11</v>
       </c>
       <c r="L36" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M36" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N36" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="O36" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="P36" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R36" t="n">
         <v>1.95</v>
@@ -4527,13 +4527,13 @@
         <v>6.5</v>
       </c>
       <c r="U36" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="V36" t="n">
         <v>8.5</v>
       </c>
       <c r="W36" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X36" t="n">
         <v>13</v>
@@ -4545,10 +4545,10 @@
         <v>10</v>
       </c>
       <c r="AA36" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB36" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC36" t="n">
         <v>51</v>
@@ -4566,7 +4566,7 @@
         <v>17</v>
       </c>
       <c r="AH36" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI36" t="n">
         <v>41</v>
@@ -4607,31 +4607,31 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.57</v>
+        <v>1.48</v>
       </c>
       <c r="H37" t="n">
+        <v>4</v>
+      </c>
+      <c r="I37" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K37" t="n">
+        <v>13</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M37" t="n">
         <v>3.75</v>
       </c>
-      <c r="I37" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K37" t="n">
-        <v>11</v>
-      </c>
-      <c r="L37" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M37" t="n">
-        <v>3.5</v>
-      </c>
       <c r="N37" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="O37" t="n">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="P37" t="n">
         <v>1.36</v>
@@ -4640,10 +4640,10 @@
         <v>3</v>
       </c>
       <c r="R37" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S37" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T37" t="n">
         <v>6.5</v>
@@ -4655,19 +4655,19 @@
         <v>8.5</v>
       </c>
       <c r="W37" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X37" t="n">
         <v>13</v>
       </c>
       <c r="Y37" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z37" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA37" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB37" t="n">
         <v>19</v>
@@ -4851,13 +4851,13 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="H39" t="n">
         <v>3.4</v>
       </c>
       <c r="I39" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
@@ -4886,22 +4886,22 @@
         <v>1.98</v>
       </c>
       <c r="T39" t="n">
-        <v>10.5</v>
+        <v>11.25</v>
       </c>
       <c r="U39" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="V39" t="n">
         <v>12</v>
       </c>
       <c r="W39" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="X39" t="n">
         <v>30</v>
       </c>
       <c r="Y39" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Z39" t="n">
         <v>10.5</v>
@@ -4910,7 +4910,7 @@
         <v>6.7</v>
       </c>
       <c r="AB39" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC39" t="n">
         <v>60</v>
@@ -4919,19 +4919,19 @@
         <v>450</v>
       </c>
       <c r="AE39" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AF39" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AG39" t="n">
         <v>8.5</v>
       </c>
       <c r="AH39" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI39" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AJ39" t="n">
         <v>25</v>
@@ -4969,10 +4969,10 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="H40" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I40" t="n">
         <v>3.1</v>
@@ -5007,13 +5007,13 @@
         <v>8</v>
       </c>
       <c r="U40" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="V40" t="n">
         <v>8.75</v>
       </c>
       <c r="W40" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="X40" t="n">
         <v>16</v>
@@ -5025,7 +5025,7 @@
         <v>11</v>
       </c>
       <c r="AA40" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AB40" t="n">
         <v>14</v>
@@ -5052,7 +5052,7 @@
         <v>26</v>
       </c>
       <c r="AJ40" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41">
@@ -5155,13 +5155,13 @@
         <v>55</v>
       </c>
       <c r="AG41" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AH41" t="n">
         <v>200</v>
       </c>
       <c r="AI41" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AJ41" t="n">
         <v>90</v>
@@ -5199,13 +5199,13 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="H42" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I42" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -5222,22 +5222,22 @@
         <v>1.75</v>
       </c>
       <c r="P42" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="R42" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="S42" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="T42" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U42" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="V42" t="n">
         <v>10.5</v>
@@ -5246,7 +5246,7 @@
         <v>37</v>
       </c>
       <c r="X42" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Y42" t="n">
         <v>32</v>
@@ -5255,10 +5255,10 @@
         <v>9.5</v>
       </c>
       <c r="AA42" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AB42" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC42" t="n">
         <v>60</v>
@@ -5267,22 +5267,22 @@
         <v>450</v>
       </c>
       <c r="AE42" t="n">
-        <v>8.25</v>
+        <v>7.7</v>
       </c>
       <c r="AF42" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="AG42" t="n">
         <v>9</v>
       </c>
       <c r="AH42" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI42" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AJ42" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43">
@@ -5317,13 +5317,13 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H43" t="n">
         <v>3.75</v>
       </c>
       <c r="I43" t="n">
-        <v>4.7</v>
+        <v>4.75</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
@@ -5348,10 +5348,10 @@
         <v>1.88</v>
       </c>
       <c r="T43" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="U43" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="V43" t="n">
         <v>8</v>
@@ -5360,10 +5360,10 @@
         <v>12.5</v>
       </c>
       <c r="X43" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Y43" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Z43" t="n">
         <v>11.25</v>
@@ -5372,22 +5372,22 @@
         <v>7.3</v>
       </c>
       <c r="AB43" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC43" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AD43" t="n">
         <v>500</v>
       </c>
       <c r="AE43" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AF43" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG43" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AH43" t="n">
         <v>80</v>
@@ -5431,13 +5431,13 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="H44" t="n">
-        <v>2.95</v>
+        <v>2.82</v>
       </c>
       <c r="I44" t="n">
-        <v>2.35</v>
+        <v>2.42</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
@@ -5450,42 +5450,42 @@
         <v>1.47</v>
       </c>
       <c r="P44" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="R44" t="inlineStr"/>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="U44" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="V44" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="W44" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="X44" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y44" t="n">
         <v>35</v>
       </c>
       <c r="Z44" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="AA44" t="n">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="AB44" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AC44" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AD44" t="n">
         <v>500</v>
@@ -5494,16 +5494,16 @@
         <v>5.3</v>
       </c>
       <c r="AF44" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AG44" t="n">
         <v>8.25</v>
       </c>
       <c r="AH44" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI44" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AJ44" t="n">
         <v>32</v>
@@ -5651,90 +5651,90 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.45</v>
+        <v>2.52</v>
       </c>
       <c r="H46" t="n">
         <v>3.25</v>
       </c>
       <c r="I46" t="n">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M46" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="N46" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="O46" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="P46" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.47</v>
+        <v>2.52</v>
       </c>
       <c r="R46" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="S46" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="T46" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="U46" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="V46" t="n">
         <v>9.5</v>
       </c>
       <c r="W46" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="X46" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y46" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z46" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AA46" t="n">
         <v>6.3</v>
       </c>
       <c r="AB46" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC46" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AD46" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AE46" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AF46" t="n">
         <v>13</v>
       </c>
       <c r="AG46" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AH46" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>22</v>
+      </c>
+      <c r="AJ46" t="n">
         <v>30</v>
-      </c>
-      <c r="AI46" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ46" t="n">
-        <v>32</v>
       </c>
     </row>
     <row r="47">
@@ -5846,16 +5846,16 @@
         <v>11</v>
       </c>
       <c r="L48" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M48" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N48" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="O48" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="P48" t="n">
         <v>1.36</v>
@@ -5974,10 +5974,10 @@
         <v>4</v>
       </c>
       <c r="N49" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O49" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="P49" t="n">
         <v>1.33</v>
@@ -6078,46 +6078,46 @@
         <v>1.8</v>
       </c>
       <c r="H50" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I50" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="J50" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="K50" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L50" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="M50" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="N50" t="n">
-        <v>2.08</v>
+        <v>2.25</v>
       </c>
       <c r="O50" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P50" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R50" t="n">
+        <v>2</v>
+      </c>
+      <c r="S50" t="n">
         <v>1.73</v>
       </c>
-      <c r="P50" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="R50" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S50" t="n">
-        <v>1.83</v>
-      </c>
       <c r="T50" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U50" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V50" t="n">
         <v>9</v>
@@ -6126,22 +6126,22 @@
         <v>15</v>
       </c>
       <c r="X50" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y50" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z50" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AA50" t="n">
         <v>6.5</v>
       </c>
       <c r="AB50" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC50" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD50" t="n">
         <v>301</v>
@@ -6156,10 +6156,10 @@
         <v>15</v>
       </c>
       <c r="AH50" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI50" t="n">
         <v>41</v>
-      </c>
-      <c r="AI50" t="n">
-        <v>34</v>
       </c>
       <c r="AJ50" t="n">
         <v>41</v>
@@ -6442,36 +6442,96 @@
           <t>Podbrezova</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="inlineStr"/>
-      <c r="T54" t="inlineStr"/>
-      <c r="U54" t="inlineStr"/>
-      <c r="V54" t="inlineStr"/>
-      <c r="W54" t="inlineStr"/>
-      <c r="X54" t="inlineStr"/>
-      <c r="Y54" t="inlineStr"/>
-      <c r="Z54" t="inlineStr"/>
-      <c r="AA54" t="inlineStr"/>
-      <c r="AB54" t="inlineStr"/>
-      <c r="AC54" t="inlineStr"/>
-      <c r="AD54" t="inlineStr"/>
-      <c r="AE54" t="inlineStr"/>
-      <c r="AF54" t="inlineStr"/>
-      <c r="AG54" t="inlineStr"/>
-      <c r="AH54" t="inlineStr"/>
-      <c r="AI54" t="inlineStr"/>
-      <c r="AJ54" t="inlineStr"/>
+      <c r="G54" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H54" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="I54" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K54" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="L54" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M54" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="N54" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="O54" t="n">
+        <v>2</v>
+      </c>
+      <c r="P54" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="R54" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S54" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T54" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="U54" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="V54" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="W54" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="X54" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>75</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>600</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>28</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>80</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>45</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -7240,7 +7300,7 @@
         <v>1.78</v>
       </c>
       <c r="H61" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="I61" t="n">
         <v>3.9</v>
@@ -7252,55 +7312,55 @@
         <v>9</v>
       </c>
       <c r="L61" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M61" t="n">
-        <v>4.25</v>
+        <v>4.4</v>
       </c>
       <c r="N61" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="O61" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="P61" t="n">
         <v>1.29</v>
       </c>
       <c r="Q61" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="R61" t="n">
         <v>1.53</v>
       </c>
       <c r="S61" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="T61" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="U61" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="V61" t="n">
         <v>8.25</v>
       </c>
       <c r="W61" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="X61" t="n">
         <v>12.5</v>
       </c>
       <c r="Y61" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Z61" t="n">
         <v>9</v>
       </c>
       <c r="AA61" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="AB61" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC61" t="n">
         <v>40</v>
@@ -7309,10 +7369,10 @@
         <v>250</v>
       </c>
       <c r="AE61" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="AF61" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG61" t="n">
         <v>13</v>
@@ -7321,10 +7381,10 @@
         <v>60</v>
       </c>
       <c r="AI61" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ61" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="62">
@@ -7496,16 +7556,16 @@
         <v>11</v>
       </c>
       <c r="L63" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M63" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N63" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="O63" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="P63" t="n">
         <v>1.36</v>
@@ -7723,88 +7783,92 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.15</v>
+        <v>2.35</v>
       </c>
       <c r="H65" t="n">
-        <v>2.72</v>
+        <v>2.42</v>
       </c>
       <c r="I65" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="J65" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="K65" t="n">
         <v>3.85</v>
       </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="M65" t="n">
-        <v>2.15</v>
+        <v>1.98</v>
       </c>
       <c r="N65" t="n">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="O65" t="n">
-        <v>1.39</v>
+        <v>1.31</v>
       </c>
       <c r="P65" t="n">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="Q65" t="n">
-        <v>2.15</v>
+        <v>1.98</v>
       </c>
       <c r="R65" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S65" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T65" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="U65" t="n">
-        <v>9</v>
+        <v>9.75</v>
       </c>
       <c r="V65" t="n">
-        <v>9.5</v>
+        <v>10.25</v>
       </c>
       <c r="W65" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="X65" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="Y65" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="Z65" t="n">
-        <v>5.6</v>
+        <v>4.1</v>
       </c>
       <c r="AA65" t="n">
-        <v>5.6</v>
+        <v>5.2</v>
       </c>
       <c r="AB65" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AC65" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AD65" t="inlineStr"/>
       <c r="AE65" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AF65" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG65" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH65" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AI65" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ65" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="66">
@@ -7838,36 +7902,96 @@
           <t>Al Ain</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr"/>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="inlineStr"/>
-      <c r="T66" t="inlineStr"/>
-      <c r="U66" t="inlineStr"/>
-      <c r="V66" t="inlineStr"/>
-      <c r="W66" t="inlineStr"/>
-      <c r="X66" t="inlineStr"/>
-      <c r="Y66" t="inlineStr"/>
-      <c r="Z66" t="inlineStr"/>
-      <c r="AA66" t="inlineStr"/>
-      <c r="AB66" t="inlineStr"/>
-      <c r="AC66" t="inlineStr"/>
-      <c r="AD66" t="inlineStr"/>
-      <c r="AE66" t="inlineStr"/>
-      <c r="AF66" t="inlineStr"/>
-      <c r="AG66" t="inlineStr"/>
-      <c r="AH66" t="inlineStr"/>
-      <c r="AI66" t="inlineStr"/>
-      <c r="AJ66" t="inlineStr"/>
+      <c r="G66" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="H66" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="I66" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K66" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="L66" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="N66" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="O66" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="P66" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="S66" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="T66" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="U66" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="W66" t="n">
+        <v>35</v>
+      </c>
+      <c r="X66" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>35</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>175</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI66" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>18.5</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">

--- a/Jogos_da_Semana_FlashScore_2025-05-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-23.xlsx
@@ -647,13 +647,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I2" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="J2" t="n">
         <v>1.03</v>
@@ -692,22 +692,22 @@
         <v>29</v>
       </c>
       <c r="V2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="W2" t="n">
         <v>51</v>
       </c>
       <c r="X2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Y2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB2" t="n">
         <v>15</v>
@@ -775,19 +775,19 @@
         <v>8</v>
       </c>
       <c r="I3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J3" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L3" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="M3" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="N3" t="n">
         <v>1.5</v>
@@ -796,10 +796,10 @@
         <v>2.63</v>
       </c>
       <c r="P3" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="Q3" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="R3" t="n">
         <v>2.25</v>
@@ -835,7 +835,7 @@
         <v>34</v>
       </c>
       <c r="AC3" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AD3" t="n">
         <v>501</v>
@@ -844,7 +844,7 @@
         <v>29</v>
       </c>
       <c r="AF3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG3" t="n">
         <v>34</v>
@@ -897,7 +897,7 @@
         <v>3.6</v>
       </c>
       <c r="I4" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J4" t="n">
         <v>1.05</v>
@@ -1013,13 +1013,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="I5" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="J5" t="n">
         <v>1.03</v>
@@ -1052,16 +1052,16 @@
         <v>2.25</v>
       </c>
       <c r="T5" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V5" t="n">
         <v>9</v>
       </c>
       <c r="W5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X5" t="n">
         <v>15</v>
@@ -1073,10 +1073,10 @@
         <v>15</v>
       </c>
       <c r="AA5" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC5" t="n">
         <v>41</v>
@@ -1094,13 +1094,13 @@
         <v>12</v>
       </c>
       <c r="AH5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI5" t="n">
         <v>23</v>
       </c>
       <c r="AJ5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6">
@@ -1144,10 +1144,10 @@
         <v>2.6</v>
       </c>
       <c r="J6" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="K6" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="L6" t="n">
         <v>1.73</v>
@@ -1174,7 +1174,7 @@
         <v>1.44</v>
       </c>
       <c r="T6" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="U6" t="n">
         <v>13</v>
@@ -1192,23 +1192,23 @@
         <v>51</v>
       </c>
       <c r="Z6" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AA6" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC6" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AG6" t="n">
         <v>12</v>
@@ -1270,16 +1270,16 @@
         <v>13</v>
       </c>
       <c r="L7" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M7" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N7" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="O7" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="P7" t="n">
         <v>1.33</v>
@@ -1377,13 +1377,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="H8" t="n">
         <v>3.5</v>
       </c>
       <c r="I8" t="n">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="J8" t="n">
         <v>1.05</v>
@@ -1419,7 +1419,7 @@
         <v>9</v>
       </c>
       <c r="U8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V8" t="n">
         <v>10</v>
@@ -1428,7 +1428,7 @@
         <v>29</v>
       </c>
       <c r="X8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y8" t="n">
         <v>29</v>
@@ -1437,34 +1437,34 @@
         <v>11</v>
       </c>
       <c r="AA8" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD8" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE8" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG8" t="n">
         <v>9.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI8" t="n">
         <v>19</v>
       </c>
       <c r="AJ8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9">
@@ -1499,31 +1499,31 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="H9" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="I9" t="n">
         <v>3.75</v>
       </c>
       <c r="J9" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K9" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="L9" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M9" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N9" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="O9" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="P9" t="n">
         <v>1.4</v>
@@ -1547,7 +1547,7 @@
         <v>10</v>
       </c>
       <c r="W9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X9" t="n">
         <v>19</v>
@@ -1556,7 +1556,7 @@
         <v>29</v>
       </c>
       <c r="Z9" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA9" t="n">
         <v>5</v>
@@ -1620,36 +1620,92 @@
           <t>Sumqayit</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+      <c r="G10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.18</v>
+      </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
-      <c r="AB10" t="inlineStr"/>
-      <c r="AC10" t="inlineStr"/>
-      <c r="AD10" t="inlineStr"/>
-      <c r="AE10" t="inlineStr"/>
-      <c r="AF10" t="inlineStr"/>
-      <c r="AG10" t="inlineStr"/>
-      <c r="AH10" t="inlineStr"/>
-      <c r="AI10" t="inlineStr"/>
-      <c r="AJ10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="T10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="U10" t="n">
+        <v>16</v>
+      </c>
+      <c r="V10" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="W10" t="n">
+        <v>45</v>
+      </c>
+      <c r="X10" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>45</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>80</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>700</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1810,73 +1866,73 @@
         <v>1.67</v>
       </c>
       <c r="H13" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I13" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K13" t="n">
+        <v>13</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M13" t="n">
         <v>4</v>
       </c>
-      <c r="J13" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K13" t="n">
-        <v>15</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="M13" t="n">
-        <v>4.5</v>
-      </c>
       <c r="N13" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="O13" t="n">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="P13" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="R13" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="S13" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="T13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U13" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="V13" t="n">
         <v>8.5</v>
       </c>
       <c r="W13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X13" t="n">
         <v>13</v>
       </c>
       <c r="Y13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB13" t="n">
         <v>15</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>13</v>
       </c>
       <c r="AC13" t="n">
         <v>41</v>
       </c>
       <c r="AD13" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE13" t="n">
         <v>15</v>
@@ -1888,7 +1944,7 @@
         <v>15</v>
       </c>
       <c r="AH13" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI13" t="n">
         <v>34</v>
@@ -1928,36 +1984,92 @@
           <t>GOSK Gabela</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+      <c r="G14" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I14" t="n">
+        <v>4.05</v>
+      </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr"/>
-      <c r="AA14" t="inlineStr"/>
-      <c r="AB14" t="inlineStr"/>
-      <c r="AC14" t="inlineStr"/>
-      <c r="AD14" t="inlineStr"/>
-      <c r="AE14" t="inlineStr"/>
-      <c r="AF14" t="inlineStr"/>
-      <c r="AG14" t="inlineStr"/>
-      <c r="AH14" t="inlineStr"/>
-      <c r="AI14" t="inlineStr"/>
-      <c r="AJ14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="T14" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="U14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="W14" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="X14" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>65</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>500</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>65</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>37</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1991,7 +2103,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="H15" t="n">
         <v>3.7</v>
@@ -2583,13 +2695,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H20" t="n">
         <v>3.6</v>
       </c>
       <c r="I20" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J20" t="n">
         <v>1.04</v>
@@ -2622,7 +2734,7 @@
         <v>2.2</v>
       </c>
       <c r="T20" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U20" t="n">
         <v>11</v>
@@ -2658,7 +2770,7 @@
         <v>12</v>
       </c>
       <c r="AF20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG20" t="n">
         <v>12</v>
@@ -2717,7 +2829,7 @@
         <v>1.04</v>
       </c>
       <c r="K21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L21" t="n">
         <v>1.22</v>
@@ -2726,10 +2838,10 @@
         <v>4</v>
       </c>
       <c r="N21" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="O21" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="P21" t="n">
         <v>1.33</v>
@@ -2827,13 +2939,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="H22" t="n">
         <v>5</v>
       </c>
       <c r="I22" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J22" t="n">
         <v>1.02</v>
@@ -2842,16 +2954,16 @@
         <v>21</v>
       </c>
       <c r="L22" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="M22" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="N22" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="O22" t="n">
-        <v>2.7</v>
+        <v>2.87</v>
       </c>
       <c r="P22" t="n">
         <v>1.22</v>
@@ -2866,7 +2978,7 @@
         <v>2.2</v>
       </c>
       <c r="T22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U22" t="n">
         <v>9</v>
@@ -3080,13 +3192,13 @@
         <v>6.5</v>
       </c>
       <c r="J24" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K24" t="n">
         <v>11</v>
       </c>
       <c r="L24" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="M24" t="n">
         <v>3.4</v>
@@ -3200,13 +3312,13 @@
         <v>2.35</v>
       </c>
       <c r="J25" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K25" t="n">
         <v>15</v>
       </c>
       <c r="L25" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="M25" t="n">
         <v>4.5</v>
@@ -3441,7 +3553,7 @@
         <v>4.75</v>
       </c>
       <c r="I27" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J27" t="n">
         <v>1.02</v>
@@ -3468,10 +3580,10 @@
         <v>4</v>
       </c>
       <c r="R27" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S27" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T27" t="n">
         <v>10</v>
@@ -3483,7 +3595,7 @@
         <v>8.5</v>
       </c>
       <c r="W27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X27" t="n">
         <v>11</v>
@@ -3495,7 +3607,7 @@
         <v>21</v>
       </c>
       <c r="AA27" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB27" t="n">
         <v>15</v>
@@ -3513,10 +3625,10 @@
         <v>34</v>
       </c>
       <c r="AG27" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH27" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI27" t="n">
         <v>41</v>
@@ -3557,10 +3669,10 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="H28" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I28" t="n">
         <v>3.4</v>
@@ -3568,40 +3680,40 @@
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="M28" t="n">
-        <v>5.9</v>
+        <v>6.3</v>
       </c>
       <c r="N28" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="O28" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P28" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="Q28" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="R28" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="S28" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="T28" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="U28" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="V28" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="W28" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X28" t="n">
         <v>13</v>
@@ -3610,37 +3722,37 @@
         <v>14</v>
       </c>
       <c r="Z28" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AA28" t="n">
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="AB28" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AD28" t="n">
         <v>90</v>
       </c>
       <c r="AE28" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AF28" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AG28" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH28" t="n">
         <v>55</v>
       </c>
       <c r="AI28" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ28" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="29">
@@ -3792,7 +3904,7 @@
         <v>1.53</v>
       </c>
       <c r="H30" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="I30" t="n">
         <v>5</v>
@@ -3803,24 +3915,24 @@
         <v>1.2</v>
       </c>
       <c r="M30" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="N30" t="n">
         <v>1.6</v>
       </c>
       <c r="O30" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="S30" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="T30" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="U30" t="n">
         <v>7.8</v>
@@ -3832,7 +3944,7 @@
         <v>11</v>
       </c>
       <c r="X30" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="Y30" t="n">
         <v>23</v>
@@ -4375,7 +4487,7 @@
         <v>1.07</v>
       </c>
       <c r="K35" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L35" t="n">
         <v>1.36</v>
@@ -4485,31 +4597,31 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H36" t="n">
         <v>3.8</v>
       </c>
       <c r="I36" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J36" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K36" t="n">
         <v>11</v>
       </c>
       <c r="L36" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M36" t="n">
         <v>3.5</v>
       </c>
       <c r="N36" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="O36" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="P36" t="n">
         <v>1.36</v>
@@ -4527,13 +4639,13 @@
         <v>6.5</v>
       </c>
       <c r="U36" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="V36" t="n">
         <v>8.5</v>
       </c>
       <c r="W36" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X36" t="n">
         <v>13</v>
@@ -4548,7 +4660,7 @@
         <v>7.5</v>
       </c>
       <c r="AB36" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC36" t="n">
         <v>51</v>
@@ -4560,13 +4672,13 @@
         <v>13</v>
       </c>
       <c r="AF36" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG36" t="n">
         <v>17</v>
       </c>
       <c r="AH36" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI36" t="n">
         <v>41</v>
@@ -4607,13 +4719,13 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="H37" t="n">
         <v>4</v>
       </c>
       <c r="I37" t="n">
-        <v>6.25</v>
+        <v>5.75</v>
       </c>
       <c r="J37" t="n">
         <v>1.04</v>
@@ -4622,34 +4734,34 @@
         <v>13</v>
       </c>
       <c r="L37" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M37" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N37" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="O37" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="P37" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q37" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R37" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S37" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="T37" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U37" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="V37" t="n">
         <v>8.5</v>
@@ -4658,25 +4770,25 @@
         <v>11</v>
       </c>
       <c r="X37" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y37" t="n">
         <v>26</v>
       </c>
       <c r="Z37" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA37" t="n">
         <v>8</v>
       </c>
       <c r="AB37" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC37" t="n">
         <v>51</v>
       </c>
       <c r="AD37" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE37" t="n">
         <v>15</v>
@@ -4691,10 +4803,10 @@
         <v>67</v>
       </c>
       <c r="AI37" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ37" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38">
@@ -4851,27 +4963,27 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3.55</v>
+        <v>4.4</v>
       </c>
       <c r="H39" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="I39" t="n">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="M39" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="N39" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="O39" t="n">
-        <v>1.82</v>
+        <v>1.9</v>
       </c>
       <c r="P39" t="n">
         <v>1.39</v>
@@ -4880,61 +4992,61 @@
         <v>2.57</v>
       </c>
       <c r="R39" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="S39" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="T39" t="n">
-        <v>11.25</v>
+        <v>13</v>
       </c>
       <c r="U39" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="V39" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="W39" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="X39" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="Y39" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="Z39" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AA39" t="n">
-        <v>6.7</v>
+        <v>7.3</v>
       </c>
       <c r="AB39" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AC39" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AD39" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AE39" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AF39" t="n">
-        <v>9.5</v>
+        <v>8.25</v>
       </c>
       <c r="AG39" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AH39" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AI39" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AJ39" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40">
@@ -4969,13 +5081,13 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="H40" t="n">
         <v>3.55</v>
       </c>
       <c r="I40" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
@@ -5004,16 +5116,16 @@
         <v>1.93</v>
       </c>
       <c r="T40" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="U40" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="V40" t="n">
         <v>8.75</v>
       </c>
       <c r="W40" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="X40" t="n">
         <v>16</v>
@@ -5028,10 +5140,10 @@
         <v>6.9</v>
       </c>
       <c r="AB40" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC40" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AD40" t="n">
         <v>450</v>
@@ -5040,16 +5152,16 @@
         <v>10.25</v>
       </c>
       <c r="AF40" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AG40" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AH40" t="n">
         <v>40</v>
       </c>
       <c r="AI40" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ40" t="n">
         <v>35</v>
@@ -5840,13 +5952,13 @@
         <v>1.85</v>
       </c>
       <c r="J48" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K48" t="n">
         <v>11</v>
       </c>
       <c r="L48" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M48" t="n">
         <v>3.5</v>
@@ -5956,22 +6068,22 @@
         <v>4.5</v>
       </c>
       <c r="H49" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I49" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="J49" t="n">
         <v>1.04</v>
       </c>
       <c r="K49" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L49" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M49" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N49" t="n">
         <v>1.8</v>
@@ -5992,7 +6104,7 @@
         <v>2</v>
       </c>
       <c r="T49" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="U49" t="n">
         <v>23</v>
@@ -6001,7 +6113,7 @@
         <v>15</v>
       </c>
       <c r="W49" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="X49" t="n">
         <v>34</v>
@@ -6034,7 +6146,7 @@
         <v>8.5</v>
       </c>
       <c r="AH49" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI49" t="n">
         <v>13</v>
@@ -6196,36 +6308,92 @@
           <t>Al Bukiryah</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
+      <c r="G51" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H51" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I51" t="n">
+        <v>2.12</v>
+      </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="inlineStr"/>
-      <c r="T51" t="inlineStr"/>
-      <c r="U51" t="inlineStr"/>
-      <c r="V51" t="inlineStr"/>
-      <c r="W51" t="inlineStr"/>
-      <c r="X51" t="inlineStr"/>
-      <c r="Y51" t="inlineStr"/>
-      <c r="Z51" t="inlineStr"/>
-      <c r="AA51" t="inlineStr"/>
-      <c r="AB51" t="inlineStr"/>
-      <c r="AC51" t="inlineStr"/>
-      <c r="AD51" t="inlineStr"/>
-      <c r="AE51" t="inlineStr"/>
-      <c r="AF51" t="inlineStr"/>
-      <c r="AG51" t="inlineStr"/>
-      <c r="AH51" t="inlineStr"/>
-      <c r="AI51" t="inlineStr"/>
-      <c r="AJ51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M51" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="N51" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="O51" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P51" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="R51" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S51" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T51" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="U51" t="n">
+        <v>17</v>
+      </c>
+      <c r="V51" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="W51" t="n">
+        <v>45</v>
+      </c>
+      <c r="X51" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>75</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>600</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>18</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6258,36 +6426,88 @@
           <t>Al Taee</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
+      <c r="G52" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="H52" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I52" t="n">
+        <v>3.65</v>
+      </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
-      <c r="O52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M52" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="N52" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="O52" t="n">
+        <v>1.7</v>
+      </c>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="inlineStr"/>
-      <c r="T52" t="inlineStr"/>
-      <c r="U52" t="inlineStr"/>
-      <c r="V52" t="inlineStr"/>
-      <c r="W52" t="inlineStr"/>
-      <c r="X52" t="inlineStr"/>
-      <c r="Y52" t="inlineStr"/>
-      <c r="Z52" t="inlineStr"/>
-      <c r="AA52" t="inlineStr"/>
-      <c r="AB52" t="inlineStr"/>
-      <c r="AC52" t="inlineStr"/>
-      <c r="AD52" t="inlineStr"/>
-      <c r="AE52" t="inlineStr"/>
-      <c r="AF52" t="inlineStr"/>
-      <c r="AG52" t="inlineStr"/>
-      <c r="AH52" t="inlineStr"/>
-      <c r="AI52" t="inlineStr"/>
-      <c r="AJ52" t="inlineStr"/>
+      <c r="R52" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S52" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="T52" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="U52" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W52" t="n">
+        <v>18</v>
+      </c>
+      <c r="X52" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>70</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>600</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>55</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>35</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -6443,94 +6663,94 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="H54" t="n">
-        <v>3.95</v>
+        <v>4.05</v>
       </c>
       <c r="I54" t="n">
-        <v>4.45</v>
+        <v>4.8</v>
       </c>
       <c r="J54" t="n">
         <v>1.05</v>
       </c>
       <c r="K54" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="L54" t="n">
         <v>1.25</v>
       </c>
       <c r="M54" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="N54" t="n">
         <v>1.75</v>
       </c>
       <c r="O54" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="P54" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="Q54" t="n">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="R54" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="S54" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="T54" t="n">
         <v>7.2</v>
       </c>
       <c r="U54" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="V54" t="n">
         <v>8.75</v>
       </c>
       <c r="W54" t="n">
+        <v>13</v>
+      </c>
+      <c r="X54" t="n">
         <v>13.5</v>
-      </c>
-      <c r="X54" t="n">
-        <v>14</v>
       </c>
       <c r="Y54" t="n">
         <v>27</v>
       </c>
       <c r="Z54" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AA54" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AB54" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AC54" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AD54" t="n">
         <v>600</v>
       </c>
       <c r="AE54" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AF54" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AG54" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AH54" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI54" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AJ54" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55">
@@ -7663,89 +7883,89 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="H64" t="n">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="I64" t="n">
-        <v>1.82</v>
+        <v>1.91</v>
       </c>
       <c r="J64" t="n">
         <v>1.13</v>
       </c>
       <c r="K64" t="n">
-        <v>4.45</v>
+        <v>4.35</v>
       </c>
       <c r="L64" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="M64" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="N64" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="O64" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="P64" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="Q64" t="n">
         <v>2.05</v>
       </c>
       <c r="R64" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="S64" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="T64" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U64" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="V64" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="W64" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="X64" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="Y64" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="Z64" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="AA64" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AB64" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AC64" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AD64" t="inlineStr"/>
       <c r="AE64" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="AF64" t="n">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="AG64" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AH64" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AI64" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ64" t="n">
         <v>60</v>
@@ -7903,13 +8123,13 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.82</v>
+        <v>2.75</v>
       </c>
       <c r="H66" t="n">
         <v>3.95</v>
       </c>
       <c r="I66" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="J66" t="n">
         <v>1.03</v>
@@ -7945,16 +8165,16 @@
         <v>14.5</v>
       </c>
       <c r="U66" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="V66" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="W66" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="X66" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Y66" t="n">
         <v>22</v>
@@ -7978,19 +8198,19 @@
         <v>12.5</v>
       </c>
       <c r="AF66" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AG66" t="n">
         <v>9.25</v>
       </c>
       <c r="AH66" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI66" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AJ66" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67">

--- a/Jogos_da_Semana_FlashScore_2025-05-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-23.xlsx
@@ -647,13 +647,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="H2" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I2" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="J2" t="n">
         <v>1.03</v>
@@ -701,7 +701,7 @@
         <v>41</v>
       </c>
       <c r="Y2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z2" t="n">
         <v>15</v>
@@ -728,7 +728,7 @@
         <v>8.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI2" t="n">
         <v>12</v>
@@ -778,10 +778,10 @@
         <v>13</v>
       </c>
       <c r="J3" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L3" t="n">
         <v>1.17</v>
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H4" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I4" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J4" t="n">
         <v>1.05</v>
@@ -930,16 +930,16 @@
         <v>1.95</v>
       </c>
       <c r="T4" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U4" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V4" t="n">
         <v>8.5</v>
       </c>
       <c r="W4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X4" t="n">
         <v>15</v>
@@ -963,19 +963,19 @@
         <v>251</v>
       </c>
       <c r="AE4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG4" t="n">
         <v>15</v>
       </c>
       <c r="AH4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI4" t="n">
         <v>41</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>34</v>
       </c>
       <c r="AJ4" t="n">
         <v>41</v>
@@ -1022,10 +1022,10 @@
         <v>3.5</v>
       </c>
       <c r="J5" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L5" t="n">
         <v>1.2</v>
@@ -1255,13 +1255,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H7" t="n">
         <v>4.1</v>
       </c>
       <c r="I7" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
         <v>1.04</v>
@@ -1270,16 +1270,16 @@
         <v>13</v>
       </c>
       <c r="L7" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M7" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N7" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O7" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="P7" t="n">
         <v>1.33</v>
@@ -1288,13 +1288,13 @@
         <v>3.25</v>
       </c>
       <c r="R7" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S7" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U7" t="n">
         <v>8</v>
@@ -1303,37 +1303,37 @@
         <v>8.5</v>
       </c>
       <c r="W7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X7" t="n">
         <v>13</v>
       </c>
       <c r="Y7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA7" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC7" t="n">
         <v>51</v>
       </c>
       <c r="AD7" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF7" t="n">
         <v>26</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH7" t="n">
         <v>51</v>
@@ -1499,19 +1499,19 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="H9" t="n">
-        <v>2.4</v>
+        <v>2.63</v>
       </c>
       <c r="I9" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="J9" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K9" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="L9" t="n">
         <v>1.29</v>
@@ -1520,10 +1520,10 @@
         <v>3.5</v>
       </c>
       <c r="N9" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="O9" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="P9" t="n">
         <v>1.4</v>
@@ -1556,13 +1556,13 @@
         <v>29</v>
       </c>
       <c r="Z9" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA9" t="n">
         <v>5</v>
       </c>
       <c r="AB9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC9" t="n">
         <v>41</v>
@@ -1571,19 +1571,19 @@
         <v>151</v>
       </c>
       <c r="AE9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG9" t="n">
         <v>12</v>
       </c>
-      <c r="AF9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>13</v>
-      </c>
       <c r="AH9" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ9" t="n">
         <v>34</v>
@@ -1884,10 +1884,10 @@
         <v>4</v>
       </c>
       <c r="N13" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O13" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="P13" t="n">
         <v>1.33</v>
@@ -1935,7 +1935,7 @@
         <v>201</v>
       </c>
       <c r="AE13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF13" t="n">
         <v>23</v>
@@ -1950,7 +1950,7 @@
         <v>34</v>
       </c>
       <c r="AJ13" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14">
@@ -1985,13 +1985,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="H14" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I14" t="n">
-        <v>4.05</v>
+        <v>3.9</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -1999,13 +1999,13 @@
         <v>1.26</v>
       </c>
       <c r="M14" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="N14" t="n">
         <v>1.78</v>
       </c>
       <c r="O14" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="P14" t="n">
         <v>1.39</v>
@@ -2017,19 +2017,19 @@
         <v>1.7</v>
       </c>
       <c r="S14" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="T14" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="U14" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V14" t="n">
         <v>8.25</v>
       </c>
       <c r="W14" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="X14" t="n">
         <v>14</v>
@@ -2038,7 +2038,7 @@
         <v>25</v>
       </c>
       <c r="Z14" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AA14" t="n">
         <v>6.9</v>
@@ -2053,16 +2053,16 @@
         <v>500</v>
       </c>
       <c r="AE14" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="AF14" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG14" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH14" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AI14" t="n">
         <v>37</v>
@@ -2103,7 +2103,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H15" t="n">
         <v>3.7</v>
@@ -2225,28 +2225,28 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H16" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="I16" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="J16" t="n">
         <v>1.07</v>
       </c>
       <c r="K16" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="L16" t="n">
         <v>1.34</v>
       </c>
       <c r="M16" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="N16" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="O16" t="n">
         <v>1.75</v>
@@ -2255,16 +2255,16 @@
         <v>1.42</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="R16" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S16" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="T16" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="U16" t="n">
         <v>7.4</v>
@@ -2273,46 +2273,46 @@
         <v>8.75</v>
       </c>
       <c r="W16" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="X16" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y16" t="n">
         <v>35</v>
       </c>
       <c r="Z16" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AA16" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AB16" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AC16" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AD16" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="AE16" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AF16" t="n">
         <v>32</v>
       </c>
       <c r="AG16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH16" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AI16" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AJ16" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17">
@@ -2347,25 +2347,25 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="H17" t="n">
         <v>3.5</v>
       </c>
       <c r="I17" t="n">
-        <v>4.15</v>
+        <v>4</v>
       </c>
       <c r="J17" t="n">
         <v>1.07</v>
       </c>
       <c r="K17" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="L17" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M17" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="N17" t="n">
         <v>2.05</v>
@@ -2377,7 +2377,7 @@
         <v>1.42</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="R17" t="n">
         <v>1.9</v>
@@ -2386,7 +2386,7 @@
         <v>1.8</v>
       </c>
       <c r="T17" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="U17" t="n">
         <v>8.75</v>
@@ -2395,19 +2395,19 @@
         <v>9</v>
       </c>
       <c r="W17" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="X17" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Y17" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Z17" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AA17" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AB17" t="n">
         <v>18</v>
@@ -2419,13 +2419,13 @@
         <v>900</v>
       </c>
       <c r="AE17" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AF17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG17" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH17" t="n">
         <v>70</v>
@@ -2469,94 +2469,94 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H18" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="I18" t="n">
         <v>5.5</v>
       </c>
       <c r="J18" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K18" t="n">
-        <v>7.8</v>
+        <v>13</v>
       </c>
       <c r="L18" t="n">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="M18" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="N18" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="O18" t="n">
+        <v>2</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S18" t="n">
         <v>1.91</v>
       </c>
-      <c r="P18" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.98</v>
-      </c>
       <c r="T18" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="U18" t="n">
-        <v>8.75</v>
+        <v>7.5</v>
       </c>
       <c r="V18" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="W18" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="X18" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Z18" t="n">
-        <v>7.8</v>
+        <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AB18" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AC18" t="n">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="AD18" t="n">
-        <v>600</v>
+        <v>301</v>
       </c>
       <c r="AE18" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AF18" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="AG18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH18" t="n">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="AI18" t="n">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="AJ18" t="n">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19">
@@ -2874,7 +2874,7 @@
         <v>26</v>
       </c>
       <c r="Z21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA21" t="n">
         <v>7</v>
@@ -2960,10 +2960,10 @@
         <v>6.5</v>
       </c>
       <c r="N22" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="O22" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="P22" t="n">
         <v>1.22</v>
@@ -2972,19 +2972,19 @@
         <v>4</v>
       </c>
       <c r="R22" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S22" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T22" t="n">
         <v>11</v>
       </c>
       <c r="U22" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="V22" t="n">
         <v>9</v>
-      </c>
-      <c r="V22" t="n">
-        <v>8.5</v>
       </c>
       <c r="W22" t="n">
         <v>11</v>
@@ -3008,7 +3008,7 @@
         <v>41</v>
       </c>
       <c r="AD22" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE22" t="n">
         <v>21</v>
@@ -3192,13 +3192,13 @@
         <v>6.5</v>
       </c>
       <c r="J24" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K24" t="n">
         <v>11</v>
       </c>
       <c r="L24" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="M24" t="n">
         <v>3.4</v>
@@ -3312,13 +3312,13 @@
         <v>2.35</v>
       </c>
       <c r="J25" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K25" t="n">
         <v>15</v>
       </c>
       <c r="L25" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="M25" t="n">
         <v>4.5</v>
@@ -3458,19 +3458,19 @@
         <v>3</v>
       </c>
       <c r="R26" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S26" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T26" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="U26" t="n">
+        <v>11</v>
+      </c>
+      <c r="V26" t="n">
         <v>9</v>
-      </c>
-      <c r="U26" t="n">
-        <v>12</v>
-      </c>
-      <c r="V26" t="n">
-        <v>9.5</v>
       </c>
       <c r="W26" t="n">
         <v>21</v>
@@ -3494,7 +3494,7 @@
         <v>41</v>
       </c>
       <c r="AD26" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE26" t="n">
         <v>11</v>
@@ -4362,16 +4362,16 @@
         <v>2.9</v>
       </c>
       <c r="J34" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K34" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L34" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M34" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="N34" t="n">
         <v>2.5</v>
@@ -4606,7 +4606,7 @@
         <v>5.25</v>
       </c>
       <c r="J36" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K36" t="n">
         <v>11</v>
@@ -4615,13 +4615,13 @@
         <v>1.25</v>
       </c>
       <c r="M36" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N36" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="O36" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="P36" t="n">
         <v>1.36</v>
@@ -4719,19 +4719,19 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H37" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I37" t="n">
-        <v>5.75</v>
+        <v>6.25</v>
       </c>
       <c r="J37" t="n">
         <v>1.04</v>
       </c>
       <c r="K37" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L37" t="n">
         <v>1.22</v>
@@ -4740,10 +4740,10 @@
         <v>4</v>
       </c>
       <c r="N37" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O37" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="P37" t="n">
         <v>1.33</v>
@@ -4761,13 +4761,13 @@
         <v>7</v>
       </c>
       <c r="U37" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="V37" t="n">
         <v>8.5</v>
       </c>
       <c r="W37" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X37" t="n">
         <v>12</v>
@@ -4791,7 +4791,7 @@
         <v>301</v>
       </c>
       <c r="AE37" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF37" t="n">
         <v>34</v>
@@ -4963,27 +4963,27 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>4.4</v>
+        <v>5.3</v>
       </c>
       <c r="H39" t="n">
-        <v>3.7</v>
+        <v>3.95</v>
       </c>
       <c r="I39" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="M39" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="N39" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="O39" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="P39" t="n">
         <v>1.39</v>
@@ -4992,40 +4992,40 @@
         <v>2.57</v>
       </c>
       <c r="R39" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="S39" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="T39" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="U39" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="V39" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="W39" t="n">
+        <v>100</v>
+      </c>
+      <c r="X39" t="n">
+        <v>55</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>50</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC39" t="n">
         <v>70</v>
-      </c>
-      <c r="X39" t="n">
-        <v>40</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>45</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>65</v>
       </c>
       <c r="AD39" t="n">
         <v>500</v>
@@ -5034,16 +5034,16 @@
         <v>7.5</v>
       </c>
       <c r="AF39" t="n">
-        <v>8.25</v>
+        <v>7.7</v>
       </c>
       <c r="AG39" t="n">
         <v>8</v>
       </c>
       <c r="AH39" t="n">
-        <v>13</v>
+        <v>11.25</v>
       </c>
       <c r="AI39" t="n">
-        <v>13</v>
+        <v>11.75</v>
       </c>
       <c r="AJ39" t="n">
         <v>24</v>
@@ -5081,13 +5081,13 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="H40" t="n">
         <v>3.55</v>
       </c>
       <c r="I40" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
@@ -5116,7 +5116,7 @@
         <v>1.93</v>
       </c>
       <c r="T40" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="U40" t="n">
         <v>9.75</v>
@@ -5125,10 +5125,10 @@
         <v>8.75</v>
       </c>
       <c r="W40" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="X40" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y40" t="n">
         <v>26</v>
@@ -5146,13 +5146,13 @@
         <v>65</v>
       </c>
       <c r="AD40" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AE40" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AF40" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AG40" t="n">
         <v>11.5</v>
@@ -5161,7 +5161,7 @@
         <v>40</v>
       </c>
       <c r="AI40" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ40" t="n">
         <v>35</v>
@@ -5379,10 +5379,10 @@
         <v>450</v>
       </c>
       <c r="AE42" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AF42" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AG42" t="n">
         <v>9</v>
@@ -5394,7 +5394,7 @@
         <v>19</v>
       </c>
       <c r="AJ42" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43">
@@ -5943,25 +5943,25 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H48" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I48" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="J48" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="K48" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L48" t="n">
         <v>1.25</v>
       </c>
       <c r="M48" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N48" t="n">
         <v>1.9</v>
@@ -5982,13 +5982,13 @@
         <v>2</v>
       </c>
       <c r="T48" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U48" t="n">
         <v>21</v>
       </c>
       <c r="V48" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="W48" t="n">
         <v>41</v>
@@ -6000,7 +6000,7 @@
         <v>41</v>
       </c>
       <c r="Z48" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA48" t="n">
         <v>6.5</v>
@@ -6015,7 +6015,7 @@
         <v>201</v>
       </c>
       <c r="AE48" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF48" t="n">
         <v>9</v>
@@ -6024,13 +6024,13 @@
         <v>8.5</v>
       </c>
       <c r="AH48" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI48" t="n">
         <v>15</v>
       </c>
       <c r="AJ48" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49">
@@ -6196,22 +6196,22 @@
         <v>4.2</v>
       </c>
       <c r="J50" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K50" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L50" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M50" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N50" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O50" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P50" t="n">
         <v>1.44</v>
@@ -6427,86 +6427,90 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.98</v>
+        <v>2.32</v>
       </c>
       <c r="H52" t="n">
-        <v>3.2</v>
+        <v>2.95</v>
       </c>
       <c r="I52" t="n">
-        <v>3.65</v>
+        <v>3.1</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="M52" t="n">
-        <v>2.87</v>
+        <v>2.77</v>
       </c>
       <c r="N52" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="O52" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
+        <v>1.65</v>
+      </c>
+      <c r="P52" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>2.55</v>
+      </c>
       <c r="R52" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="S52" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="T52" t="n">
-        <v>7.1</v>
+        <v>7.7</v>
       </c>
       <c r="U52" t="n">
-        <v>9.5</v>
+        <v>11.75</v>
       </c>
       <c r="V52" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="W52" t="n">
+        <v>25</v>
+      </c>
+      <c r="X52" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>65</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>500</v>
+      </c>
+      <c r="AE52" t="n">
         <v>8.5</v>
       </c>
-      <c r="W52" t="n">
-        <v>18</v>
-      </c>
-      <c r="X52" t="n">
+      <c r="AF52" t="n">
         <v>16</v>
       </c>
-      <c r="Y52" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z52" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA52" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AB52" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC52" t="n">
-        <v>70</v>
-      </c>
-      <c r="AD52" t="n">
-        <v>600</v>
-      </c>
-      <c r="AE52" t="n">
-        <v>10</v>
-      </c>
-      <c r="AF52" t="n">
-        <v>19.5</v>
-      </c>
       <c r="AG52" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AH52" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AI52" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AJ52" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="53">
@@ -6919,19 +6923,19 @@
         <v>1.06</v>
       </c>
       <c r="K56" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L56" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M56" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N56" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="O56" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="P56" t="n">
         <v>1.4</v>
@@ -7029,19 +7033,19 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="H57" t="n">
         <v>3.4</v>
       </c>
       <c r="I57" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="J57" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K57" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L57" t="n">
         <v>1.33</v>
@@ -7050,10 +7054,10 @@
         <v>3.25</v>
       </c>
       <c r="N57" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="O57" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="P57" t="n">
         <v>1.44</v>
@@ -7068,13 +7072,13 @@
         <v>1.83</v>
       </c>
       <c r="T57" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U57" t="n">
         <v>17</v>
       </c>
       <c r="V57" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W57" t="n">
         <v>41</v>
@@ -7110,7 +7114,7 @@
         <v>9</v>
       </c>
       <c r="AH57" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI57" t="n">
         <v>17</v>
@@ -7395,25 +7399,25 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="H60" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="I60" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="J60" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K60" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="L60" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="M60" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="N60" t="n">
         <v>1.7</v>
@@ -7422,10 +7426,10 @@
         <v>2.05</v>
       </c>
       <c r="P60" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="Q60" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="R60" t="n">
         <v>1.6</v>
@@ -7434,31 +7438,31 @@
         <v>2.22</v>
       </c>
       <c r="T60" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="U60" t="n">
         <v>19.5</v>
       </c>
       <c r="V60" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="W60" t="n">
         <v>45</v>
       </c>
       <c r="X60" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Y60" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Z60" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AA60" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AB60" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC60" t="n">
         <v>45</v>
@@ -7467,22 +7471,22 @@
         <v>300</v>
       </c>
       <c r="AE60" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AF60" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AG60" t="n">
         <v>8.5</v>
       </c>
       <c r="AH60" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AI60" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AJ60" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61">
@@ -7761,13 +7765,13 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H63" t="n">
         <v>3.4</v>
       </c>
       <c r="I63" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="J63" t="n">
         <v>1.05</v>
@@ -7776,10 +7780,10 @@
         <v>11</v>
       </c>
       <c r="L63" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M63" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N63" t="n">
         <v>1.88</v>
@@ -7809,7 +7813,7 @@
         <v>9</v>
       </c>
       <c r="W63" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X63" t="n">
         <v>17</v>
@@ -7827,7 +7831,7 @@
         <v>15</v>
       </c>
       <c r="AC63" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD63" t="n">
         <v>201</v>
@@ -7836,7 +7840,7 @@
         <v>11</v>
       </c>
       <c r="AF63" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG63" t="n">
         <v>12</v>
@@ -7845,7 +7849,7 @@
         <v>34</v>
       </c>
       <c r="AI63" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ63" t="n">
         <v>34</v>
@@ -7883,19 +7887,19 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>4.4</v>
+        <v>3.95</v>
       </c>
       <c r="H64" t="n">
         <v>2.95</v>
       </c>
       <c r="I64" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="J64" t="n">
         <v>1.13</v>
       </c>
       <c r="K64" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="L64" t="n">
         <v>1.62</v>
@@ -7916,56 +7920,56 @@
         <v>2.05</v>
       </c>
       <c r="R64" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="S64" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="T64" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="U64" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="V64" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="W64" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="X64" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="Y64" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="Z64" t="n">
         <v>4.7</v>
       </c>
       <c r="AA64" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AB64" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AC64" t="n">
         <v>200</v>
       </c>
       <c r="AD64" t="inlineStr"/>
       <c r="AE64" t="n">
-        <v>4.6</v>
+        <v>4.75</v>
       </c>
       <c r="AF64" t="n">
-        <v>7.1</v>
+        <v>7.6</v>
       </c>
       <c r="AG64" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AH64" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AI64" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ64" t="n">
         <v>60</v>
@@ -8003,19 +8007,19 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="H65" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="I65" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="J65" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="K65" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L65" t="n">
         <v>1.65</v>
@@ -8030,56 +8034,56 @@
         <v>1.31</v>
       </c>
       <c r="P65" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="R65" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="S65" t="n">
         <v>1.53</v>
       </c>
       <c r="T65" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="U65" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="V65" t="n">
         <v>10.25</v>
       </c>
       <c r="W65" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="X65" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Y65" t="n">
         <v>55</v>
       </c>
       <c r="Z65" t="n">
-        <v>4.1</v>
+        <v>4.05</v>
       </c>
       <c r="AA65" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="AB65" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AC65" t="n">
         <v>150</v>
       </c>
       <c r="AD65" t="inlineStr"/>
       <c r="AE65" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AF65" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AG65" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH65" t="n">
         <v>75</v>
@@ -8245,19 +8249,19 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H67" t="n">
+        <v>3</v>
+      </c>
+      <c r="I67" t="n">
         <v>3.25</v>
       </c>
-      <c r="I67" t="n">
-        <v>3.2</v>
-      </c>
       <c r="J67" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K67" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L67" t="n">
         <v>1.5</v>
@@ -8278,16 +8282,16 @@
         <v>2.38</v>
       </c>
       <c r="R67" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S67" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T67" t="n">
         <v>6</v>
       </c>
       <c r="U67" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V67" t="n">
         <v>10</v>
@@ -8296,22 +8300,22 @@
         <v>21</v>
       </c>
       <c r="X67" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y67" t="n">
         <v>41</v>
       </c>
       <c r="Z67" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA67" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB67" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC67" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD67" t="n">
         <v>351</v>
@@ -8326,7 +8330,7 @@
         <v>13</v>
       </c>
       <c r="AH67" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI67" t="n">
         <v>34</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-23.xlsx
@@ -647,19 +647,19 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="H2" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="J2" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L2" t="n">
         <v>1.2</v>
@@ -668,16 +668,16 @@
         <v>4.5</v>
       </c>
       <c r="N2" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="O2" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="P2" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="R2" t="n">
         <v>1.67</v>
@@ -686,19 +686,19 @@
         <v>2.1</v>
       </c>
       <c r="T2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="U2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="V2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="W2" t="n">
         <v>51</v>
       </c>
       <c r="X2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Y2" t="n">
         <v>34</v>
@@ -707,10 +707,10 @@
         <v>15</v>
       </c>
       <c r="AA2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC2" t="n">
         <v>41</v>
@@ -719,10 +719,10 @@
         <v>151</v>
       </c>
       <c r="AE2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF2" t="n">
         <v>9</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>8.5</v>
       </c>
       <c r="AG2" t="n">
         <v>8.5</v>
@@ -778,10 +778,10 @@
         <v>13</v>
       </c>
       <c r="J3" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L3" t="n">
         <v>1.17</v>
@@ -814,7 +814,7 @@
         <v>6</v>
       </c>
       <c r="V3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W3" t="n">
         <v>6.5</v>
@@ -841,7 +841,7 @@
         <v>501</v>
       </c>
       <c r="AE3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF3" t="n">
         <v>51</v>
@@ -933,7 +933,7 @@
         <v>7</v>
       </c>
       <c r="U4" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V4" t="n">
         <v>8.5</v>
@@ -963,7 +963,7 @@
         <v>251</v>
       </c>
       <c r="AE4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF4" t="n">
         <v>23</v>
@@ -975,7 +975,7 @@
         <v>51</v>
       </c>
       <c r="AI4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ4" t="n">
         <v>41</v>
@@ -1013,19 +1013,19 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H5" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I5" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="J5" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L5" t="n">
         <v>1.2</v>
@@ -1073,7 +1073,7 @@
         <v>15</v>
       </c>
       <c r="AA5" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB5" t="n">
         <v>13</v>
@@ -1082,7 +1082,7 @@
         <v>41</v>
       </c>
       <c r="AD5" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AE5" t="n">
         <v>13</v>
@@ -1094,7 +1094,7 @@
         <v>12</v>
       </c>
       <c r="AH5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI5" t="n">
         <v>23</v>
@@ -1135,13 +1135,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H6" t="n">
         <v>2.8</v>
       </c>
       <c r="I6" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="J6" t="n">
         <v>1.17</v>
@@ -1258,46 +1258,46 @@
         <v>1.62</v>
       </c>
       <c r="H7" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J7" t="n">
         <v>1.04</v>
       </c>
       <c r="K7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L7" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M7" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N7" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="O7" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="P7" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="R7" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="S7" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="T7" t="n">
         <v>7</v>
       </c>
       <c r="U7" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V7" t="n">
         <v>8.5</v>
@@ -1324,7 +1324,7 @@
         <v>51</v>
       </c>
       <c r="AD7" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE7" t="n">
         <v>13</v>
@@ -1377,13 +1377,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="H8" t="n">
         <v>3.5</v>
       </c>
       <c r="I8" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="J8" t="n">
         <v>1.05</v>
@@ -1416,10 +1416,10 @@
         <v>2</v>
       </c>
       <c r="T8" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V8" t="n">
         <v>10</v>
@@ -1440,7 +1440,7 @@
         <v>6.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC8" t="n">
         <v>41</v>
@@ -1577,7 +1577,7 @@
         <v>17</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH9" t="n">
         <v>34</v>
@@ -1884,10 +1884,10 @@
         <v>4</v>
       </c>
       <c r="N13" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="O13" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="P13" t="n">
         <v>1.33</v>
@@ -2225,70 +2225,70 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="H16" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I16" t="n">
-        <v>5.4</v>
+        <v>6.2</v>
       </c>
       <c r="J16" t="n">
         <v>1.07</v>
       </c>
       <c r="K16" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="L16" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="M16" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="N16" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="O16" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="P16" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.75</v>
+        <v>2.82</v>
       </c>
       <c r="R16" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S16" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="T16" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="U16" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="V16" t="n">
         <v>8.75</v>
       </c>
       <c r="W16" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="X16" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y16" t="n">
         <v>35</v>
       </c>
       <c r="Z16" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AA16" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="AB16" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AC16" t="n">
         <v>120</v>
@@ -2297,22 +2297,22 @@
         <v>1250</v>
       </c>
       <c r="AE16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF16" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AG16" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH16" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AI16" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AJ16" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17">
@@ -2469,10 +2469,10 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="H18" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="I18" t="n">
         <v>5.5</v>
@@ -2484,34 +2484,34 @@
         <v>13</v>
       </c>
       <c r="L18" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M18" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N18" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="O18" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S18" t="n">
         <v>2</v>
       </c>
-      <c r="P18" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.91</v>
-      </c>
       <c r="T18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U18" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="V18" t="n">
         <v>8.5</v>
@@ -2520,28 +2520,28 @@
         <v>12</v>
       </c>
       <c r="X18" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z18" t="n">
         <v>13</v>
       </c>
-      <c r="Y18" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>10</v>
-      </c>
       <c r="AA18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>201</v>
+      </c>
+      <c r="AE18" t="n">
         <v>17</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>301</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>15</v>
       </c>
       <c r="AF18" t="n">
         <v>29</v>
@@ -2701,7 +2701,7 @@
         <v>3.6</v>
       </c>
       <c r="I20" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J20" t="n">
         <v>1.04</v>
@@ -2716,10 +2716,10 @@
         <v>4</v>
       </c>
       <c r="N20" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O20" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="P20" t="n">
         <v>1.33</v>
@@ -2838,10 +2838,10 @@
         <v>4</v>
       </c>
       <c r="N21" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O21" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="P21" t="n">
         <v>1.33</v>
@@ -2939,52 +2939,52 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="H22" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I22" t="n">
         <v>5.75</v>
       </c>
       <c r="J22" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K22" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L22" t="n">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="M22" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="N22" t="n">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="O22" t="n">
-        <v>2.88</v>
+        <v>2.4</v>
       </c>
       <c r="P22" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="Q22" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="R22" t="n">
-        <v>1.57</v>
+        <v>1.73</v>
       </c>
       <c r="S22" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T22" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="U22" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="V22" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W22" t="n">
         <v>11</v>
@@ -2993,31 +2993,31 @@
         <v>11</v>
       </c>
       <c r="Y22" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Z22" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AA22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AB22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC22" t="n">
         <v>41</v>
       </c>
       <c r="AD22" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="AE22" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF22" t="n">
         <v>34</v>
       </c>
       <c r="AG22" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH22" t="n">
         <v>67</v>
@@ -3026,7 +3026,7 @@
         <v>41</v>
       </c>
       <c r="AJ22" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23">
@@ -3076,10 +3076,10 @@
         <v>13</v>
       </c>
       <c r="L23" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M23" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N23" t="n">
         <v>1.7</v>
@@ -3425,7 +3425,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H26" t="n">
         <v>3.4</v>
@@ -3559,7 +3559,7 @@
         <v>1.02</v>
       </c>
       <c r="K27" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L27" t="n">
         <v>1.13</v>
@@ -4612,16 +4612,16 @@
         <v>11</v>
       </c>
       <c r="L36" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M36" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N36" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="O36" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="P36" t="n">
         <v>1.36</v>
@@ -4963,13 +4963,13 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="H39" t="n">
         <v>3.95</v>
       </c>
       <c r="I39" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
@@ -4998,22 +4998,22 @@
         <v>1.87</v>
       </c>
       <c r="T39" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="U39" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="V39" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="W39" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="X39" t="n">
         <v>55</v>
       </c>
       <c r="Y39" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="Z39" t="n">
         <v>12</v>
@@ -5022,7 +5022,7 @@
         <v>7.8</v>
       </c>
       <c r="AB39" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AC39" t="n">
         <v>70</v>
@@ -5031,10 +5031,10 @@
         <v>500</v>
       </c>
       <c r="AE39" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AF39" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AG39" t="n">
         <v>8</v>
@@ -5346,7 +5346,7 @@
         <v>1.93</v>
       </c>
       <c r="T42" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="U42" t="n">
         <v>15.5</v>
@@ -5429,13 +5429,13 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H43" t="n">
         <v>3.75</v>
       </c>
       <c r="I43" t="n">
-        <v>4.75</v>
+        <v>4.7</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
@@ -5460,10 +5460,10 @@
         <v>1.88</v>
       </c>
       <c r="T43" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="U43" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="V43" t="n">
         <v>8</v>
@@ -5472,10 +5472,10 @@
         <v>12.5</v>
       </c>
       <c r="X43" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y43" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Z43" t="n">
         <v>11.25</v>
@@ -5484,22 +5484,22 @@
         <v>7.3</v>
       </c>
       <c r="AB43" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC43" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AD43" t="n">
         <v>500</v>
       </c>
       <c r="AE43" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AF43" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG43" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AH43" t="n">
         <v>80</v>
@@ -5546,10 +5546,10 @@
         <v>2.9</v>
       </c>
       <c r="H44" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="I44" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
@@ -5562,48 +5562,48 @@
         <v>1.47</v>
       </c>
       <c r="P44" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R44" t="inlineStr"/>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="U44" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="V44" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="W44" t="n">
         <v>28</v>
       </c>
       <c r="X44" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Y44" t="n">
         <v>35</v>
       </c>
       <c r="Z44" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AA44" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="AB44" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC44" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AD44" t="n">
         <v>500</v>
       </c>
       <c r="AE44" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AF44" t="n">
         <v>8.75</v>
@@ -5612,13 +5612,13 @@
         <v>8.25</v>
       </c>
       <c r="AH44" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AI44" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AJ44" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45">
@@ -5653,13 +5653,13 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="H45" t="n">
         <v>3.6</v>
       </c>
       <c r="I45" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
@@ -5672,7 +5672,7 @@
         <v>1.75</v>
       </c>
       <c r="P45" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="Q45" t="n">
         <v>2.42</v>
@@ -5683,19 +5683,19 @@
         <v>5.3</v>
       </c>
       <c r="U45" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="V45" t="n">
         <v>6.9</v>
       </c>
       <c r="W45" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="X45" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="Y45" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z45" t="n">
         <v>9</v>
@@ -5710,25 +5710,25 @@
         <v>70</v>
       </c>
       <c r="AD45" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AE45" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AF45" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AG45" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH45" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AI45" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ45" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46">
@@ -5952,10 +5952,10 @@
         <v>1.9</v>
       </c>
       <c r="J48" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K48" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L48" t="n">
         <v>1.25</v>
@@ -6309,18 +6309,18 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H51" t="n">
         <v>3.15</v>
       </c>
       <c r="I51" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="M51" t="n">
         <v>2.77</v>
@@ -6332,10 +6332,10 @@
         <v>1.65</v>
       </c>
       <c r="P51" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="R51" t="n">
         <v>1.78</v>
@@ -6344,22 +6344,22 @@
         <v>1.83</v>
       </c>
       <c r="T51" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="U51" t="n">
         <v>17</v>
       </c>
       <c r="V51" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="W51" t="n">
         <v>45</v>
       </c>
       <c r="X51" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Y51" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Z51" t="n">
         <v>8.5</v>
@@ -6371,7 +6371,7 @@
         <v>14.5</v>
       </c>
       <c r="AC51" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AD51" t="n">
         <v>600</v>
@@ -6389,7 +6389,7 @@
         <v>20</v>
       </c>
       <c r="AI51" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AJ51" t="n">
         <v>30</v>
@@ -6427,27 +6427,27 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="H52" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="I52" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M52" t="n">
-        <v>2.77</v>
+        <v>2.82</v>
       </c>
       <c r="N52" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="O52" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="P52" t="n">
         <v>1.39</v>
@@ -6456,61 +6456,61 @@
         <v>2.55</v>
       </c>
       <c r="R52" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="S52" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="T52" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="U52" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="V52" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="W52" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X52" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="Y52" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Z52" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AA52" t="n">
         <v>5.8</v>
       </c>
       <c r="AB52" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC52" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AD52" t="n">
         <v>500</v>
       </c>
       <c r="AE52" t="n">
-        <v>8.5</v>
+        <v>9.25</v>
       </c>
       <c r="AF52" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG52" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AH52" t="n">
         <v>45</v>
       </c>
       <c r="AI52" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AJ52" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53">
@@ -6914,52 +6914,52 @@
         <v>2.8</v>
       </c>
       <c r="H56" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I56" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="J56" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K56" t="n">
+        <v>11</v>
+      </c>
+      <c r="L56" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M56" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="N56" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="O56" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="P56" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>3</v>
+      </c>
+      <c r="R56" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S56" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T56" t="n">
         <v>10</v>
       </c>
-      <c r="L56" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M56" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="N56" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="O56" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="P56" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="R56" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S56" t="n">
-        <v>2</v>
-      </c>
-      <c r="T56" t="n">
-        <v>9</v>
-      </c>
       <c r="U56" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V56" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W56" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X56" t="n">
         <v>21</v>
@@ -6968,10 +6968,10 @@
         <v>29</v>
       </c>
       <c r="Z56" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AA56" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB56" t="n">
         <v>13</v>
@@ -6980,7 +6980,7 @@
         <v>41</v>
       </c>
       <c r="AD56" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE56" t="n">
         <v>9</v>
@@ -6989,16 +6989,16 @@
         <v>13</v>
       </c>
       <c r="AG56" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH56" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ56" t="n">
         <v>26</v>
-      </c>
-      <c r="AI56" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ56" t="n">
-        <v>29</v>
       </c>
     </row>
     <row r="57">
@@ -7899,40 +7899,40 @@
         <v>1.13</v>
       </c>
       <c r="K64" t="n">
-        <v>4.4</v>
+        <v>4.45</v>
       </c>
       <c r="L64" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="M64" t="n">
         <v>2.05</v>
       </c>
       <c r="N64" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="O64" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P64" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="Q64" t="n">
         <v>2.05</v>
       </c>
       <c r="R64" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="S64" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="T64" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="U64" t="n">
         <v>18.5</v>
       </c>
       <c r="V64" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="W64" t="n">
         <v>65</v>
@@ -7944,26 +7944,26 @@
         <v>90</v>
       </c>
       <c r="Z64" t="n">
-        <v>4.7</v>
+        <v>4.75</v>
       </c>
       <c r="AA64" t="n">
         <v>6.3</v>
       </c>
       <c r="AB64" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC64" t="n">
         <v>200</v>
       </c>
       <c r="AD64" t="inlineStr"/>
       <c r="AE64" t="n">
-        <v>4.75</v>
+        <v>4.8</v>
       </c>
       <c r="AF64" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AG64" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AH64" t="n">
         <v>17.5</v>
@@ -7972,7 +7972,7 @@
         <v>23</v>
       </c>
       <c r="AJ64" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="65">
@@ -8258,10 +8258,10 @@
         <v>3.25</v>
       </c>
       <c r="J67" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K67" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L67" t="n">
         <v>1.5</v>
@@ -8374,16 +8374,16 @@
         <v>1.2</v>
       </c>
       <c r="H68" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="I68" t="n">
         <v>15</v>
       </c>
       <c r="J68" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K68" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L68" t="n">
         <v>1.14</v>
@@ -8419,7 +8419,7 @@
         <v>10</v>
       </c>
       <c r="W68" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X68" t="n">
         <v>11</v>
@@ -8446,7 +8446,7 @@
         <v>34</v>
       </c>
       <c r="AF68" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG68" t="n">
         <v>34</v>
@@ -8493,90 +8493,90 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="H69" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="I69" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="M69" t="n">
-        <v>2.6</v>
+        <v>2.47</v>
       </c>
       <c r="N69" t="n">
-        <v>2.1</v>
+        <v>2.22</v>
       </c>
       <c r="O69" t="n">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="P69" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="Q69" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="R69" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="S69" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="T69" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="U69" t="n">
         <v>12.5</v>
       </c>
       <c r="V69" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="W69" t="n">
         <v>30</v>
       </c>
       <c r="X69" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Y69" t="n">
         <v>40</v>
       </c>
       <c r="Z69" t="n">
-        <v>7.9</v>
+        <v>7.3</v>
       </c>
       <c r="AA69" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AB69" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AC69" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AD69" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="AE69" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="AF69" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AG69" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AH69" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI69" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AJ69" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-05-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-23.xlsx
@@ -778,10 +778,10 @@
         <v>13</v>
       </c>
       <c r="J3" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L3" t="n">
         <v>1.17</v>
@@ -1013,13 +1013,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
         <v>3.75</v>
       </c>
       <c r="I5" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J5" t="n">
         <v>1.03</v>
@@ -1073,7 +1073,7 @@
         <v>15</v>
       </c>
       <c r="AA5" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB5" t="n">
         <v>13</v>
@@ -1094,7 +1094,7 @@
         <v>12</v>
       </c>
       <c r="AH5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI5" t="n">
         <v>23</v>
@@ -1135,13 +1135,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H6" t="n">
         <v>2.8</v>
       </c>
       <c r="I6" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="J6" t="n">
         <v>1.17</v>
@@ -1624,10 +1624,10 @@
         <v>3.25</v>
       </c>
       <c r="H10" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I10" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -1635,7 +1635,7 @@
         <v>1.37</v>
       </c>
       <c r="M10" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="N10" t="n">
         <v>2.07</v>
@@ -1650,10 +1650,10 @@
         <v>2.45</v>
       </c>
       <c r="R10" t="n">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="S10" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="T10" t="n">
         <v>8.5</v>
@@ -1662,7 +1662,7 @@
         <v>16</v>
       </c>
       <c r="V10" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="W10" t="n">
         <v>45</v>
@@ -1677,34 +1677,34 @@
         <v>8</v>
       </c>
       <c r="AA10" t="n">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="AB10" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AD10" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AE10" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AF10" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AG10" t="n">
         <v>9</v>
       </c>
       <c r="AH10" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AJ10" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11">
@@ -1985,27 +1985,27 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.82</v>
+        <v>1.9</v>
       </c>
       <c r="H14" t="n">
         <v>3.5</v>
       </c>
       <c r="I14" t="n">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="M14" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="N14" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="O14" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="P14" t="n">
         <v>1.39</v>
@@ -2017,22 +2017,22 @@
         <v>1.7</v>
       </c>
       <c r="S14" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="T14" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="U14" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="V14" t="n">
         <v>8.25</v>
       </c>
       <c r="W14" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="X14" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y14" t="n">
         <v>25</v>
@@ -2041,7 +2041,7 @@
         <v>10.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AB14" t="n">
         <v>14.5</v>
@@ -2053,19 +2053,19 @@
         <v>500</v>
       </c>
       <c r="AE14" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AF14" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG14" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AI14" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AJ14" t="n">
         <v>40</v>
@@ -2118,16 +2118,16 @@
         <v>13</v>
       </c>
       <c r="L15" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M15" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N15" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O15" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="P15" t="n">
         <v>1.33</v>
@@ -2237,16 +2237,16 @@
         <v>1.07</v>
       </c>
       <c r="K16" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="L16" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M16" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="N16" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="O16" t="n">
         <v>1.78</v>
@@ -2264,10 +2264,10 @@
         <v>1.7</v>
       </c>
       <c r="T16" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="U16" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="V16" t="n">
         <v>8.75</v>
@@ -2276,19 +2276,19 @@
         <v>11</v>
       </c>
       <c r="X16" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y16" t="n">
         <v>35</v>
       </c>
       <c r="Z16" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AA16" t="n">
         <v>8</v>
       </c>
       <c r="AB16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AC16" t="n">
         <v>120</v>
@@ -2297,7 +2297,7 @@
         <v>1250</v>
       </c>
       <c r="AE16" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AF16" t="n">
         <v>40</v>
@@ -2469,13 +2469,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="H18" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I18" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J18" t="n">
         <v>1.04</v>
@@ -2490,10 +2490,10 @@
         <v>4.33</v>
       </c>
       <c r="N18" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="O18" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="P18" t="n">
         <v>1.3</v>
@@ -2502,10 +2502,10 @@
         <v>3.4</v>
       </c>
       <c r="R18" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S18" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T18" t="n">
         <v>8</v>
@@ -2517,7 +2517,7 @@
         <v>8.5</v>
       </c>
       <c r="W18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X18" t="n">
         <v>12</v>
@@ -2535,7 +2535,7 @@
         <v>15</v>
       </c>
       <c r="AC18" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD18" t="n">
         <v>201</v>
@@ -2591,39 +2591,51 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>4.5</v>
+        <v>5.75</v>
       </c>
       <c r="H19" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I19" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3.25</v>
+      </c>
       <c r="N19" t="n">
-        <v>2.05</v>
+        <v>1.88</v>
       </c>
       <c r="O19" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
+        <v>1.93</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R19" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.6</v>
+      </c>
       <c r="T19" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="U19" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="V19" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="W19" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="X19" t="n">
         <v>51</v>
@@ -2632,32 +2644,32 @@
         <v>51</v>
       </c>
       <c r="Z19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA19" t="n">
         <v>10</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>9.5</v>
       </c>
       <c r="AB19" t="n">
         <v>26</v>
       </c>
       <c r="AC19" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AD19" t="inlineStr"/>
       <c r="AE19" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AF19" t="n">
         <v>6</v>
       </c>
       <c r="AG19" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH19" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AI19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ19" t="n">
         <v>34</v>
@@ -2695,7 +2707,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H20" t="n">
         <v>3.6</v>
@@ -2716,10 +2728,10 @@
         <v>4</v>
       </c>
       <c r="N20" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="O20" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="P20" t="n">
         <v>1.33</v>
@@ -2779,7 +2791,7 @@
         <v>34</v>
       </c>
       <c r="AI20" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ20" t="n">
         <v>29</v>
@@ -2820,7 +2832,7 @@
         <v>2.55</v>
       </c>
       <c r="H21" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I21" t="n">
         <v>2.55</v>
@@ -2832,10 +2844,10 @@
         <v>13</v>
       </c>
       <c r="L21" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M21" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N21" t="n">
         <v>1.7</v>
@@ -2844,22 +2856,22 @@
         <v>2.1</v>
       </c>
       <c r="P21" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q21" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R21" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S21" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V21" t="n">
         <v>10</v>
@@ -2871,7 +2883,7 @@
         <v>19</v>
       </c>
       <c r="Y21" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z21" t="n">
         <v>13</v>
@@ -2880,19 +2892,19 @@
         <v>7</v>
       </c>
       <c r="AB21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC21" t="n">
         <v>41</v>
       </c>
       <c r="AD21" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG21" t="n">
         <v>10</v>
@@ -2904,7 +2916,7 @@
         <v>19</v>
       </c>
       <c r="AJ21" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22">
@@ -2948,10 +2960,10 @@
         <v>5.75</v>
       </c>
       <c r="J22" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K22" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L22" t="n">
         <v>1.17</v>
@@ -3458,7 +3470,7 @@
         <v>3</v>
       </c>
       <c r="R26" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S26" t="n">
         <v>2.05</v>
@@ -4129,37 +4141,37 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="H32" t="n">
         <v>3.6</v>
       </c>
       <c r="I32" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="O32" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="S32" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="T32" t="n">
         <v>12</v>
       </c>
       <c r="U32" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="V32" t="n">
         <v>10</v>
@@ -4168,7 +4180,7 @@
         <v>32</v>
       </c>
       <c r="X32" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Y32" t="n">
         <v>23</v>
@@ -4189,22 +4201,22 @@
         <v>250</v>
       </c>
       <c r="AE32" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AF32" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG32" t="n">
         <v>9.25</v>
       </c>
       <c r="AH32" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI32" t="n">
         <v>16.5</v>
       </c>
       <c r="AJ32" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33">
@@ -4636,7 +4648,7 @@
         <v>1.8</v>
       </c>
       <c r="T36" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U36" t="n">
         <v>7.5</v>
@@ -4651,10 +4663,10 @@
         <v>13</v>
       </c>
       <c r="Y36" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z36" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA36" t="n">
         <v>7.5</v>
@@ -4666,13 +4678,13 @@
         <v>51</v>
       </c>
       <c r="AD36" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE36" t="n">
         <v>13</v>
       </c>
       <c r="AF36" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG36" t="n">
         <v>17</v>
@@ -4731,7 +4743,7 @@
         <v>1.04</v>
       </c>
       <c r="K37" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L37" t="n">
         <v>1.22</v>
@@ -4746,7 +4758,7 @@
         <v>2.05</v>
       </c>
       <c r="P37" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q37" t="n">
         <v>3.25</v>
@@ -4841,13 +4853,13 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="H38" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I38" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J38" t="n">
         <v>1.05</v>
@@ -4925,7 +4937,7 @@
         <v>67</v>
       </c>
       <c r="AI38" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ38" t="n">
         <v>51</v>
@@ -4963,13 +4975,13 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>5.4</v>
+        <v>6.2</v>
       </c>
       <c r="H39" t="n">
-        <v>3.95</v>
+        <v>4.3</v>
       </c>
       <c r="I39" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
@@ -4977,7 +4989,7 @@
         <v>1.22</v>
       </c>
       <c r="M39" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="N39" t="n">
         <v>1.65</v>
@@ -4992,61 +5004,61 @@
         <v>2.57</v>
       </c>
       <c r="R39" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="S39" t="n">
         <v>1.75</v>
       </c>
-      <c r="S39" t="n">
-        <v>1.87</v>
-      </c>
       <c r="T39" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="U39" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="V39" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="W39" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="X39" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="Y39" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="Z39" t="n">
         <v>12</v>
       </c>
       <c r="AA39" t="n">
-        <v>7.8</v>
+        <v>8.5</v>
       </c>
       <c r="AB39" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="AC39" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AD39" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="AE39" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AF39" t="n">
-        <v>7.6</v>
+        <v>6.7</v>
       </c>
       <c r="AG39" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AH39" t="n">
-        <v>11.25</v>
+        <v>9.5</v>
       </c>
       <c r="AI39" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AJ39" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40">
@@ -5081,13 +5093,13 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="H40" t="n">
         <v>3.55</v>
       </c>
       <c r="I40" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
@@ -5101,7 +5113,7 @@
         <v>1.78</v>
       </c>
       <c r="O40" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="P40" t="n">
         <v>1.38</v>
@@ -5122,7 +5134,7 @@
         <v>9.75</v>
       </c>
       <c r="V40" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="W40" t="n">
         <v>17.5</v>
@@ -5146,7 +5158,7 @@
         <v>65</v>
       </c>
       <c r="AD40" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AE40" t="n">
         <v>10.5</v>
@@ -5158,7 +5170,7 @@
         <v>11.5</v>
       </c>
       <c r="AH40" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AI40" t="n">
         <v>28</v>
@@ -5346,7 +5358,7 @@
         <v>1.93</v>
       </c>
       <c r="T42" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="U42" t="n">
         <v>15.5</v>
@@ -5429,13 +5441,13 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H43" t="n">
         <v>3.75</v>
       </c>
       <c r="I43" t="n">
-        <v>4.7</v>
+        <v>4.75</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
@@ -5460,10 +5472,10 @@
         <v>1.88</v>
       </c>
       <c r="T43" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="U43" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="V43" t="n">
         <v>8</v>
@@ -5472,10 +5484,10 @@
         <v>12.5</v>
       </c>
       <c r="X43" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Y43" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Z43" t="n">
         <v>11.25</v>
@@ -5484,22 +5496,22 @@
         <v>7.3</v>
       </c>
       <c r="AB43" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC43" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AD43" t="n">
         <v>500</v>
       </c>
       <c r="AE43" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AF43" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG43" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AH43" t="n">
         <v>80</v>
@@ -5880,36 +5892,92 @@
           <t>Guarani de Fram</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
+      <c r="G47" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H47" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I47" t="n">
+        <v>3.3</v>
+      </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr"/>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="inlineStr"/>
-      <c r="T47" t="inlineStr"/>
-      <c r="U47" t="inlineStr"/>
-      <c r="V47" t="inlineStr"/>
-      <c r="W47" t="inlineStr"/>
-      <c r="X47" t="inlineStr"/>
-      <c r="Y47" t="inlineStr"/>
-      <c r="Z47" t="inlineStr"/>
-      <c r="AA47" t="inlineStr"/>
-      <c r="AB47" t="inlineStr"/>
-      <c r="AC47" t="inlineStr"/>
-      <c r="AD47" t="inlineStr"/>
-      <c r="AE47" t="inlineStr"/>
-      <c r="AF47" t="inlineStr"/>
-      <c r="AG47" t="inlineStr"/>
-      <c r="AH47" t="inlineStr"/>
-      <c r="AI47" t="inlineStr"/>
-      <c r="AJ47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M47" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="N47" t="n">
+        <v>2</v>
+      </c>
+      <c r="O47" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="S47" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="T47" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="U47" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="V47" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="W47" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="X47" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>80</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>700</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>45</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5958,19 +6026,19 @@
         <v>11</v>
       </c>
       <c r="L48" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M48" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N48" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="O48" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="P48" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q48" t="n">
         <v>3</v>
@@ -7060,10 +7128,10 @@
         <v>1.75</v>
       </c>
       <c r="P57" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="R57" t="n">
         <v>1.83</v>
@@ -7780,16 +7848,16 @@
         <v>11</v>
       </c>
       <c r="L63" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M63" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N63" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="O63" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="P63" t="n">
         <v>1.36</v>
@@ -7887,13 +7955,13 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>3.95</v>
+        <v>4.15</v>
       </c>
       <c r="H64" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="I64" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="J64" t="n">
         <v>1.13</v>
@@ -7905,71 +7973,71 @@
         <v>1.6</v>
       </c>
       <c r="M64" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="N64" t="n">
         <v>2.7</v>
       </c>
       <c r="O64" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P64" t="n">
         <v>1.6</v>
       </c>
       <c r="Q64" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="R64" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="S64" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="T64" t="n">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="U64" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="V64" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="W64" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="X64" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="Y64" t="n">
         <v>90</v>
       </c>
       <c r="Z64" t="n">
-        <v>4.75</v>
+        <v>4.8</v>
       </c>
       <c r="AA64" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AB64" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AC64" t="n">
         <v>200</v>
       </c>
       <c r="AD64" t="inlineStr"/>
       <c r="AE64" t="n">
-        <v>4.8</v>
+        <v>4.75</v>
       </c>
       <c r="AF64" t="n">
-        <v>7.7</v>
+        <v>7.3</v>
       </c>
       <c r="AG64" t="n">
         <v>10</v>
       </c>
       <c r="AH64" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI64" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ64" t="n">
         <v>55</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-23.xlsx
@@ -647,19 +647,19 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I2" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="J2" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L2" t="n">
         <v>1.2</v>
@@ -686,10 +686,10 @@
         <v>2.1</v>
       </c>
       <c r="T2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="U2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="V2" t="n">
         <v>15</v>
@@ -701,16 +701,16 @@
         <v>34</v>
       </c>
       <c r="Y2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z2" t="n">
         <v>15</v>
       </c>
       <c r="AA2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC2" t="n">
         <v>41</v>
@@ -722,7 +722,7 @@
         <v>8.5</v>
       </c>
       <c r="AF2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AG2" t="n">
         <v>8.5</v>
@@ -1016,16 +1016,16 @@
         <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I5" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J5" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L5" t="n">
         <v>1.2</v>
@@ -1058,7 +1058,7 @@
         <v>11</v>
       </c>
       <c r="V5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W5" t="n">
         <v>19</v>
@@ -1097,7 +1097,7 @@
         <v>41</v>
       </c>
       <c r="AI5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ5" t="n">
         <v>29</v>
@@ -1377,13 +1377,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="H8" t="n">
         <v>3.5</v>
       </c>
       <c r="I8" t="n">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="J8" t="n">
         <v>1.05</v>
@@ -1398,10 +1398,10 @@
         <v>3.5</v>
       </c>
       <c r="N8" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="O8" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="P8" t="n">
         <v>1.36</v>
@@ -1416,10 +1416,10 @@
         <v>2</v>
       </c>
       <c r="T8" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V8" t="n">
         <v>10</v>
@@ -1440,7 +1440,7 @@
         <v>6.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC8" t="n">
         <v>41</v>
@@ -1872,13 +1872,13 @@
         <v>4.1</v>
       </c>
       <c r="J13" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K13" t="n">
         <v>13</v>
       </c>
       <c r="L13" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
@@ -1985,10 +1985,10 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="H14" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I14" t="n">
         <v>3.65</v>
@@ -1996,52 +1996,52 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M14" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="N14" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="O14" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="P14" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="R14" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="S14" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="T14" t="n">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="U14" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="V14" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="W14" t="n">
         <v>16.5</v>
       </c>
       <c r="X14" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Z14" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AA14" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AB14" t="n">
         <v>14.5</v>
@@ -2062,13 +2062,13 @@
         <v>12.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AI14" t="n">
         <v>32</v>
       </c>
       <c r="AJ14" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15">
@@ -2103,31 +2103,31 @@
         </is>
       </c>
       <c r="G15" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K15" t="n">
+        <v>12</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="M15" t="n">
         <v>4</v>
       </c>
-      <c r="H15" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="K15" t="n">
-        <v>13</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M15" t="n">
-        <v>3.75</v>
-      </c>
       <c r="N15" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O15" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="P15" t="n">
         <v>1.33</v>
@@ -2166,25 +2166,25 @@
         <v>7</v>
       </c>
       <c r="AB15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC15" t="n">
         <v>41</v>
       </c>
       <c r="AD15" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE15" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF15" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AG15" t="n">
         <v>8.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI15" t="n">
         <v>15</v>
@@ -2478,22 +2478,22 @@
         <v>5.75</v>
       </c>
       <c r="J18" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="K18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L18" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="M18" t="n">
         <v>4.33</v>
       </c>
       <c r="N18" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O18" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P18" t="n">
         <v>1.3</v>
@@ -3106,10 +3106,10 @@
         <v>3.4</v>
       </c>
       <c r="R23" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="S23" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="T23" t="n">
         <v>8</v>
@@ -3446,13 +3446,13 @@
         <v>3.1</v>
       </c>
       <c r="J26" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K26" t="n">
         <v>11</v>
       </c>
       <c r="L26" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M26" t="n">
         <v>3.75</v>
@@ -3470,7 +3470,7 @@
         <v>3</v>
       </c>
       <c r="R26" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S26" t="n">
         <v>2.05</v>
@@ -3559,19 +3559,19 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="H27" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I27" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J27" t="n">
         <v>1.02</v>
       </c>
       <c r="K27" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L27" t="n">
         <v>1.13</v>
@@ -3619,16 +3619,16 @@
         <v>21</v>
       </c>
       <c r="AA27" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB27" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC27" t="n">
         <v>41</v>
       </c>
       <c r="AD27" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AE27" t="n">
         <v>21</v>
@@ -3646,7 +3646,7 @@
         <v>41</v>
       </c>
       <c r="AJ27" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28">
@@ -4746,19 +4746,19 @@
         <v>13</v>
       </c>
       <c r="L37" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M37" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N37" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O37" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="P37" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q37" t="n">
         <v>3.25</v>
@@ -4886,10 +4886,10 @@
         <v>3</v>
       </c>
       <c r="R38" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="S38" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="T38" t="n">
         <v>6.5</v>
@@ -5093,13 +5093,13 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="H40" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I40" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
@@ -5113,7 +5113,7 @@
         <v>1.78</v>
       </c>
       <c r="O40" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="P40" t="n">
         <v>1.38</v>
@@ -5137,22 +5137,22 @@
         <v>8.5</v>
       </c>
       <c r="W40" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="X40" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y40" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z40" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AA40" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AB40" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC40" t="n">
         <v>65</v>
@@ -5164,19 +5164,19 @@
         <v>10.5</v>
       </c>
       <c r="AF40" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AG40" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AH40" t="n">
         <v>45</v>
       </c>
       <c r="AI40" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AJ40" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41">
@@ -5211,47 +5211,47 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="H41" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="I41" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="M41" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="N41" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="O41" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="S41" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="T41" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="U41" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="V41" t="n">
         <v>8.75</v>
       </c>
       <c r="W41" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="X41" t="n">
         <v>11.25</v>
@@ -5260,10 +5260,10 @@
         <v>30</v>
       </c>
       <c r="Z41" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AA41" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="AB41" t="n">
         <v>24</v>
@@ -5271,18 +5271,20 @@
       <c r="AC41" t="n">
         <v>120</v>
       </c>
-      <c r="AD41" t="inlineStr"/>
+      <c r="AD41" t="n">
+        <v>1000</v>
+      </c>
       <c r="AE41" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF41" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AG41" t="n">
         <v>27</v>
       </c>
       <c r="AH41" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AI41" t="n">
         <v>110</v>
@@ -5334,22 +5336,22 @@
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M42" t="n">
         <v>2.95</v>
       </c>
       <c r="N42" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="O42" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="P42" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="R42" t="n">
         <v>1.7</v>
@@ -5358,10 +5360,10 @@
         <v>1.93</v>
       </c>
       <c r="T42" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="U42" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="V42" t="n">
         <v>10.5</v>
@@ -5388,7 +5390,7 @@
         <v>60</v>
       </c>
       <c r="AD42" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AE42" t="n">
         <v>7.8</v>
@@ -5441,13 +5443,13 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H43" t="n">
         <v>3.75</v>
       </c>
       <c r="I43" t="n">
-        <v>4.75</v>
+        <v>4.7</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
@@ -5472,10 +5474,10 @@
         <v>1.88</v>
       </c>
       <c r="T43" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="U43" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="V43" t="n">
         <v>8</v>
@@ -5484,10 +5486,10 @@
         <v>12.5</v>
       </c>
       <c r="X43" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y43" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Z43" t="n">
         <v>11.25</v>
@@ -5496,22 +5498,22 @@
         <v>7.3</v>
       </c>
       <c r="AB43" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC43" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AD43" t="n">
         <v>500</v>
       </c>
       <c r="AE43" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AF43" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG43" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AH43" t="n">
         <v>80</v>
@@ -5558,10 +5560,10 @@
         <v>2.9</v>
       </c>
       <c r="H44" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="I44" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
@@ -5582,7 +5584,7 @@
       <c r="R44" t="inlineStr"/>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="U44" t="n">
         <v>11</v>
@@ -5609,7 +5611,7 @@
         <v>13.5</v>
       </c>
       <c r="AC44" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AD44" t="n">
         <v>500</v>
@@ -5668,7 +5670,7 @@
         <v>1.5</v>
       </c>
       <c r="H45" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I45" t="n">
         <v>5.9</v>
@@ -5716,16 +5718,16 @@
         <v>6.3</v>
       </c>
       <c r="AB45" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC45" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AD45" t="n">
         <v>600</v>
       </c>
       <c r="AE45" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AF45" t="n">
         <v>28</v>
@@ -6038,13 +6040,13 @@
         <v>1.88</v>
       </c>
       <c r="P48" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q48" t="n">
         <v>3</v>
       </c>
       <c r="R48" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="S48" t="n">
         <v>2</v>
@@ -6142,10 +6144,10 @@
         <v>1.75</v>
       </c>
       <c r="J49" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K49" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L49" t="n">
         <v>1.25</v>
@@ -6154,10 +6156,10 @@
         <v>3.75</v>
       </c>
       <c r="N49" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O49" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="P49" t="n">
         <v>1.33</v>
@@ -6255,19 +6257,19 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="H50" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="I50" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="J50" t="n">
         <v>1.07</v>
       </c>
       <c r="K50" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L50" t="n">
         <v>1.36</v>
@@ -6276,10 +6278,10 @@
         <v>3</v>
       </c>
       <c r="N50" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O50" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="P50" t="n">
         <v>1.44</v>
@@ -6297,22 +6299,22 @@
         <v>6</v>
       </c>
       <c r="U50" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V50" t="n">
         <v>9</v>
       </c>
       <c r="W50" t="n">
+        <v>13</v>
+      </c>
+      <c r="X50" t="n">
         <v>15</v>
       </c>
-      <c r="X50" t="n">
-        <v>17</v>
-      </c>
       <c r="Y50" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z50" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA50" t="n">
         <v>6.5</v>
@@ -6330,10 +6332,10 @@
         <v>11</v>
       </c>
       <c r="AF50" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG50" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH50" t="n">
         <v>51</v>
@@ -6377,10 +6379,10 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H51" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I51" t="n">
         <v>2.15</v>
@@ -6403,7 +6405,7 @@
         <v>1.39</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="R51" t="n">
         <v>1.78</v>
@@ -6412,49 +6414,49 @@
         <v>1.83</v>
       </c>
       <c r="T51" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U51" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="V51" t="n">
         <v>11.25</v>
       </c>
       <c r="W51" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="X51" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y51" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Z51" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AA51" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AB51" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC51" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AD51" t="n">
         <v>600</v>
       </c>
       <c r="AE51" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AF51" t="n">
         <v>10</v>
       </c>
       <c r="AG51" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AH51" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI51" t="n">
         <v>18.5</v>
@@ -6613,13 +6615,13 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="H53" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I53" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="J53" t="n">
         <v>1.06</v>
@@ -6631,19 +6633,19 @@
         <v>1.29</v>
       </c>
       <c r="M53" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="N53" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="O53" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="P53" t="n">
         <v>1.4</v>
       </c>
       <c r="Q53" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="R53" t="n">
         <v>1.78</v>
@@ -6652,7 +6654,7 @@
         <v>1.93</v>
       </c>
       <c r="T53" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="U53" t="n">
         <v>9</v>
@@ -6682,16 +6684,16 @@
         <v>70</v>
       </c>
       <c r="AD53" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AE53" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AF53" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AG53" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH53" t="n">
         <v>50</v>
@@ -6735,13 +6737,13 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H54" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="I54" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="J54" t="n">
         <v>1.05</v>
@@ -6750,22 +6752,22 @@
         <v>8.75</v>
       </c>
       <c r="L54" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="M54" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="N54" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="O54" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="P54" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="Q54" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="R54" t="n">
         <v>1.78</v>
@@ -6783,13 +6785,13 @@
         <v>8.75</v>
       </c>
       <c r="W54" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="X54" t="n">
         <v>13</v>
       </c>
-      <c r="X54" t="n">
-        <v>13.5</v>
-      </c>
       <c r="Y54" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Z54" t="n">
         <v>8.75</v>
@@ -6807,16 +6809,16 @@
         <v>600</v>
       </c>
       <c r="AE54" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AF54" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AG54" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AH54" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AI54" t="n">
         <v>50</v>
@@ -7128,10 +7130,10 @@
         <v>1.75</v>
       </c>
       <c r="P57" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="R57" t="n">
         <v>1.83</v>
@@ -8460,10 +8462,10 @@
         <v>5.5</v>
       </c>
       <c r="N68" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="O68" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="P68" t="n">
         <v>1.22</v>
